--- a/ITX.MC.xlsx
+++ b/ITX.MC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0078DB-38C9-4659-8624-00FC3195E2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435E8556-D49B-45D3-A126-67054FD910AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{D8A593F9-CE2E-4D8C-B815-D7E0264BAFFB}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{D8A593F9-CE2E-4D8C-B815-D7E0264BAFFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <author>Oscar Settje</author>
   </authors>
   <commentList>
-    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{32FF3501-E8D1-4A2A-A667-54A210BCECE0}">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{32FF3501-E8D1-4A2A-A667-54A210BCECE0}">
       <text>
         <r>
           <rPr>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="195">
   <si>
     <t>Inditex</t>
   </si>
@@ -668,6 +668,18 @@
   </si>
   <si>
     <t>ROA</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1036,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
@@ -1139,6 +1151,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1162,13 +1175,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
       <xdr:row>113</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -1212,13 +1225,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
       <xdr:row>113</xdr:row>
       <xdr:rowOff>41275</xdr:rowOff>
@@ -1583,7 +1596,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1610,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="3">
-        <v>44.78</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1627,10 +1640,10 @@
         <v>2</v>
       </c>
       <c r="J4" s="65">
-        <v>3114.4529830000001</v>
+        <v>3115.2378010000002</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1648,7 +1661,7 @@
       </c>
       <c r="J5" s="65">
         <f>J4*J3</f>
-        <v>139465.20457874</v>
+        <v>145793.12908680001</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1656,11 +1669,11 @@
         <v>4</v>
       </c>
       <c r="J6" s="65">
-        <f>6382+5120</f>
-        <v>11502</v>
+        <f>5973+4812</f>
+        <v>10785</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1687,7 +1700,7 @@
         <v>7</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1695,7 +1708,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="18">
-        <f>Model!R15/Model!$R$22</f>
+        <f>Model!U15/Model!$U$22</f>
         <v>0.72467799816396361</v>
       </c>
       <c r="D8" t="s">
@@ -1707,7 +1720,7 @@
       </c>
       <c r="J8" s="65">
         <f>J5-J6+J7</f>
-        <v>127970.20457874</v>
+        <v>135015.12908680001</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1715,7 +1728,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="18">
-        <f>Model!R16/Model!$R$22</f>
+        <f>Model!U16/Model!$U$22</f>
         <v>6.5624391465212678E-2</v>
       </c>
       <c r="D9" t="s">
@@ -1728,7 +1741,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="18">
-        <f>Model!R17/Model!$R$22</f>
+        <f>Model!U17/Model!$U$22</f>
         <v>5.1158650235068298E-2</v>
       </c>
       <c r="D10" t="s">
@@ -1744,7 +1757,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="18">
-        <f>Model!R18/Model!$R$22</f>
+        <f>Model!U18/Model!$U$22</f>
         <v>7.2912899546554652E-2</v>
       </c>
       <c r="D11" t="s">
@@ -1758,7 +1771,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="18">
-        <f>Model!R19/Model!$R$22</f>
+        <f>Model!U19/Model!$U$22</f>
         <v>6.4928923136840344E-2</v>
       </c>
       <c r="D12" t="s">
@@ -1773,7 +1786,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="19">
-        <f>Model!R20/Model!$R$22</f>
+        <f>Model!U20/Model!$U$22</f>
         <v>2.0697137452360421E-2</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -1793,23 +1806,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C93ABEB-D09F-4AA0-ADD3-13F567FA4650}">
-  <dimension ref="A1:AM128"/>
+  <dimension ref="A1:AP128"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S1" sqref="S1"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" style="3" customWidth="1"/>
-    <col min="3" max="18" width="8.7109375" style="3"/>
+    <col min="3" max="10" width="8.7109375" style="3"/>
+    <col min="11" max="14" width="9.140625" style="3"/>
+    <col min="15" max="21" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>90</v>
       </c>
@@ -1830,155 +1845,174 @@
       <c r="P1"/>
       <c r="Q1"/>
       <c r="R1"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2"/>
-      <c r="C2"/>
+      <c r="C2" s="22" t="s">
+        <v>8</v>
+      </c>
       <c r="D2" s="22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2"/>
-      <c r="M2" s="21">
+        <v>191</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="O2"/>
+      <c r="P2" s="21">
         <v>18</v>
       </c>
-      <c r="N2" s="21">
-        <f>M2+1</f>
+      <c r="Q2" s="21">
+        <f>P2+1</f>
         <v>19</v>
       </c>
-      <c r="O2" s="21">
-        <f t="shared" ref="O2:X2" si="0">N2+1</f>
+      <c r="R2" s="21">
+        <f t="shared" ref="R2:AA2" si="0">Q2+1</f>
         <v>20</v>
       </c>
-      <c r="P2" s="21">
+      <c r="S2" s="21">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="Q2" s="21">
+      <c r="T2" s="21">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="R2" s="21">
+      <c r="U2" s="21">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="S2" s="21">
+      <c r="V2" s="21">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="T2" s="21">
+      <c r="W2" s="21">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="U2" s="21">
+      <c r="X2" s="21">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="V2" s="21">
+      <c r="Y2" s="21">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="W2" s="21">
+      <c r="Z2" s="21">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="X2" s="21">
+      <c r="AA2" s="21">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="Y2" s="21"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB2" s="21"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="66"/>
+      <c r="C3" s="66">
+        <v>5801</v>
+      </c>
       <c r="D3" s="66">
-        <v>5801</v>
-      </c>
-      <c r="E3" s="66">
         <v>5745</v>
       </c>
+      <c r="E3" s="66"/>
       <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
+      <c r="G3" s="66">
+        <v>5698</v>
+      </c>
       <c r="H3" s="66">
-        <v>5698</v>
+        <v>5667</v>
       </c>
       <c r="I3" s="66">
-        <v>5667</v>
+        <v>5659</v>
       </c>
       <c r="J3" s="66">
-        <v>5659</v>
+        <v>5563</v>
       </c>
       <c r="K3" s="66">
+        <v>5562</v>
+      </c>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66">
+        <v>7490</v>
+      </c>
+      <c r="Q3" s="66">
+        <v>7469</v>
+      </c>
+      <c r="R3" s="66">
+        <v>6829</v>
+      </c>
+      <c r="S3" s="66">
+        <v>6477</v>
+      </c>
+      <c r="T3" s="66">
+        <v>5815</v>
+      </c>
+      <c r="U3" s="66">
+        <v>5692</v>
+      </c>
+      <c r="V3" s="66">
         <v>5563</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66">
-        <v>7490</v>
-      </c>
-      <c r="N3" s="66">
-        <v>7469</v>
-      </c>
-      <c r="O3" s="66">
-        <v>6829</v>
-      </c>
-      <c r="P3" s="66">
-        <v>6477</v>
-      </c>
-      <c r="Q3" s="66">
-        <v>5815</v>
-      </c>
-      <c r="R3" s="66">
-        <v>5692</v>
-      </c>
-      <c r="S3" s="66">
-        <v>5563</v>
-      </c>
-      <c r="T3" s="66">
-        <f>S3*0.97</f>
+      <c r="W3" s="66">
+        <f>V3*0.97</f>
         <v>5396.11</v>
       </c>
-      <c r="U3" s="66">
-        <f t="shared" ref="U3:X3" si="1">T3*0.97</f>
+      <c r="X3" s="66">
+        <f t="shared" ref="X3:AA3" si="1">W3*0.97</f>
         <v>5234.2266999999993</v>
       </c>
-      <c r="V3" s="66">
+      <c r="Y3" s="66">
         <f t="shared" si="1"/>
         <v>5077.1998989999993</v>
       </c>
-      <c r="W3" s="66">
+      <c r="Z3" s="66">
         <f t="shared" si="1"/>
         <v>4924.8839020299993</v>
       </c>
-      <c r="X3" s="66">
+      <c r="AA3" s="66">
         <f t="shared" si="1"/>
         <v>4777.137384969099</v>
       </c>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>142</v>
       </c>
@@ -1992,36 +2026,39 @@
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
-      <c r="M4" s="66">
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66">
         <v>4962.0810000000001</v>
       </c>
-      <c r="N4" s="66">
+      <c r="Q4" s="66">
         <v>5086.732</v>
       </c>
-      <c r="O4" s="66">
+      <c r="R4" s="66">
         <v>4826.5559999999996</v>
       </c>
-      <c r="P4" s="66">
+      <c r="S4" s="66">
         <v>4742.1570000000002</v>
       </c>
-      <c r="Q4" s="66">
+      <c r="T4" s="66">
         <v>4473.3580000000002</v>
       </c>
-      <c r="R4" s="66">
+      <c r="U4" s="66">
         <v>4557.17</v>
       </c>
-      <c r="S4" s="66">
+      <c r="V4" s="66">
         <v>5650.5749999999998</v>
       </c>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
       <c r="W4" s="66"/>
       <c r="X4" s="66"/>
       <c r="Y4" s="66"/>
       <c r="Z4" s="66"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>137</v>
       </c>
@@ -2035,58 +2072,61 @@
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
-      <c r="M5" s="66">
-        <f t="shared" ref="M5:S5" si="2">M22-M8</f>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66">
+        <f t="shared" ref="P5:V5" si="2">P22-P8</f>
         <v>22945</v>
       </c>
-      <c r="N5" s="66">
+      <c r="Q5" s="66">
         <f t="shared" si="2"/>
         <v>24387</v>
       </c>
-      <c r="O5" s="66">
+      <c r="R5" s="66">
         <f t="shared" si="2"/>
         <v>13802</v>
       </c>
-      <c r="P5" s="66">
+      <c r="S5" s="66">
         <f t="shared" si="2"/>
         <v>20216</v>
       </c>
-      <c r="Q5" s="66">
+      <c r="T5" s="66">
         <f t="shared" si="2"/>
         <v>24769</v>
       </c>
-      <c r="R5" s="66">
+      <c r="U5" s="66">
         <f t="shared" si="2"/>
         <v>26847</v>
       </c>
-      <c r="S5" s="66">
+      <c r="V5" s="66">
         <f t="shared" si="2"/>
         <v>28432</v>
       </c>
-      <c r="T5" s="66">
-        <f t="shared" ref="T5:X5" si="3">T6*T3</f>
+      <c r="W5" s="66">
+        <f t="shared" ref="W5:AA5" si="3">W6*W3</f>
         <v>28957.991999999998</v>
       </c>
-      <c r="U5" s="66">
+      <c r="X5" s="66">
         <f t="shared" si="3"/>
         <v>29493.714852000001</v>
       </c>
-      <c r="V5" s="66">
+      <c r="Y5" s="66">
         <f t="shared" si="3"/>
         <v>30039.348576762</v>
       </c>
-      <c r="W5" s="66">
+      <c r="Z5" s="66">
         <f t="shared" si="3"/>
         <v>30595.076525432101</v>
       </c>
-      <c r="X5" s="66">
+      <c r="AA5" s="66">
         <f t="shared" si="3"/>
         <v>31161.085441152594</v>
       </c>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>138</v>
       </c>
@@ -2100,58 +2140,61 @@
       <c r="J6" s="66"/>
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
-      <c r="M6" s="66">
-        <f t="shared" ref="M6:Q6" si="4">M5/M3</f>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66">
+        <f t="shared" ref="P6:T6" si="4">P5/P3</f>
         <v>3.0634178905206944</v>
       </c>
-      <c r="N6" s="66">
+      <c r="Q6" s="66">
         <f t="shared" si="4"/>
         <v>3.2650957290132547</v>
       </c>
-      <c r="O6" s="66">
+      <c r="R6" s="66">
         <f t="shared" si="4"/>
         <v>2.0210865426856057</v>
       </c>
-      <c r="P6" s="66">
+      <c r="S6" s="66">
         <f t="shared" si="4"/>
         <v>3.1211980855334258</v>
       </c>
-      <c r="Q6" s="66">
+      <c r="T6" s="66">
         <f t="shared" si="4"/>
         <v>4.2595012897678419</v>
       </c>
-      <c r="R6" s="66">
-        <f>R5/R3</f>
+      <c r="U6" s="66">
+        <f>U5/U3</f>
         <v>4.7166198172874205</v>
       </c>
-      <c r="S6" s="66">
-        <f>S5/S3</f>
+      <c r="V6" s="66">
+        <f>V5/V3</f>
         <v>5.1109113787524718</v>
       </c>
-      <c r="T6" s="66">
-        <f t="shared" ref="T6:X6" si="5">S6*1.05</f>
+      <c r="W6" s="66">
+        <f t="shared" ref="W6:AA6" si="5">V6*1.05</f>
         <v>5.3664569476900956</v>
       </c>
-      <c r="U6" s="66">
+      <c r="X6" s="66">
         <f t="shared" si="5"/>
         <v>5.6347797950746008</v>
       </c>
-      <c r="V6" s="66">
+      <c r="Y6" s="66">
         <f t="shared" si="5"/>
         <v>5.9165187848283312</v>
       </c>
-      <c r="W6" s="66">
+      <c r="Z6" s="66">
         <f t="shared" si="5"/>
         <v>6.212344724069748</v>
       </c>
-      <c r="X6" s="66">
+      <c r="AA6" s="66">
         <f t="shared" si="5"/>
         <v>6.5229619602732356</v>
       </c>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="66"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>141</v>
       </c>
@@ -2165,43 +2208,46 @@
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
-      <c r="M7" s="66">
-        <f t="shared" ref="M7:Q7" si="6">M5/M4</f>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66">
+        <f t="shared" ref="P7:T7" si="6">P5/P4</f>
         <v>4.6240680069511155</v>
       </c>
-      <c r="N7" s="66">
+      <c r="Q7" s="66">
         <f t="shared" si="6"/>
         <v>4.7942372430865241</v>
       </c>
-      <c r="O7" s="66">
+      <c r="R7" s="66">
         <f t="shared" si="6"/>
         <v>2.8595959520618845</v>
       </c>
-      <c r="P7" s="66">
+      <c r="S7" s="66">
         <f t="shared" si="6"/>
         <v>4.2630389504185544</v>
       </c>
-      <c r="Q7" s="66">
+      <c r="T7" s="66">
         <f t="shared" si="6"/>
         <v>5.5370037452848617</v>
       </c>
-      <c r="R7" s="66">
-        <f>R5/R4</f>
+      <c r="U7" s="66">
+        <f>U5/U4</f>
         <v>5.8911561341797647</v>
       </c>
-      <c r="S7" s="66">
-        <f>S5/S4</f>
+      <c r="V7" s="66">
+        <f>V5/V4</f>
         <v>5.0317003136848903</v>
       </c>
-      <c r="T7" s="66"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="66"/>
       <c r="W7" s="66"/>
       <c r="X7" s="66"/>
       <c r="Y7" s="66"/>
       <c r="Z7" s="66"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA7" s="66"/>
+      <c r="AB7" s="66"/>
+      <c r="AC7" s="66"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>131</v>
       </c>
@@ -2215,51 +2261,54 @@
       <c r="J8" s="66"/>
       <c r="K8" s="66"/>
       <c r="L8" s="66"/>
-      <c r="M8" s="66">
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66">
         <v>3200</v>
       </c>
-      <c r="N8" s="66">
+      <c r="Q8" s="66">
         <v>3900</v>
       </c>
-      <c r="O8" s="66">
+      <c r="R8" s="66">
         <v>6600</v>
       </c>
-      <c r="P8" s="66">
+      <c r="S8" s="66">
         <v>7500</v>
       </c>
-      <c r="Q8" s="66">
+      <c r="T8" s="66">
         <v>7800</v>
       </c>
-      <c r="R8" s="66">
+      <c r="U8" s="66">
         <v>9100</v>
       </c>
-      <c r="S8" s="66">
+      <c r="V8" s="66">
         <v>10200</v>
       </c>
-      <c r="T8" s="66">
-        <f t="shared" ref="T8:X8" si="7">T10*T13</f>
+      <c r="W8" s="66">
+        <f t="shared" ref="W8:AA8" si="7">W10*W13</f>
         <v>10714.08</v>
       </c>
-      <c r="U8" s="66">
+      <c r="X8" s="66">
         <f t="shared" si="7"/>
         <v>11254.069632000001</v>
       </c>
-      <c r="V8" s="66">
+      <c r="Y8" s="66">
         <f t="shared" si="7"/>
         <v>11821.2747414528</v>
       </c>
-      <c r="W8" s="66">
+      <c r="Z8" s="66">
         <f t="shared" si="7"/>
         <v>12417.066988422022</v>
       </c>
-      <c r="X8" s="66">
+      <c r="AA8" s="66">
         <f t="shared" si="7"/>
         <v>13042.887164638492</v>
       </c>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="66"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="66"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>134</v>
       </c>
@@ -2273,36 +2322,39 @@
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
-      <c r="M9" s="67" t="s">
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="N9" s="67" t="s">
+      <c r="Q9" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="O9" s="66">
+      <c r="R9" s="66">
         <v>132</v>
       </c>
-      <c r="P9" s="66">
+      <c r="S9" s="66">
         <v>146</v>
       </c>
-      <c r="Q9" s="66">
+      <c r="T9" s="66">
         <v>149</v>
       </c>
-      <c r="R9" s="66">
+      <c r="U9" s="66">
         <v>152</v>
       </c>
-      <c r="S9" s="66">
+      <c r="V9" s="66">
         <v>218</v>
       </c>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
       <c r="W9" s="66"/>
       <c r="X9" s="66"/>
       <c r="Y9" s="66"/>
       <c r="Z9" s="66"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="66"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>132</v>
       </c>
@@ -2316,52 +2368,55 @@
       <c r="J10" s="66"/>
       <c r="K10" s="66"/>
       <c r="L10" s="66"/>
-      <c r="M10" s="67" t="s">
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="N10" s="67" t="s">
+      <c r="Q10" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="O10" s="66">
+      <c r="R10" s="66">
         <v>5300</v>
       </c>
-      <c r="P10" s="66">
+      <c r="S10" s="66">
         <v>6200</v>
       </c>
-      <c r="Q10" s="68">
-        <f>R10/1.1</f>
+      <c r="T10" s="68">
+        <f>U10/1.1</f>
         <v>5909.090909090909</v>
       </c>
-      <c r="R10" s="66">
+      <c r="U10" s="66">
         <v>6500</v>
       </c>
-      <c r="S10" s="66">
+      <c r="V10" s="66">
         <v>8100</v>
       </c>
-      <c r="T10" s="66">
-        <f t="shared" ref="T10:X10" si="8">S10*1.01</f>
+      <c r="W10" s="66">
+        <f t="shared" ref="W10:AA10" si="8">V10*1.01</f>
         <v>8181</v>
       </c>
-      <c r="U10" s="66">
+      <c r="X10" s="66">
         <f t="shared" si="8"/>
         <v>8262.81</v>
       </c>
-      <c r="V10" s="66">
+      <c r="Y10" s="66">
         <f t="shared" si="8"/>
         <v>8345.4380999999994</v>
       </c>
-      <c r="W10" s="66">
+      <c r="Z10" s="66">
         <f t="shared" si="8"/>
         <v>8428.892480999999</v>
       </c>
-      <c r="X10" s="66">
+      <c r="AA10" s="66">
         <f t="shared" si="8"/>
         <v>8513.181405809999</v>
       </c>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="66"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB10" s="66"/>
+      <c r="AC10" s="66"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>133</v>
       </c>
@@ -2375,36 +2430,39 @@
       <c r="J11" s="66"/>
       <c r="K11" s="66"/>
       <c r="L11" s="66"/>
-      <c r="M11" s="71" t="s">
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="N11" s="71" t="s">
+      <c r="Q11" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="O11" s="49">
+      <c r="R11" s="49">
         <v>200</v>
       </c>
-      <c r="P11" s="49">
+      <c r="S11" s="49">
         <v>228</v>
       </c>
-      <c r="Q11" s="49">
+      <c r="T11" s="49">
         <v>240</v>
       </c>
-      <c r="R11" s="49">
+      <c r="U11" s="49">
         <v>251</v>
       </c>
-      <c r="S11" s="49">
+      <c r="V11" s="49">
         <v>257</v>
       </c>
-      <c r="T11" s="49"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49"/>
       <c r="W11" s="49"/>
       <c r="X11" s="49"/>
       <c r="Y11" s="49"/>
       <c r="Z11" s="49"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>140</v>
       </c>
@@ -2418,41 +2476,44 @@
       <c r="J12" s="66"/>
       <c r="K12" s="66"/>
       <c r="L12" s="66"/>
-      <c r="M12" s="71" t="s">
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="N12" s="71" t="s">
+      <c r="Q12" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="O12" s="49">
-        <f t="shared" ref="O12:Q12" si="9">O8/O9</f>
+      <c r="R12" s="49">
+        <f t="shared" ref="R12:T12" si="9">R8/R9</f>
         <v>50</v>
       </c>
-      <c r="P12" s="49">
+      <c r="S12" s="49">
         <f t="shared" si="9"/>
         <v>51.369863013698627</v>
       </c>
-      <c r="Q12" s="49">
+      <c r="T12" s="49">
         <f t="shared" si="9"/>
         <v>52.348993288590606</v>
       </c>
-      <c r="R12" s="49">
-        <f>R8/R9</f>
+      <c r="U12" s="49">
+        <f>U8/U9</f>
         <v>59.868421052631582</v>
       </c>
-      <c r="S12" s="49">
-        <f>S8/S9</f>
+      <c r="V12" s="49">
+        <f>V8/V9</f>
         <v>46.788990825688074</v>
       </c>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
       <c r="W12" s="49"/>
       <c r="X12" s="49"/>
       <c r="Y12" s="49"/>
       <c r="Z12" s="49"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>139</v>
       </c>
@@ -2466,56 +2527,59 @@
       <c r="J13" s="66"/>
       <c r="K13" s="66"/>
       <c r="L13" s="66"/>
-      <c r="M13" s="71" t="s">
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="N13" s="71" t="s">
+      <c r="Q13" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="O13" s="49">
-        <f t="shared" ref="O13:Q13" si="10">O8/O10</f>
+      <c r="R13" s="49">
+        <f t="shared" ref="R13:T13" si="10">R8/R10</f>
         <v>1.2452830188679245</v>
       </c>
-      <c r="P13" s="49">
+      <c r="S13" s="49">
         <f t="shared" si="10"/>
         <v>1.2096774193548387</v>
       </c>
-      <c r="Q13" s="49">
+      <c r="T13" s="49">
         <f t="shared" si="10"/>
         <v>1.32</v>
       </c>
-      <c r="R13" s="49">
-        <f>R8/R10</f>
+      <c r="U13" s="49">
+        <f>U8/U10</f>
         <v>1.4</v>
       </c>
-      <c r="S13" s="49">
-        <f>S8/S10</f>
+      <c r="V13" s="49">
+        <f>V8/V10</f>
         <v>1.2592592592592593</v>
       </c>
-      <c r="T13" s="49">
-        <f t="shared" ref="T13:W13" si="11">S13*1.04</f>
+      <c r="W13" s="49">
+        <f t="shared" ref="W13:Z13" si="11">V13*1.04</f>
         <v>1.3096296296296297</v>
       </c>
-      <c r="U13" s="49">
+      <c r="X13" s="49">
         <f t="shared" si="11"/>
         <v>1.362014814814815</v>
       </c>
-      <c r="V13" s="49">
+      <c r="Y13" s="49">
         <f t="shared" si="11"/>
         <v>1.4164954074074076</v>
       </c>
-      <c r="W13" s="49">
+      <c r="Z13" s="49">
         <f t="shared" si="11"/>
         <v>1.473155223703704</v>
       </c>
-      <c r="X13" s="49">
-        <f>W13*1.04</f>
+      <c r="AA13" s="49">
+        <f>Z13*1.04</f>
         <v>1.5320814326518521</v>
       </c>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="49"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C14" s="66"/>
       <c r="D14" s="66"/>
       <c r="E14" s="66"/>
@@ -2527,21 +2591,24 @@
       <c r="K14" s="66"/>
       <c r="L14" s="66"/>
       <c r="M14" s="66"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
       <c r="Q14" s="69"/>
       <c r="R14" s="69"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="66"/>
       <c r="W14" s="66"/>
       <c r="X14" s="66"/>
       <c r="Y14" s="66"/>
       <c r="Z14" s="66"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="66"/>
+      <c r="AC14" s="66"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
@@ -2555,36 +2622,39 @@
       <c r="J15" s="66"/>
       <c r="K15" s="66"/>
       <c r="L15" s="66"/>
-      <c r="M15" s="66">
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66">
         <v>18021</v>
       </c>
-      <c r="N15" s="66">
+      <c r="Q15" s="66">
         <v>19564</v>
       </c>
-      <c r="O15" s="66">
+      <c r="R15" s="66">
         <v>14129</v>
       </c>
-      <c r="P15" s="66">
+      <c r="S15" s="66">
         <v>19586</v>
       </c>
-      <c r="Q15" s="66">
+      <c r="T15" s="66">
         <v>23761</v>
       </c>
-      <c r="R15" s="66">
+      <c r="U15" s="66">
         <v>26050</v>
       </c>
-      <c r="S15" s="66">
+      <c r="V15" s="66">
         <v>27778</v>
       </c>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
       <c r="W15" s="66"/>
       <c r="X15" s="66"/>
       <c r="Y15" s="66"/>
       <c r="Z15" s="66"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA15" s="66"/>
+      <c r="AB15" s="66"/>
+      <c r="AC15" s="66"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
@@ -2598,36 +2668,39 @@
       <c r="J16" s="66"/>
       <c r="K16" s="66"/>
       <c r="L16" s="66"/>
-      <c r="M16" s="66">
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66">
         <v>1862</v>
       </c>
-      <c r="N16" s="66">
+      <c r="Q16" s="66">
         <v>1970</v>
       </c>
-      <c r="O16" s="66">
+      <c r="R16" s="66">
         <v>1425</v>
       </c>
-      <c r="P16" s="66">
+      <c r="S16" s="66">
         <v>1876</v>
       </c>
-      <c r="Q16" s="66">
+      <c r="T16" s="66">
         <v>2152</v>
       </c>
-      <c r="R16" s="66">
+      <c r="U16" s="66">
         <v>2359</v>
       </c>
-      <c r="S16" s="66">
+      <c r="V16" s="66">
         <v>2469</v>
       </c>
-      <c r="T16" s="66"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="66"/>
       <c r="W16" s="66"/>
       <c r="X16" s="66"/>
       <c r="Y16" s="66"/>
       <c r="Z16" s="66"/>
-    </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA16" s="66"/>
+      <c r="AB16" s="66"/>
+      <c r="AC16" s="66"/>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
@@ -2641,36 +2714,39 @@
       <c r="J17" s="66"/>
       <c r="K17" s="66"/>
       <c r="L17" s="66"/>
-      <c r="M17" s="66">
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66">
         <v>1802</v>
       </c>
-      <c r="N17" s="66">
+      <c r="Q17" s="66">
         <v>1900</v>
       </c>
-      <c r="O17" s="66">
+      <c r="R17" s="66">
         <v>1271</v>
       </c>
-      <c r="P17" s="66">
+      <c r="S17" s="66">
         <v>1653</v>
       </c>
-      <c r="Q17" s="66">
+      <c r="T17" s="66">
         <v>1593</v>
       </c>
-      <c r="R17" s="66">
+      <c r="U17" s="66">
         <v>1839</v>
       </c>
-      <c r="S17" s="66">
+      <c r="V17" s="66">
         <v>1960</v>
       </c>
-      <c r="T17" s="66"/>
-      <c r="U17" s="66"/>
-      <c r="V17" s="66"/>
       <c r="W17" s="66"/>
       <c r="X17" s="66"/>
       <c r="Y17" s="66"/>
       <c r="Z17" s="66"/>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="66"/>
+      <c r="AC17" s="66"/>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
@@ -2684,36 +2760,39 @@
       <c r="J18" s="66"/>
       <c r="K18" s="66"/>
       <c r="L18" s="66"/>
-      <c r="M18" s="66">
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66">
         <v>2240</v>
-      </c>
-      <c r="N18" s="66">
-        <v>2384</v>
-      </c>
-      <c r="O18" s="66">
-        <v>1772</v>
-      </c>
-      <c r="P18" s="66">
-        <v>2177</v>
       </c>
       <c r="Q18" s="66">
         <v>2384</v>
       </c>
       <c r="R18" s="66">
+        <v>1772</v>
+      </c>
+      <c r="S18" s="66">
+        <v>2177</v>
+      </c>
+      <c r="T18" s="66">
+        <v>2384</v>
+      </c>
+      <c r="U18" s="66">
         <v>2621</v>
       </c>
-      <c r="S18" s="66">
+      <c r="V18" s="66">
         <v>2930</v>
       </c>
-      <c r="T18" s="66"/>
-      <c r="U18" s="66"/>
-      <c r="V18" s="66"/>
       <c r="W18" s="66"/>
       <c r="X18" s="66"/>
       <c r="Y18" s="66"/>
       <c r="Z18" s="66"/>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA18" s="66"/>
+      <c r="AB18" s="66"/>
+      <c r="AC18" s="66"/>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
@@ -2727,36 +2806,39 @@
       <c r="J19" s="66"/>
       <c r="K19" s="66"/>
       <c r="L19" s="66"/>
-      <c r="M19" s="66">
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66">
         <v>1534</v>
       </c>
-      <c r="N19" s="66">
+      <c r="Q19" s="66">
         <v>1750</v>
       </c>
-      <c r="O19" s="66">
+      <c r="R19" s="66">
         <v>1283</v>
       </c>
-      <c r="P19" s="66">
+      <c r="S19" s="66">
         <v>1824</v>
       </c>
-      <c r="Q19" s="66">
+      <c r="T19" s="66">
         <v>2056</v>
       </c>
-      <c r="R19" s="66">
+      <c r="U19" s="66">
         <v>2334</v>
       </c>
-      <c r="S19" s="66">
+      <c r="V19" s="66">
         <v>2664</v>
       </c>
-      <c r="T19" s="66"/>
-      <c r="U19" s="66"/>
-      <c r="V19" s="66"/>
       <c r="W19" s="66"/>
       <c r="X19" s="66"/>
       <c r="Y19" s="66"/>
       <c r="Z19" s="66"/>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA19" s="66"/>
+      <c r="AB19" s="66"/>
+      <c r="AC19" s="66"/>
+    </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
@@ -2770,36 +2852,39 @@
       <c r="J20" s="66"/>
       <c r="K20" s="66"/>
       <c r="L20" s="66"/>
-      <c r="M20" s="66">
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66">
         <v>585</v>
       </c>
-      <c r="N20" s="66">
+      <c r="Q20" s="66">
         <v>604</v>
       </c>
-      <c r="O20" s="66">
+      <c r="R20" s="66">
         <v>522</v>
       </c>
-      <c r="P20" s="66">
+      <c r="S20" s="66">
         <v>600</v>
       </c>
-      <c r="Q20" s="66">
+      <c r="T20" s="66">
         <v>623</v>
       </c>
-      <c r="R20" s="66">
+      <c r="U20" s="66">
         <v>744</v>
       </c>
-      <c r="S20" s="66">
+      <c r="V20" s="66">
         <v>831</v>
       </c>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="66"/>
       <c r="W20" s="66"/>
       <c r="X20" s="66"/>
       <c r="Y20" s="66"/>
       <c r="Z20" s="66"/>
-    </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA20" s="66"/>
+      <c r="AB20" s="66"/>
+      <c r="AC20" s="66"/>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>97</v>
       </c>
@@ -2813,20 +2898,14 @@
       <c r="J21" s="66"/>
       <c r="K21" s="66"/>
       <c r="L21" s="66"/>
-      <c r="M21" s="66">
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66">
         <v>101</v>
       </c>
-      <c r="N21" s="66">
+      <c r="Q21" s="66">
         <v>115</v>
-      </c>
-      <c r="O21" s="66">
-        <v>0</v>
-      </c>
-      <c r="P21" s="66">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="66">
-        <v>0</v>
       </c>
       <c r="R21" s="66">
         <v>0</v>
@@ -2834,432 +2913,475 @@
       <c r="S21" s="66">
         <v>0</v>
       </c>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
+      <c r="T21" s="66">
+        <v>0</v>
+      </c>
+      <c r="U21" s="66">
+        <v>0</v>
+      </c>
+      <c r="V21" s="66">
+        <v>0</v>
+      </c>
       <c r="W21" s="66"/>
       <c r="X21" s="66"/>
       <c r="Y21" s="66"/>
       <c r="Z21" s="66"/>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="66"/>
+      <c r="AC21" s="66"/>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="66"/>
+      <c r="C22" s="70">
+        <v>7611</v>
+      </c>
       <c r="D22" s="70">
-        <v>7611</v>
+        <v>9239</v>
       </c>
       <c r="E22" s="70">
-        <v>9239</v>
+        <v>8758</v>
       </c>
       <c r="F22" s="70">
-        <v>8758</v>
+        <v>10338</v>
       </c>
       <c r="G22" s="70">
-        <v>10338</v>
+        <v>8150</v>
       </c>
       <c r="H22" s="70">
-        <v>8150</v>
+        <f>18065-G22</f>
+        <v>9915</v>
       </c>
       <c r="I22" s="70">
-        <f>18065-H22</f>
-        <v>9915</v>
+        <f>27422-SUM(G22:H22)</f>
+        <v>9357</v>
       </c>
       <c r="J22" s="70">
-        <f>27422-SUM(H22:I22)</f>
-        <v>9357</v>
+        <v>11210</v>
       </c>
       <c r="K22" s="70">
-        <v>11210</v>
-      </c>
-      <c r="L22" s="66"/>
-      <c r="M22" s="70">
-        <f t="shared" ref="M22:Q22" si="12">SUM(M15:M21)</f>
+        <v>8274</v>
+      </c>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="70">
+        <f t="shared" ref="P22:T22" si="12">SUM(P15:P21)</f>
         <v>26145</v>
       </c>
-      <c r="N22" s="70">
+      <c r="Q22" s="70">
         <f t="shared" si="12"/>
         <v>28287</v>
       </c>
-      <c r="O22" s="70">
+      <c r="R22" s="70">
         <f t="shared" si="12"/>
         <v>20402</v>
       </c>
-      <c r="P22" s="70">
+      <c r="S22" s="70">
         <f t="shared" si="12"/>
         <v>27716</v>
       </c>
-      <c r="Q22" s="70">
+      <c r="T22" s="70">
         <f t="shared" si="12"/>
         <v>32569</v>
       </c>
-      <c r="R22" s="70">
-        <f>SUM(R15:R21)</f>
+      <c r="U22" s="70">
+        <f>SUM(U15:U21)</f>
         <v>35947</v>
       </c>
-      <c r="S22" s="70">
+      <c r="V22" s="70">
         <v>38632</v>
-      </c>
-      <c r="T22" s="70">
-        <f>T5+T8</f>
-        <v>39672.072</v>
-      </c>
-      <c r="U22" s="70">
-        <f>U5+U8</f>
-        <v>40747.784484000003</v>
-      </c>
-      <c r="V22" s="70">
-        <f>V5+V8</f>
-        <v>41860.623318214799</v>
       </c>
       <c r="W22" s="70">
         <f>W5+W8</f>
-        <v>43012.143513854127</v>
+        <v>39672.072</v>
       </c>
       <c r="X22" s="70">
         <f>X5+X8</f>
+        <v>40747.784484000003</v>
+      </c>
+      <c r="Y22" s="70">
+        <f>Y5+Y8</f>
+        <v>41860.623318214799</v>
+      </c>
+      <c r="Z22" s="70">
+        <f>Z5+Z8</f>
+        <v>43012.143513854127</v>
+      </c>
+      <c r="AA22" s="70">
+        <f>AA5+AA8</f>
         <v>44203.972605791088</v>
       </c>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-    </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AB22" s="66"/>
+      <c r="AC22" s="66"/>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="66"/>
+      <c r="C23" s="66">
+        <v>3008</v>
+      </c>
       <c r="D23" s="66">
-        <v>3008</v>
+        <v>4042</v>
       </c>
       <c r="E23" s="66">
-        <v>4042</v>
+        <v>3356</v>
       </c>
       <c r="F23" s="66">
-        <v>3356</v>
+        <v>4780</v>
       </c>
       <c r="G23" s="66">
-        <v>4780</v>
+        <v>3210</v>
       </c>
       <c r="H23" s="66">
-        <v>3210</v>
+        <f>7524-G23</f>
+        <v>4314</v>
       </c>
       <c r="I23" s="66">
-        <f>7524-H23</f>
-        <v>4314</v>
+        <f>11132-SUM(G23:H23)</f>
+        <v>3608</v>
       </c>
       <c r="J23" s="66">
-        <f>11132-SUM(H23:I23)</f>
-        <v>3608</v>
+        <v>5157</v>
       </c>
       <c r="K23" s="66">
-        <v>5157</v>
+        <v>3262</v>
       </c>
       <c r="L23" s="66"/>
-      <c r="M23" s="66">
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66">
         <v>11329</v>
       </c>
-      <c r="N23" s="66">
+      <c r="Q23" s="66">
         <v>12479</v>
       </c>
-      <c r="O23" s="66">
+      <c r="R23" s="66">
         <v>9013</v>
       </c>
-      <c r="P23" s="66">
+      <c r="S23" s="66">
         <v>11902</v>
       </c>
-      <c r="Q23" s="66">
+      <c r="T23" s="66">
         <v>14011</v>
       </c>
-      <c r="R23" s="66">
+      <c r="U23" s="66">
         <v>15186</v>
       </c>
-      <c r="S23" s="66">
+      <c r="V23" s="66">
         <v>16288</v>
       </c>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
       <c r="W23" s="66"/>
       <c r="X23" s="66"/>
       <c r="Y23" s="66"/>
       <c r="Z23" s="66"/>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA23" s="66"/>
+      <c r="AB23" s="66"/>
+      <c r="AC23" s="66"/>
+    </row>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="66"/>
+      <c r="C24" s="66">
+        <f t="shared" ref="C24:J24" si="13">C22-C23</f>
+        <v>4603</v>
+      </c>
       <c r="D24" s="66">
-        <f t="shared" ref="D24:K24" si="13">D22-D23</f>
-        <v>4603</v>
+        <f t="shared" si="13"/>
+        <v>5197</v>
       </c>
       <c r="E24" s="66">
         <f t="shared" si="13"/>
-        <v>5197</v>
+        <v>5402</v>
       </c>
       <c r="F24" s="66">
         <f t="shared" si="13"/>
-        <v>5402</v>
+        <v>5558</v>
       </c>
       <c r="G24" s="66">
-        <f t="shared" si="13"/>
-        <v>5558</v>
+        <f>G22-G23</f>
+        <v>4940</v>
       </c>
       <c r="H24" s="66">
         <f>H22-H23</f>
-        <v>4940</v>
+        <v>5601</v>
       </c>
       <c r="I24" s="66">
-        <f>I22-I23</f>
-        <v>5601</v>
+        <f t="shared" si="13"/>
+        <v>5749</v>
       </c>
       <c r="J24" s="66">
         <f t="shared" si="13"/>
-        <v>5749</v>
+        <v>6053</v>
       </c>
       <c r="K24" s="66">
-        <f t="shared" si="13"/>
-        <v>6053</v>
+        <f t="shared" ref="K24" si="14">K22-K23</f>
+        <v>5012</v>
       </c>
       <c r="L24" s="66"/>
-      <c r="M24" s="66">
-        <f t="shared" ref="M24:Q24" si="14">M22-M23</f>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66">
+        <f t="shared" ref="P24:T24" si="15">P22-P23</f>
         <v>14816</v>
       </c>
-      <c r="N24" s="66">
-        <f t="shared" si="14"/>
+      <c r="Q24" s="66">
+        <f t="shared" si="15"/>
         <v>15808</v>
       </c>
-      <c r="O24" s="66">
-        <f t="shared" si="14"/>
+      <c r="R24" s="66">
+        <f t="shared" si="15"/>
         <v>11389</v>
       </c>
-      <c r="P24" s="66">
-        <f t="shared" si="14"/>
+      <c r="S24" s="66">
+        <f t="shared" si="15"/>
         <v>15814</v>
       </c>
-      <c r="Q24" s="66">
-        <f t="shared" si="14"/>
+      <c r="T24" s="66">
+        <f t="shared" si="15"/>
         <v>18558</v>
       </c>
-      <c r="R24" s="66">
-        <f>R22-R23</f>
+      <c r="U24" s="66">
+        <f>U22-U23</f>
         <v>20761</v>
       </c>
-      <c r="S24" s="66">
-        <f>S22-S23</f>
+      <c r="V24" s="66">
+        <f>V22-V23</f>
         <v>22344</v>
       </c>
-      <c r="T24" s="66"/>
-      <c r="U24" s="66"/>
-      <c r="V24" s="66"/>
       <c r="W24" s="66"/>
       <c r="X24" s="66"/>
       <c r="Y24" s="66"/>
       <c r="Z24" s="66"/>
-    </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA24" s="66"/>
+      <c r="AB24" s="66"/>
+      <c r="AC24" s="66"/>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="66"/>
+      <c r="C25" s="66">
+        <v>2398</v>
+      </c>
       <c r="D25" s="66">
-        <v>2398</v>
+        <v>2718</v>
       </c>
       <c r="E25" s="66">
-        <v>2718</v>
+        <v>2617</v>
       </c>
       <c r="F25" s="66">
-        <v>2617</v>
+        <v>3120</v>
       </c>
       <c r="G25" s="66">
-        <v>3120</v>
+        <v>2553</v>
       </c>
       <c r="H25" s="66">
-        <v>2553</v>
+        <f>5467-G25</f>
+        <v>2914</v>
       </c>
       <c r="I25" s="66">
-        <f>5467-H25</f>
-        <v>2914</v>
+        <f>8276-SUM(G25:H25)</f>
+        <v>2809</v>
       </c>
       <c r="J25" s="66">
-        <f>8276-SUM(H25:I25)</f>
-        <v>2809</v>
+        <v>3278</v>
       </c>
       <c r="K25" s="66">
-        <v>3278</v>
+        <v>2612</v>
       </c>
       <c r="L25" s="66"/>
-      <c r="M25" s="66">
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66">
         <v>9329</v>
       </c>
-      <c r="N25" s="66">
+      <c r="Q25" s="66">
         <v>8176</v>
       </c>
-      <c r="O25" s="66">
+      <c r="R25" s="66">
         <v>6807</v>
       </c>
-      <c r="P25" s="66">
+      <c r="S25" s="66">
         <v>8596</v>
       </c>
-      <c r="Q25" s="66">
+      <c r="T25" s="66">
         <v>9867</v>
       </c>
-      <c r="R25" s="66">
+      <c r="U25" s="66">
         <v>10853</v>
       </c>
-      <c r="S25" s="66">
+      <c r="V25" s="66">
         <v>11555</v>
       </c>
-      <c r="T25" s="66"/>
-      <c r="U25" s="66"/>
-      <c r="V25" s="66"/>
       <c r="W25" s="66"/>
       <c r="X25" s="66"/>
       <c r="Y25" s="66"/>
       <c r="Z25" s="66"/>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA25" s="66"/>
+      <c r="AB25" s="66"/>
+      <c r="AC25" s="66"/>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="66"/>
+      <c r="C26" s="66">
+        <v>-10</v>
+      </c>
       <c r="D26" s="66">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="E26" s="66">
-        <v>-12</v>
+        <v>-19</v>
       </c>
       <c r="F26" s="66">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="G26" s="66">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="H26" s="66">
+        <f>-34-G26</f>
         <v>-17</v>
       </c>
       <c r="I26" s="66">
-        <f>-34-H26</f>
-        <v>-17</v>
+        <f>-48-H26-G26</f>
+        <v>-14</v>
       </c>
       <c r="J26" s="66">
-        <f>-48-I26-H26</f>
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="K26" s="66">
-        <v>-13</v>
+        <v>-6</v>
       </c>
       <c r="L26" s="66"/>
-      <c r="M26" s="66">
+      <c r="M26" s="66"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66">
         <v>-30</v>
       </c>
-      <c r="N26" s="66">
+      <c r="Q26" s="66">
         <v>-33</v>
       </c>
-      <c r="O26" s="66">
+      <c r="R26" s="66">
         <v>-31</v>
       </c>
-      <c r="P26" s="66">
+      <c r="S26" s="66">
         <v>-35</v>
       </c>
-      <c r="Q26" s="66">
+      <c r="T26" s="66">
         <v>-43</v>
       </c>
-      <c r="R26" s="66">
+      <c r="U26" s="66">
         <v>-59</v>
       </c>
-      <c r="S26" s="66">
+      <c r="V26" s="66">
         <v>-60</v>
       </c>
-      <c r="T26" s="66"/>
-      <c r="U26" s="66"/>
-      <c r="V26" s="66"/>
       <c r="W26" s="66"/>
       <c r="X26" s="66"/>
       <c r="Y26" s="66"/>
       <c r="Z26" s="66"/>
-    </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA26" s="66"/>
+      <c r="AB26" s="66"/>
+      <c r="AC26" s="66"/>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="66"/>
+      <c r="C27" s="66">
+        <f t="shared" ref="C27:J27" si="16">C24-C25+C26</f>
+        <v>2195</v>
+      </c>
       <c r="D27" s="66">
-        <f t="shared" ref="D27:K27" si="15">D24-D25+D26</f>
-        <v>2195</v>
+        <f t="shared" si="16"/>
+        <v>2467</v>
       </c>
       <c r="E27" s="66">
-        <f t="shared" si="15"/>
-        <v>2467</v>
+        <f t="shared" si="16"/>
+        <v>2766</v>
       </c>
       <c r="F27" s="66">
-        <f t="shared" si="15"/>
-        <v>2766</v>
+        <f t="shared" si="16"/>
+        <v>2420</v>
       </c>
       <c r="G27" s="66">
-        <f t="shared" si="15"/>
-        <v>2420</v>
+        <f t="shared" si="16"/>
+        <v>2370</v>
       </c>
       <c r="H27" s="66">
-        <f t="shared" si="15"/>
-        <v>2370</v>
+        <f>H24-H25+H26</f>
+        <v>2670</v>
       </c>
       <c r="I27" s="66">
-        <f>I24-I25+I26</f>
-        <v>2670</v>
+        <f t="shared" si="16"/>
+        <v>2926</v>
       </c>
       <c r="J27" s="66">
-        <f t="shared" si="15"/>
-        <v>2926</v>
+        <f t="shared" si="16"/>
+        <v>2762</v>
       </c>
       <c r="K27" s="66">
-        <f t="shared" si="15"/>
-        <v>2762</v>
+        <f t="shared" ref="K27" si="17">K24-K25+K26</f>
+        <v>2394</v>
       </c>
       <c r="L27" s="66"/>
-      <c r="M27" s="66">
-        <f t="shared" ref="M27:Q27" si="16">M24-M25+M26</f>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66">
+        <f t="shared" ref="P27:T27" si="18">P24-P25+P26</f>
         <v>5457</v>
       </c>
-      <c r="N27" s="66">
-        <f t="shared" si="16"/>
+      <c r="Q27" s="66">
+        <f t="shared" si="18"/>
         <v>7599</v>
       </c>
-      <c r="O27" s="66">
-        <f t="shared" si="16"/>
+      <c r="R27" s="66">
+        <f t="shared" si="18"/>
         <v>4551</v>
       </c>
-      <c r="P27" s="66">
-        <f t="shared" si="16"/>
+      <c r="S27" s="66">
+        <f t="shared" si="18"/>
         <v>7183</v>
       </c>
-      <c r="Q27" s="66">
-        <f t="shared" si="16"/>
+      <c r="T27" s="66">
+        <f t="shared" si="18"/>
         <v>8648</v>
       </c>
-      <c r="R27" s="66">
-        <f>R24-R25+R26</f>
+      <c r="U27" s="66">
+        <f>U24-U25+U26</f>
         <v>9849</v>
       </c>
-      <c r="S27" s="66">
-        <f>S24-S25+S26</f>
+      <c r="V27" s="66">
+        <f>V24-V25+V26</f>
         <v>10729</v>
       </c>
-      <c r="T27" s="66"/>
-      <c r="U27" s="66"/>
-      <c r="V27" s="66"/>
       <c r="W27" s="66"/>
       <c r="X27" s="66"/>
       <c r="Y27" s="66"/>
       <c r="Z27" s="66"/>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA27" s="66"/>
+      <c r="AB27" s="66"/>
+      <c r="AC27" s="66"/>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="66"/>
+      <c r="C28" s="66">
+        <v>0</v>
+      </c>
       <c r="D28" s="66">
         <v>0</v>
       </c>
@@ -3285,20 +3407,14 @@
         <v>0</v>
       </c>
       <c r="L28" s="66"/>
-      <c r="M28" s="66">
-        <v>0</v>
-      </c>
-      <c r="N28" s="66">
-        <v>0</v>
-      </c>
-      <c r="O28" s="66">
-        <v>0</v>
-      </c>
+      <c r="M28" s="66"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="66"/>
       <c r="P28" s="66">
         <v>0</v>
       </c>
       <c r="Q28" s="66">
-        <v>-231</v>
+        <v>0</v>
       </c>
       <c r="R28" s="66">
         <v>0</v>
@@ -3306,611 +3422,669 @@
       <c r="S28" s="66">
         <v>0</v>
       </c>
-      <c r="T28" s="66"/>
-      <c r="U28" s="66"/>
-      <c r="V28" s="66"/>
+      <c r="T28" s="66">
+        <v>-231</v>
+      </c>
+      <c r="U28" s="66">
+        <v>0</v>
+      </c>
+      <c r="V28" s="66">
+        <v>0</v>
+      </c>
       <c r="W28" s="66"/>
       <c r="X28" s="66"/>
       <c r="Y28" s="66"/>
       <c r="Z28" s="66"/>
-    </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA28" s="66"/>
+      <c r="AB28" s="66"/>
+      <c r="AC28" s="66"/>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="66"/>
+      <c r="C29" s="66">
+        <v>712</v>
+      </c>
       <c r="D29" s="66">
-        <v>712</v>
+        <v>786</v>
       </c>
       <c r="E29" s="66">
-        <v>786</v>
+        <v>739</v>
       </c>
       <c r="F29" s="66">
-        <v>739</v>
+        <v>804</v>
       </c>
       <c r="G29" s="66">
-        <v>804</v>
+        <v>734</v>
       </c>
       <c r="H29" s="66">
-        <v>734</v>
+        <f>1499-G29</f>
+        <v>765</v>
       </c>
       <c r="I29" s="66">
-        <f>1499-H29</f>
-        <v>765</v>
+        <v>794</v>
       </c>
       <c r="J29" s="66">
-        <v>794</v>
+        <v>880</v>
       </c>
       <c r="K29" s="66">
-        <v>880</v>
+        <v>752</v>
       </c>
       <c r="L29" s="66"/>
-      <c r="M29" s="66">
+      <c r="M29" s="66"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="66">
         <v>1100</v>
       </c>
-      <c r="N29" s="66">
+      <c r="Q29" s="66">
         <v>2826</v>
       </c>
-      <c r="O29" s="66">
+      <c r="R29" s="66">
         <v>3045</v>
       </c>
-      <c r="P29" s="66">
+      <c r="S29" s="66">
         <v>2901</v>
       </c>
-      <c r="Q29" s="66">
+      <c r="T29" s="66">
         <v>2899</v>
       </c>
-      <c r="R29" s="66">
+      <c r="U29" s="66">
         <v>3041</v>
       </c>
-      <c r="S29" s="66">
+      <c r="V29" s="66">
         <v>3174</v>
       </c>
-      <c r="T29" s="66"/>
-      <c r="U29" s="66"/>
-      <c r="V29" s="66"/>
       <c r="W29" s="66"/>
       <c r="X29" s="66"/>
       <c r="Y29" s="66"/>
       <c r="Z29" s="66"/>
-    </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA29" s="66"/>
+      <c r="AB29" s="66"/>
+      <c r="AC29" s="66"/>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="66"/>
+      <c r="C30" s="66">
+        <f t="shared" ref="C30:J30" si="19">C27+C28-C29</f>
+        <v>1483</v>
+      </c>
       <c r="D30" s="66">
-        <f t="shared" ref="D30:K30" si="17">D27+D28-D29</f>
-        <v>1483</v>
+        <f t="shared" si="19"/>
+        <v>1681</v>
       </c>
       <c r="E30" s="66">
-        <f t="shared" si="17"/>
-        <v>1681</v>
+        <f t="shared" si="19"/>
+        <v>2027</v>
       </c>
       <c r="F30" s="66">
-        <f t="shared" si="17"/>
-        <v>2027</v>
+        <f t="shared" si="19"/>
+        <v>1616</v>
       </c>
       <c r="G30" s="66">
-        <f t="shared" si="17"/>
-        <v>1616</v>
+        <f t="shared" si="19"/>
+        <v>1636</v>
       </c>
       <c r="H30" s="66">
-        <f t="shared" si="17"/>
-        <v>1636</v>
+        <f t="shared" si="19"/>
+        <v>1905</v>
       </c>
       <c r="I30" s="66">
-        <f t="shared" si="17"/>
-        <v>1905</v>
+        <f t="shared" si="19"/>
+        <v>2132</v>
       </c>
       <c r="J30" s="66">
-        <f t="shared" si="17"/>
-        <v>2132</v>
+        <f t="shared" si="19"/>
+        <v>1882</v>
       </c>
       <c r="K30" s="66">
-        <f t="shared" si="17"/>
-        <v>1882</v>
+        <f t="shared" ref="K30" si="20">K27+K28-K29</f>
+        <v>1642</v>
       </c>
       <c r="L30" s="66"/>
-      <c r="M30" s="66">
-        <f t="shared" ref="M30:Q30" si="18">M27+M28-M29</f>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66">
+        <f t="shared" ref="P30:T30" si="21">P27+P28-P29</f>
         <v>4357</v>
       </c>
-      <c r="N30" s="66">
-        <f t="shared" si="18"/>
+      <c r="Q30" s="66">
+        <f t="shared" si="21"/>
         <v>4773</v>
       </c>
-      <c r="O30" s="66">
-        <f t="shared" si="18"/>
+      <c r="R30" s="66">
+        <f t="shared" si="21"/>
         <v>1506</v>
       </c>
-      <c r="P30" s="66">
-        <f t="shared" si="18"/>
+      <c r="S30" s="66">
+        <f t="shared" si="21"/>
         <v>4282</v>
       </c>
-      <c r="Q30" s="66">
-        <f t="shared" si="18"/>
+      <c r="T30" s="66">
+        <f t="shared" si="21"/>
         <v>5518</v>
       </c>
-      <c r="R30" s="66">
-        <f>R27+R28-R29</f>
+      <c r="U30" s="66">
+        <f>U27+U28-U29</f>
         <v>6808</v>
       </c>
-      <c r="S30" s="66">
-        <f>S27+S28-S29</f>
+      <c r="V30" s="66">
+        <f>V27+V28-V29</f>
         <v>7555</v>
       </c>
-      <c r="T30" s="66"/>
-      <c r="U30" s="66"/>
-      <c r="V30" s="66"/>
       <c r="W30" s="66"/>
       <c r="X30" s="66"/>
       <c r="Y30" s="66"/>
       <c r="Z30" s="66"/>
-    </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA30" s="66"/>
+      <c r="AB30" s="66"/>
+      <c r="AC30" s="66"/>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="66"/>
+      <c r="C31" s="66">
+        <v>10</v>
+      </c>
       <c r="D31" s="66">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E31" s="66">
-        <v>44</v>
+        <v>-56</v>
       </c>
       <c r="F31" s="66">
-        <v>-56</v>
+        <v>-9</v>
       </c>
       <c r="G31" s="66">
+        <v>21</v>
+      </c>
+      <c r="H31" s="66">
+        <f>12-G31</f>
         <v>-9</v>
       </c>
-      <c r="H31" s="66">
-        <v>21</v>
-      </c>
       <c r="I31" s="66">
-        <f>12-H31</f>
-        <v>-9</v>
+        <f>14-H31-G31</f>
+        <v>2</v>
       </c>
       <c r="J31" s="66">
-        <f>14-I31-H31</f>
-        <v>2</v>
+        <v>-90</v>
       </c>
       <c r="K31" s="66">
-        <v>-90</v>
+        <v>5</v>
       </c>
       <c r="L31" s="66"/>
-      <c r="M31" s="66">
+      <c r="M31" s="66"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="66">
         <v>17</v>
       </c>
-      <c r="N31" s="66">
+      <c r="Q31" s="66">
         <v>-152</v>
       </c>
-      <c r="O31" s="66">
+      <c r="R31" s="66">
         <v>-139</v>
       </c>
-      <c r="P31" s="66">
+      <c r="S31" s="66">
         <v>-142</v>
       </c>
-      <c r="Q31" s="66">
+      <c r="T31" s="66">
         <v>-214</v>
       </c>
-      <c r="R31" s="66">
+      <c r="U31" s="66">
         <v>-11</v>
       </c>
-      <c r="S31" s="66">
+      <c r="V31" s="66">
         <v>-77</v>
       </c>
-      <c r="T31" s="66"/>
-      <c r="U31" s="66"/>
-      <c r="V31" s="66"/>
       <c r="W31" s="66"/>
       <c r="X31" s="66"/>
       <c r="Y31" s="66"/>
       <c r="Z31" s="66"/>
-    </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA31" s="66"/>
+      <c r="AB31" s="66"/>
+      <c r="AC31" s="66"/>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="66"/>
+      <c r="C32" s="66">
+        <v>12</v>
+      </c>
       <c r="D32" s="66">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E32" s="66">
+        <v>14</v>
+      </c>
+      <c r="F32" s="66">
+        <v>24</v>
+      </c>
+      <c r="G32" s="66">
+        <v>14</v>
+      </c>
+      <c r="H32" s="66">
+        <f>45-G32</f>
+        <v>31</v>
+      </c>
+      <c r="I32" s="66">
+        <f>67-SUM(G32:H32)</f>
         <v>22</v>
       </c>
-      <c r="F32" s="66">
-        <v>14</v>
-      </c>
-      <c r="G32" s="66">
-        <v>24</v>
-      </c>
-      <c r="H32" s="66">
-        <v>14</v>
-      </c>
-      <c r="I32" s="66">
-        <f>45-H32</f>
-        <v>31</v>
-      </c>
       <c r="J32" s="66">
-        <f>67-SUM(H32:I32)</f>
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K32" s="66">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="L32" s="66"/>
-      <c r="M32" s="66">
+      <c r="M32" s="66"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="66">
         <v>54</v>
       </c>
-      <c r="N32" s="66">
+      <c r="Q32" s="66">
         <v>61</v>
       </c>
-      <c r="O32" s="66">
+      <c r="R32" s="66">
         <v>33</v>
       </c>
-      <c r="P32" s="66">
+      <c r="S32" s="66">
         <v>58</v>
       </c>
-      <c r="Q32" s="66">
+      <c r="T32" s="66">
         <v>53</v>
       </c>
-      <c r="R32" s="66">
+      <c r="U32" s="66">
         <v>72</v>
       </c>
-      <c r="S32" s="66">
+      <c r="V32" s="66">
         <v>99</v>
       </c>
-      <c r="T32" s="66"/>
-      <c r="U32" s="66"/>
-      <c r="V32" s="66"/>
       <c r="W32" s="66"/>
       <c r="X32" s="66"/>
       <c r="Y32" s="66"/>
       <c r="Z32" s="66"/>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA32" s="66"/>
+      <c r="AB32" s="66"/>
+      <c r="AC32" s="66"/>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="66"/>
+      <c r="C33" s="66">
+        <f t="shared" ref="C33:J33" si="22">C30+C31+C32</f>
+        <v>1505</v>
+      </c>
       <c r="D33" s="66">
-        <f t="shared" ref="D33:K33" si="19">D30+D31+D32</f>
-        <v>1505</v>
+        <f t="shared" si="22"/>
+        <v>1747</v>
       </c>
       <c r="E33" s="66">
-        <f t="shared" si="19"/>
-        <v>1747</v>
+        <f t="shared" si="22"/>
+        <v>1985</v>
       </c>
       <c r="F33" s="66">
-        <f t="shared" si="19"/>
-        <v>1985</v>
+        <f t="shared" si="22"/>
+        <v>1631</v>
       </c>
       <c r="G33" s="66">
-        <f t="shared" si="19"/>
-        <v>1631</v>
+        <f t="shared" si="22"/>
+        <v>1671</v>
       </c>
       <c r="H33" s="66">
-        <f t="shared" si="19"/>
-        <v>1671</v>
+        <f t="shared" si="22"/>
+        <v>1927</v>
       </c>
       <c r="I33" s="66">
-        <f t="shared" si="19"/>
-        <v>1927</v>
+        <f t="shared" si="22"/>
+        <v>2156</v>
       </c>
       <c r="J33" s="66">
-        <f t="shared" si="19"/>
-        <v>2156</v>
+        <f t="shared" si="22"/>
+        <v>1824</v>
       </c>
       <c r="K33" s="66">
-        <f t="shared" si="19"/>
-        <v>1824</v>
+        <f t="shared" ref="K33" si="23">K30+K31+K32</f>
+        <v>1672</v>
       </c>
       <c r="L33" s="66"/>
-      <c r="M33" s="66">
-        <f t="shared" ref="M33:Q33" si="20">M30+M31+M32</f>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66">
+        <f t="shared" ref="P33:T33" si="24">P30+P31+P32</f>
         <v>4428</v>
       </c>
-      <c r="N33" s="66">
-        <f t="shared" si="20"/>
+      <c r="Q33" s="66">
+        <f t="shared" si="24"/>
         <v>4682</v>
       </c>
-      <c r="O33" s="66">
-        <f t="shared" si="20"/>
+      <c r="R33" s="66">
+        <f t="shared" si="24"/>
         <v>1400</v>
       </c>
-      <c r="P33" s="66">
-        <f t="shared" si="20"/>
+      <c r="S33" s="66">
+        <f t="shared" si="24"/>
         <v>4198</v>
       </c>
-      <c r="Q33" s="66">
-        <f t="shared" si="20"/>
+      <c r="T33" s="66">
+        <f t="shared" si="24"/>
         <v>5357</v>
       </c>
-      <c r="R33" s="66">
-        <f>R30+R31+R32</f>
+      <c r="U33" s="66">
+        <f>U30+U31+U32</f>
         <v>6869</v>
       </c>
-      <c r="S33" s="66">
-        <f>S30+S31+S32</f>
+      <c r="V33" s="66">
+        <f>V30+V31+V32</f>
         <v>7577</v>
       </c>
-      <c r="T33" s="66"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="66"/>
       <c r="W33" s="66"/>
       <c r="X33" s="66"/>
       <c r="Y33" s="66"/>
       <c r="Z33" s="66"/>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA33" s="66"/>
+      <c r="AB33" s="66"/>
+      <c r="AC33" s="66"/>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="66"/>
+      <c r="C34" s="66">
+        <v>333</v>
+      </c>
       <c r="D34" s="66">
-        <v>333</v>
+        <v>399</v>
       </c>
       <c r="E34" s="66">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F34" s="66">
-        <v>392</v>
+        <v>351</v>
       </c>
       <c r="G34" s="66">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="H34" s="66">
-        <v>373</v>
+        <v>448</v>
       </c>
       <c r="I34" s="66">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="J34" s="66">
-        <v>474</v>
+        <v>406</v>
       </c>
       <c r="K34" s="66">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="L34" s="66"/>
-      <c r="M34" s="66">
+      <c r="M34" s="66"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="66">
         <v>980</v>
       </c>
-      <c r="N34" s="66">
+      <c r="Q34" s="66">
         <v>1034</v>
       </c>
-      <c r="O34" s="66">
+      <c r="R34" s="66">
         <v>297</v>
       </c>
-      <c r="P34" s="66">
+      <c r="S34" s="66">
         <v>949</v>
       </c>
-      <c r="Q34" s="66">
+      <c r="T34" s="66">
         <v>1211</v>
       </c>
-      <c r="R34" s="66">
+      <c r="U34" s="66">
         <v>1475</v>
       </c>
-      <c r="S34" s="66">
+      <c r="V34" s="66">
         <v>1700</v>
       </c>
-      <c r="T34" s="66"/>
-      <c r="U34" s="66"/>
-      <c r="V34" s="66"/>
       <c r="W34" s="66"/>
       <c r="X34" s="66"/>
       <c r="Y34" s="66"/>
       <c r="Z34" s="66"/>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA34" s="66"/>
+      <c r="AB34" s="66"/>
+      <c r="AC34" s="66"/>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="66"/>
+      <c r="C35" s="66">
+        <f t="shared" ref="C35:J35" si="25">C33-C34</f>
+        <v>1172</v>
+      </c>
       <c r="D35" s="66">
-        <f t="shared" ref="D35:K35" si="21">D33-D34</f>
-        <v>1172</v>
+        <f t="shared" si="25"/>
+        <v>1348</v>
       </c>
       <c r="E35" s="66">
-        <f t="shared" si="21"/>
-        <v>1348</v>
+        <f t="shared" si="25"/>
+        <v>1593</v>
       </c>
       <c r="F35" s="66">
-        <f t="shared" si="21"/>
-        <v>1593</v>
+        <f t="shared" si="25"/>
+        <v>1280</v>
       </c>
       <c r="G35" s="66">
-        <f t="shared" si="21"/>
-        <v>1280</v>
+        <f t="shared" si="25"/>
+        <v>1298</v>
       </c>
       <c r="H35" s="66">
-        <f t="shared" si="21"/>
-        <v>1298</v>
+        <f t="shared" si="25"/>
+        <v>1479</v>
       </c>
       <c r="I35" s="66">
-        <f t="shared" si="21"/>
-        <v>1479</v>
+        <f t="shared" si="25"/>
+        <v>1682</v>
       </c>
       <c r="J35" s="66">
-        <f t="shared" si="21"/>
-        <v>1682</v>
+        <f t="shared" si="25"/>
+        <v>1418</v>
       </c>
       <c r="K35" s="66">
-        <f t="shared" si="21"/>
-        <v>1418</v>
+        <f t="shared" ref="K35" si="26">K33-K34</f>
+        <v>1306</v>
       </c>
       <c r="L35" s="66"/>
-      <c r="M35" s="66">
-        <f t="shared" ref="M35:Q35" si="22">M33-M34</f>
+      <c r="M35" s="66"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="66">
+        <f t="shared" ref="P35:T35" si="27">P33-P34</f>
         <v>3448</v>
       </c>
-      <c r="N35" s="66">
-        <f t="shared" si="22"/>
+      <c r="Q35" s="66">
+        <f t="shared" si="27"/>
         <v>3648</v>
       </c>
-      <c r="O35" s="66">
-        <f t="shared" si="22"/>
+      <c r="R35" s="66">
+        <f t="shared" si="27"/>
         <v>1103</v>
       </c>
-      <c r="P35" s="66">
-        <f t="shared" si="22"/>
+      <c r="S35" s="66">
+        <f t="shared" si="27"/>
         <v>3249</v>
       </c>
-      <c r="Q35" s="66">
-        <f t="shared" si="22"/>
+      <c r="T35" s="66">
+        <f t="shared" si="27"/>
         <v>4146</v>
       </c>
-      <c r="R35" s="66">
-        <f>R33-R34</f>
+      <c r="U35" s="66">
+        <f>U33-U34</f>
         <v>5394</v>
       </c>
-      <c r="S35" s="66">
-        <f>S33-S34</f>
+      <c r="V35" s="66">
+        <f>V33-V34</f>
         <v>5877</v>
       </c>
-      <c r="T35" s="66"/>
-      <c r="U35" s="70"/>
-      <c r="V35" s="66"/>
       <c r="W35" s="66"/>
-      <c r="X35" s="66"/>
+      <c r="X35" s="70"/>
       <c r="Y35" s="66"/>
       <c r="Z35" s="66"/>
-    </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA35" s="66"/>
+      <c r="AB35" s="66"/>
+      <c r="AC35" s="66"/>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="66"/>
+      <c r="C36" s="66">
+        <v>4</v>
+      </c>
       <c r="D36" s="66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36" s="66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F36" s="66">
+        <v>2</v>
+      </c>
+      <c r="G36" s="66">
         <v>5</v>
-      </c>
-      <c r="G36" s="66">
-        <v>2</v>
       </c>
       <c r="H36" s="66">
         <v>5</v>
       </c>
       <c r="I36" s="66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J36" s="66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="66">
         <v>0</v>
       </c>
       <c r="L36" s="66"/>
-      <c r="M36" s="66">
+      <c r="M36" s="66"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="66"/>
+      <c r="P36" s="66">
         <v>4</v>
       </c>
-      <c r="N36" s="66">
+      <c r="Q36" s="66">
         <v>8</v>
       </c>
-      <c r="O36" s="66">
+      <c r="R36" s="66">
         <v>-2</v>
       </c>
-      <c r="P36" s="66">
+      <c r="S36" s="66">
         <v>7</v>
       </c>
-      <c r="Q36" s="66">
+      <c r="T36" s="66">
         <v>17</v>
       </c>
-      <c r="R36" s="66">
+      <c r="U36" s="66">
         <v>14</v>
       </c>
-      <c r="S36" s="66">
+      <c r="V36" s="66">
         <v>11</v>
       </c>
-      <c r="T36" s="66"/>
-      <c r="U36" s="66"/>
-      <c r="V36" s="66"/>
       <c r="W36" s="66"/>
       <c r="X36" s="66"/>
       <c r="Y36" s="66"/>
       <c r="Z36" s="66"/>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA36" s="66"/>
+      <c r="AB36" s="66"/>
+      <c r="AC36" s="66"/>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="66"/>
+      <c r="C37" s="66">
+        <f t="shared" ref="C37:J37" si="28">C35-C36</f>
+        <v>1168</v>
+      </c>
       <c r="D37" s="66">
-        <f t="shared" ref="D37:K37" si="23">D35-D36</f>
-        <v>1168</v>
+        <f t="shared" si="28"/>
+        <v>1345</v>
       </c>
       <c r="E37" s="66">
-        <f t="shared" si="23"/>
-        <v>1345</v>
+        <f t="shared" si="28"/>
+        <v>1588</v>
       </c>
       <c r="F37" s="66">
-        <f t="shared" si="23"/>
-        <v>1588</v>
+        <f t="shared" si="28"/>
+        <v>1278</v>
       </c>
       <c r="G37" s="66">
-        <f t="shared" si="23"/>
-        <v>1278</v>
+        <f t="shared" si="28"/>
+        <v>1293</v>
       </c>
       <c r="H37" s="66">
-        <f t="shared" si="23"/>
-        <v>1293</v>
+        <f t="shared" si="28"/>
+        <v>1474</v>
       </c>
       <c r="I37" s="66">
-        <f t="shared" si="23"/>
-        <v>1474</v>
+        <f t="shared" si="28"/>
+        <v>1681</v>
       </c>
       <c r="J37" s="66">
-        <f t="shared" si="23"/>
-        <v>1681</v>
+        <f t="shared" si="28"/>
+        <v>1418</v>
       </c>
       <c r="K37" s="66">
-        <f t="shared" si="23"/>
-        <v>1418</v>
+        <f t="shared" ref="K37" si="29">K35-K36</f>
+        <v>1306</v>
       </c>
       <c r="L37" s="66"/>
-      <c r="M37" s="66">
-        <f t="shared" ref="M37:P37" si="24">M35-M36</f>
+      <c r="M37" s="66"/>
+      <c r="N37" s="66"/>
+      <c r="O37" s="66"/>
+      <c r="P37" s="66">
+        <f t="shared" ref="P37:S37" si="30">P35-P36</f>
         <v>3444</v>
       </c>
-      <c r="N37" s="66">
-        <f t="shared" si="24"/>
+      <c r="Q37" s="66">
+        <f t="shared" si="30"/>
         <v>3640</v>
       </c>
-      <c r="O37" s="66">
-        <f t="shared" si="24"/>
+      <c r="R37" s="66">
+        <f t="shared" si="30"/>
         <v>1105</v>
       </c>
-      <c r="P37" s="66">
-        <f t="shared" si="24"/>
+      <c r="S37" s="66">
+        <f t="shared" si="30"/>
         <v>3242</v>
       </c>
-      <c r="Q37" s="66">
-        <f>Q35-Q36</f>
+      <c r="T37" s="66">
+        <f>T35-T36</f>
         <v>4129</v>
       </c>
-      <c r="R37" s="66">
-        <f>R35-R36</f>
+      <c r="U37" s="66">
+        <f>U35-U36</f>
         <v>5380</v>
       </c>
-      <c r="S37" s="66">
-        <f>S35-S36</f>
+      <c r="V37" s="66">
+        <f>V35-V36</f>
         <v>5866</v>
       </c>
-      <c r="T37" s="66"/>
-      <c r="U37" s="66"/>
-      <c r="V37" s="66"/>
       <c r="W37" s="66"/>
       <c r="X37" s="66"/>
       <c r="Y37" s="66"/>
       <c r="Z37" s="66"/>
-    </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA37" s="66"/>
+      <c r="AB37" s="66"/>
+      <c r="AC37" s="66"/>
+    </row>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C38" s="66"/>
       <c r="D38" s="66"/>
       <c r="E38" s="66"/>
@@ -3935,76 +4109,86 @@
       <c r="X38" s="66"/>
       <c r="Y38" s="66"/>
       <c r="Z38" s="66"/>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA38" s="66"/>
+      <c r="AB38" s="66"/>
+      <c r="AC38" s="66"/>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="C39" s="3">
+        <f t="shared" ref="C39:K39" si="31">C37/C40</f>
+        <v>0.37522047202407066</v>
+      </c>
       <c r="D39" s="3">
-        <f t="shared" ref="D39:K39" si="25">D37/D40</f>
-        <v>0.37522047202407066</v>
+        <f t="shared" si="31"/>
+        <v>0.43208179355511561</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" si="25"/>
-        <v>0.43208179355511561</v>
+        <f t="shared" si="31"/>
+        <v>0.51014564175875354</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" si="25"/>
-        <v>0.51014564175875354</v>
+        <f t="shared" si="31"/>
+        <v>0.41055801647839235</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" si="25"/>
-        <v>0.41055801647839235</v>
+        <f t="shared" si="31"/>
+        <v>0.41528106837439188</v>
       </c>
       <c r="H39" s="3">
-        <f t="shared" si="25"/>
-        <v>0.41528106837439188</v>
+        <f t="shared" si="31"/>
+        <v>0.47332237715124015</v>
       </c>
       <c r="I39" s="3">
-        <f t="shared" si="25"/>
-        <v>0.47332237715124015</v>
+        <f t="shared" si="31"/>
+        <v>0.53975871249438667</v>
       </c>
       <c r="J39" s="3">
-        <f t="shared" si="25"/>
-        <v>0.53975871249438667</v>
-      </c>
-      <c r="K39" s="3" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M39" s="3">
-        <f>M37/M40</f>
+        <f t="shared" si="31"/>
+        <v>0.45095283906809808</v>
+      </c>
+      <c r="K39" s="3">
+        <f t="shared" si="31"/>
+        <v>0.41922963299327271</v>
+      </c>
+      <c r="P39" s="3">
+        <f>P37/P40</f>
         <v>1.1060789241132536</v>
       </c>
-      <c r="N39" s="3">
-        <f t="shared" ref="N39:Q39" si="26">N37/N40</f>
+      <c r="Q39" s="3">
+        <f t="shared" ref="Q39:T39" si="32">Q37/Q40</f>
         <v>1.1687703803030633</v>
       </c>
-      <c r="O39" s="3">
-        <f t="shared" si="26"/>
+      <c r="R39" s="3">
+        <f t="shared" si="32"/>
         <v>0.35475144224142657</v>
       </c>
-      <c r="P39" s="3">
-        <f t="shared" si="26"/>
+      <c r="S39" s="3">
+        <f t="shared" si="32"/>
         <v>1.0412481436744843</v>
       </c>
-      <c r="Q39" s="3">
-        <f t="shared" si="26"/>
+      <c r="T39" s="3">
+        <f t="shared" si="32"/>
         <v>1.3266053525994213</v>
       </c>
-      <c r="R39" s="3">
-        <f>R37/R40</f>
+      <c r="U39" s="3">
+        <f>U37/U40</f>
         <v>1.7283271742204624</v>
       </c>
-      <c r="S39" s="3">
-        <f>S37/S40</f>
+      <c r="V39" s="3">
+        <f>V37/V40</f>
         <v>1.8655073018148542</v>
       </c>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C40" s="65">
+        <v>3112.8365509999999</v>
+      </c>
       <c r="D40" s="65">
         <v>3112.8365509999999</v>
       </c>
@@ -4015,630 +4199,685 @@
         <v>3112.8365509999999</v>
       </c>
       <c r="G40" s="65">
+        <v>3113.5539239999998</v>
+      </c>
+      <c r="H40" s="65">
+        <v>3114.1565900000001</v>
+      </c>
+      <c r="I40" s="65">
+        <v>3114.354546</v>
+      </c>
+      <c r="J40" s="65">
+        <f>+V40</f>
+        <v>3144.4529830000001</v>
+      </c>
+      <c r="K40" s="65">
+        <v>3115.2378010000002</v>
+      </c>
+      <c r="L40" s="65"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="65"/>
+      <c r="P40" s="65">
+        <v>3113.701857</v>
+      </c>
+      <c r="Q40" s="65">
+        <v>3114.3841950000001</v>
+      </c>
+      <c r="R40" s="65">
+        <v>3114.8569630000002</v>
+      </c>
+      <c r="S40" s="65">
+        <v>3113.5709769999999</v>
+      </c>
+      <c r="T40" s="65">
+        <v>3112.4554050000002</v>
+      </c>
+      <c r="U40" s="65">
         <v>3112.8365509999999</v>
       </c>
-      <c r="H40" s="65">
-        <v>3113.5539239999998</v>
-      </c>
-      <c r="I40" s="65">
-        <v>3114.1565900000001</v>
-      </c>
-      <c r="J40" s="65">
-        <v>3114.354546</v>
-      </c>
-      <c r="K40" s="65"/>
-      <c r="L40" s="65"/>
-      <c r="M40" s="65">
-        <v>3113.701857</v>
-      </c>
-      <c r="N40" s="65">
-        <v>3114.3841950000001</v>
-      </c>
-      <c r="O40" s="65">
-        <v>3114.8569630000002</v>
-      </c>
-      <c r="P40" s="65">
-        <v>3113.5709769999999</v>
-      </c>
-      <c r="Q40" s="65">
-        <v>3112.4554050000002</v>
-      </c>
-      <c r="R40" s="65">
-        <v>3112.8365509999999</v>
-      </c>
-      <c r="S40" s="65">
+      <c r="V40" s="65">
         <v>3144.4529830000001</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N42" s="8">
-        <f t="shared" ref="N42:S47" si="27">N15/M15-1</f>
+      <c r="Q42" s="8">
+        <f t="shared" ref="Q42:V47" si="33">Q15/P15-1</f>
         <v>8.562232950446691E-2</v>
       </c>
-      <c r="O42" s="8">
-        <f t="shared" si="27"/>
+      <c r="R42" s="8">
+        <f t="shared" si="33"/>
         <v>-0.27780617460641999</v>
       </c>
-      <c r="P42" s="8">
-        <f t="shared" si="27"/>
+      <c r="S42" s="8">
+        <f t="shared" si="33"/>
         <v>0.3862269091938566</v>
       </c>
-      <c r="Q42" s="8">
-        <f t="shared" si="27"/>
+      <c r="T42" s="8">
+        <f t="shared" si="33"/>
         <v>0.21316246298376385</v>
       </c>
-      <c r="R42" s="8">
-        <f t="shared" si="27"/>
+      <c r="U42" s="8">
+        <f t="shared" si="33"/>
         <v>9.6334329363242377E-2</v>
       </c>
-      <c r="S42" s="8">
-        <f t="shared" si="27"/>
+      <c r="V42" s="8">
+        <f t="shared" si="33"/>
         <v>6.6333973128598789E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N43" s="8">
-        <f t="shared" si="27"/>
+      <c r="Q43" s="8">
+        <f t="shared" si="33"/>
         <v>5.8002148227712214E-2</v>
       </c>
-      <c r="O43" s="8">
-        <f t="shared" si="27"/>
+      <c r="R43" s="8">
+        <f t="shared" si="33"/>
         <v>-0.2766497461928934</v>
       </c>
-      <c r="P43" s="8">
-        <f t="shared" si="27"/>
+      <c r="S43" s="8">
+        <f t="shared" si="33"/>
         <v>0.31649122807017549</v>
       </c>
-      <c r="Q43" s="8">
-        <f t="shared" si="27"/>
+      <c r="T43" s="8">
+        <f t="shared" si="33"/>
         <v>0.14712153518123672</v>
       </c>
-      <c r="R43" s="8">
-        <f t="shared" si="27"/>
+      <c r="U43" s="8">
+        <f t="shared" si="33"/>
         <v>9.6189591078067016E-2</v>
       </c>
-      <c r="S43" s="8">
-        <f t="shared" si="27"/>
+      <c r="V43" s="8">
+        <f t="shared" si="33"/>
         <v>4.6629927935565973E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N44" s="8">
-        <f t="shared" si="27"/>
+      <c r="Q44" s="8">
+        <f t="shared" si="33"/>
         <v>5.4384017758046577E-2</v>
       </c>
-      <c r="O44" s="8">
-        <f t="shared" si="27"/>
+      <c r="R44" s="8">
+        <f t="shared" si="33"/>
         <v>-0.33105263157894738</v>
       </c>
-      <c r="P44" s="8">
-        <f t="shared" si="27"/>
+      <c r="S44" s="8">
+        <f t="shared" si="33"/>
         <v>0.30055074744295829</v>
       </c>
-      <c r="Q44" s="8">
-        <f t="shared" si="27"/>
+      <c r="T44" s="8">
+        <f t="shared" si="33"/>
         <v>-3.6297640653357499E-2</v>
       </c>
-      <c r="R44" s="8">
-        <f t="shared" si="27"/>
+      <c r="U44" s="8">
+        <f t="shared" si="33"/>
         <v>0.15442561205273075</v>
       </c>
-      <c r="S44" s="8">
-        <f t="shared" si="27"/>
+      <c r="V44" s="8">
+        <f t="shared" si="33"/>
         <v>6.579662860250135E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N45" s="8">
-        <f t="shared" si="27"/>
+      <c r="Q45" s="8">
+        <f t="shared" si="33"/>
         <v>6.4285714285714279E-2</v>
       </c>
-      <c r="O45" s="8">
-        <f t="shared" si="27"/>
+      <c r="R45" s="8">
+        <f t="shared" si="33"/>
         <v>-0.25671140939597314</v>
       </c>
-      <c r="P45" s="8">
-        <f t="shared" si="27"/>
+      <c r="S45" s="8">
+        <f t="shared" si="33"/>
         <v>0.22855530474040631</v>
       </c>
-      <c r="Q45" s="8">
-        <f t="shared" si="27"/>
+      <c r="T45" s="8">
+        <f t="shared" si="33"/>
         <v>9.5084979329352226E-2</v>
       </c>
-      <c r="R45" s="8">
-        <f t="shared" si="27"/>
+      <c r="U45" s="8">
+        <f t="shared" si="33"/>
         <v>9.941275167785224E-2</v>
       </c>
-      <c r="S45" s="8">
-        <f t="shared" si="27"/>
+      <c r="V45" s="8">
+        <f t="shared" si="33"/>
         <v>0.11789393361312483</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N46" s="8">
-        <f t="shared" si="27"/>
+      <c r="Q46" s="8">
+        <f t="shared" si="33"/>
         <v>0.14080834419817467</v>
       </c>
-      <c r="O46" s="8">
-        <f t="shared" si="27"/>
+      <c r="R46" s="8">
+        <f t="shared" si="33"/>
         <v>-0.2668571428571429</v>
       </c>
-      <c r="P46" s="8">
-        <f t="shared" si="27"/>
+      <c r="S46" s="8">
+        <f t="shared" si="33"/>
         <v>0.42166796570537812</v>
       </c>
-      <c r="Q46" s="8">
-        <f t="shared" si="27"/>
+      <c r="T46" s="8">
+        <f t="shared" si="33"/>
         <v>0.12719298245614041</v>
       </c>
-      <c r="R46" s="8">
-        <f t="shared" si="27"/>
+      <c r="U46" s="8">
+        <f t="shared" si="33"/>
         <v>0.13521400778210113</v>
       </c>
-      <c r="S46" s="8">
-        <f t="shared" si="27"/>
+      <c r="V46" s="8">
+        <f t="shared" si="33"/>
         <v>0.1413881748071979</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N47" s="8">
-        <f t="shared" si="27"/>
+      <c r="Q47" s="8">
+        <f t="shared" si="33"/>
         <v>3.2478632478632585E-2</v>
       </c>
-      <c r="O47" s="8">
-        <f t="shared" si="27"/>
+      <c r="R47" s="8">
+        <f t="shared" si="33"/>
         <v>-0.13576158940397354</v>
       </c>
-      <c r="P47" s="8">
-        <f t="shared" si="27"/>
+      <c r="S47" s="8">
+        <f t="shared" si="33"/>
         <v>0.14942528735632177</v>
       </c>
-      <c r="Q47" s="8">
-        <f t="shared" si="27"/>
+      <c r="T47" s="8">
+        <f t="shared" si="33"/>
         <v>3.833333333333333E-2</v>
       </c>
-      <c r="R47" s="8">
-        <f t="shared" si="27"/>
+      <c r="U47" s="8">
+        <f t="shared" si="33"/>
         <v>0.1942215088282504</v>
       </c>
-      <c r="S47" s="8">
-        <f t="shared" si="27"/>
+      <c r="V47" s="8">
+        <f t="shared" si="33"/>
         <v>0.11693548387096775</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="s">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B48" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H48" s="8">
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="76">
+        <f>G22/C22-1</f>
+        <v>7.0818552095651022E-2</v>
+      </c>
+      <c r="H48" s="76">
         <f>H22/D22-1</f>
-        <v>7.0818552095651022E-2</v>
-      </c>
-      <c r="I48" s="8">
+        <v>7.3168091784825195E-2</v>
+      </c>
+      <c r="I48" s="76">
         <f>I22/E22-1</f>
-        <v>7.3168091784825195E-2</v>
-      </c>
-      <c r="J48" s="8">
+        <v>6.839461064169905E-2</v>
+      </c>
+      <c r="J48" s="76">
         <f>J22/F22-1</f>
-        <v>6.839461064169905E-2</v>
-      </c>
-      <c r="K48" s="8">
+        <v>8.434900367575926E-2</v>
+      </c>
+      <c r="K48" s="76">
         <f>K22/G22-1</f>
-        <v>8.434900367575926E-2</v>
-      </c>
-      <c r="N48" s="8">
-        <f t="shared" ref="N48:S48" si="28">N22/M22-1</f>
+        <v>1.5214723926380458E-2</v>
+      </c>
+      <c r="L48" s="76"/>
+      <c r="M48" s="76"/>
+      <c r="N48" s="76"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="76">
+        <f t="shared" ref="Q48:V48" si="34">Q22/P22-1</f>
         <v>8.192771084337358E-2</v>
       </c>
-      <c r="O48" s="8">
-        <f t="shared" si="28"/>
+      <c r="R48" s="76">
+        <f t="shared" si="34"/>
         <v>-0.27874995581008943</v>
       </c>
-      <c r="P48" s="8">
-        <f t="shared" si="28"/>
+      <c r="S48" s="76">
+        <f t="shared" si="34"/>
         <v>0.3584942652681109</v>
       </c>
-      <c r="Q48" s="8">
-        <f t="shared" si="28"/>
+      <c r="T48" s="76">
+        <f t="shared" si="34"/>
         <v>0.17509741665463996</v>
       </c>
-      <c r="R48" s="8">
-        <f t="shared" si="28"/>
+      <c r="U48" s="76">
+        <f t="shared" si="34"/>
         <v>0.10371825969480186</v>
       </c>
-      <c r="S48" s="8">
-        <f t="shared" si="28"/>
+      <c r="V48" s="76">
+        <f t="shared" si="34"/>
         <v>7.4693298467187752E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="C49" s="8">
+        <f t="shared" ref="C49:J49" si="35">C24/C22</f>
+        <v>0.60478255157009586</v>
+      </c>
       <c r="D49" s="8">
-        <f t="shared" ref="D49:K49" si="29">D24/D22</f>
-        <v>0.60478255157009586</v>
+        <f t="shared" si="35"/>
+        <v>0.56250676480138539</v>
       </c>
       <c r="E49" s="8">
-        <f t="shared" si="29"/>
-        <v>0.56250676480138539</v>
+        <f t="shared" si="35"/>
+        <v>0.61680749029458781</v>
       </c>
       <c r="F49" s="8">
-        <f t="shared" si="29"/>
-        <v>0.61680749029458781</v>
+        <f t="shared" si="35"/>
+        <v>0.53762816792416324</v>
       </c>
       <c r="G49" s="8">
-        <f t="shared" si="29"/>
-        <v>0.53762816792416324</v>
+        <f t="shared" si="35"/>
+        <v>0.60613496932515343</v>
       </c>
       <c r="H49" s="8">
-        <f t="shared" si="29"/>
-        <v>0.60613496932515343</v>
+        <f t="shared" si="35"/>
+        <v>0.56490166414523446</v>
       </c>
       <c r="I49" s="8">
-        <f t="shared" si="29"/>
-        <v>0.56490166414523446</v>
+        <f t="shared" si="35"/>
+        <v>0.61440632681414986</v>
       </c>
       <c r="J49" s="8">
-        <f t="shared" si="29"/>
-        <v>0.61440632681414986</v>
+        <f t="shared" si="35"/>
+        <v>0.53996431757359498</v>
       </c>
       <c r="K49" s="8">
-        <f t="shared" si="29"/>
-        <v>0.53996431757359498</v>
-      </c>
-      <c r="M49" s="8">
-        <f t="shared" ref="M49:S49" si="30">M24/M22</f>
+        <f t="shared" ref="K49" si="36">K24/K22</f>
+        <v>0.60575296108291032</v>
+      </c>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="P49" s="8">
+        <f t="shared" ref="P49:V49" si="37">P24/P22</f>
         <v>0.56668579078217629</v>
       </c>
-      <c r="N49" s="8">
-        <f t="shared" si="30"/>
+      <c r="Q49" s="8">
+        <f t="shared" si="37"/>
         <v>0.55884328490119139</v>
       </c>
-      <c r="O49" s="8">
-        <f t="shared" si="30"/>
+      <c r="R49" s="8">
+        <f t="shared" si="37"/>
         <v>0.55822958533477107</v>
       </c>
-      <c r="P49" s="8">
-        <f t="shared" si="30"/>
+      <c r="S49" s="8">
+        <f t="shared" si="37"/>
         <v>0.57057295425025256</v>
       </c>
-      <c r="Q49" s="8">
-        <f t="shared" si="30"/>
+      <c r="T49" s="8">
+        <f t="shared" si="37"/>
         <v>0.56980564340323625</v>
       </c>
-      <c r="R49" s="8">
-        <f t="shared" si="30"/>
+      <c r="U49" s="8">
+        <f t="shared" si="37"/>
         <v>0.57754471861351431</v>
       </c>
-      <c r="S49" s="8">
-        <f t="shared" si="30"/>
+      <c r="V49" s="8">
+        <f t="shared" si="37"/>
         <v>0.57838061710499067</v>
       </c>
     </row>
-    <row r="50" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="C50" s="8">
+        <f t="shared" ref="C50:J50" si="38">C27/C22</f>
+        <v>0.28839837077913544</v>
+      </c>
       <c r="D50" s="8">
-        <f t="shared" ref="D50:K50" si="31">D27/D22</f>
-        <v>0.28839837077913544</v>
+        <f t="shared" si="38"/>
+        <v>0.26702024028574523</v>
       </c>
       <c r="E50" s="8">
-        <f t="shared" si="31"/>
-        <v>0.26702024028574523</v>
+        <f t="shared" si="38"/>
+        <v>0.3158255309431377</v>
       </c>
       <c r="F50" s="8">
-        <f t="shared" si="31"/>
-        <v>0.3158255309431377</v>
+        <f t="shared" si="38"/>
+        <v>0.23408783130199265</v>
       </c>
       <c r="G50" s="8">
-        <f t="shared" si="31"/>
-        <v>0.23408783130199265</v>
+        <f t="shared" si="38"/>
+        <v>0.29079754601226993</v>
       </c>
       <c r="H50" s="8">
-        <f t="shared" si="31"/>
-        <v>0.29079754601226993</v>
+        <f t="shared" si="38"/>
+        <v>0.2692889561270802</v>
       </c>
       <c r="I50" s="8">
-        <f t="shared" si="31"/>
-        <v>0.2692889561270802</v>
+        <f t="shared" si="38"/>
+        <v>0.31270706422998823</v>
       </c>
       <c r="J50" s="8">
-        <f t="shared" si="31"/>
-        <v>0.31270706422998823</v>
+        <f t="shared" si="38"/>
+        <v>0.24638715432649419</v>
       </c>
       <c r="K50" s="8">
-        <f t="shared" si="31"/>
-        <v>0.24638715432649419</v>
-      </c>
-      <c r="M50" s="8">
-        <f t="shared" ref="M50:S50" si="32">M27/M22</f>
+        <f t="shared" ref="K50" si="39">K27/K22</f>
+        <v>0.28934010152284262</v>
+      </c>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="P50" s="8">
+        <f t="shared" ref="P50:V50" si="40">P27/P22</f>
         <v>0.20872059667240389</v>
       </c>
-      <c r="N50" s="8">
-        <f t="shared" si="32"/>
+      <c r="Q50" s="8">
+        <f t="shared" si="40"/>
         <v>0.26863930427404814</v>
       </c>
-      <c r="O50" s="8">
-        <f t="shared" si="32"/>
+      <c r="R50" s="8">
+        <f t="shared" si="40"/>
         <v>0.22306636604254484</v>
       </c>
-      <c r="P50" s="8">
-        <f t="shared" si="32"/>
+      <c r="S50" s="8">
+        <f t="shared" si="40"/>
         <v>0.25916438158464422</v>
       </c>
-      <c r="Q50" s="8">
-        <f t="shared" si="32"/>
+      <c r="T50" s="8">
+        <f t="shared" si="40"/>
         <v>0.26552857011268383</v>
       </c>
-      <c r="R50" s="8">
-        <f t="shared" si="32"/>
+      <c r="U50" s="8">
+        <f t="shared" si="40"/>
         <v>0.27398670264556152</v>
       </c>
-      <c r="S50" s="8">
-        <f t="shared" si="32"/>
+      <c r="V50" s="8">
+        <f t="shared" si="40"/>
         <v>0.27772313108303998</v>
       </c>
     </row>
-    <row r="51" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="C51" s="8">
+        <f t="shared" ref="C51:J51" si="41">C30/C22</f>
+        <v>0.194849559847589</v>
+      </c>
       <c r="D51" s="8">
-        <f t="shared" ref="D51:K51" si="33">D30/D22</f>
-        <v>0.194849559847589</v>
+        <f t="shared" si="41"/>
+        <v>0.18194609806256087</v>
       </c>
       <c r="E51" s="8">
-        <f t="shared" si="33"/>
-        <v>0.18194609806256087</v>
+        <f t="shared" si="41"/>
+        <v>0.23144553551039049</v>
       </c>
       <c r="F51" s="8">
-        <f t="shared" si="33"/>
-        <v>0.23144553551039049</v>
+        <f t="shared" si="41"/>
+        <v>0.1563165022248017</v>
       </c>
       <c r="G51" s="8">
-        <f t="shared" si="33"/>
-        <v>0.1563165022248017</v>
+        <f t="shared" si="41"/>
+        <v>0.2007361963190184</v>
       </c>
       <c r="H51" s="8">
-        <f t="shared" si="33"/>
-        <v>0.2007361963190184</v>
+        <f t="shared" si="41"/>
+        <v>0.19213313161875945</v>
       </c>
       <c r="I51" s="8">
-        <f t="shared" si="33"/>
-        <v>0.19213313161875945</v>
+        <f t="shared" si="41"/>
+        <v>0.22785080688254783</v>
       </c>
       <c r="J51" s="8">
-        <f t="shared" si="33"/>
-        <v>0.22785080688254783</v>
+        <f t="shared" si="41"/>
+        <v>0.16788581623550403</v>
       </c>
       <c r="K51" s="8">
-        <f t="shared" si="33"/>
-        <v>0.16788581623550403</v>
-      </c>
-      <c r="M51" s="8">
-        <f t="shared" ref="M51:S51" si="34">M30/M22</f>
+        <f t="shared" ref="K51" si="42">K30/K22</f>
+        <v>0.1984529852550157</v>
+      </c>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="P51" s="8">
+        <f t="shared" ref="P51:V51" si="43">P30/P22</f>
         <v>0.16664754255115702</v>
       </c>
-      <c r="N51" s="8">
-        <f t="shared" si="34"/>
+      <c r="Q51" s="8">
+        <f t="shared" si="43"/>
         <v>0.16873475448085692</v>
       </c>
-      <c r="O51" s="8">
-        <f t="shared" si="34"/>
+      <c r="R51" s="8">
+        <f t="shared" si="43"/>
         <v>7.3816292520341137E-2</v>
       </c>
-      <c r="P51" s="8">
-        <f t="shared" si="34"/>
+      <c r="S51" s="8">
+        <f t="shared" si="43"/>
         <v>0.15449559821041997</v>
       </c>
-      <c r="Q51" s="8">
-        <f t="shared" si="34"/>
+      <c r="T51" s="8">
+        <f t="shared" si="43"/>
         <v>0.16942491326107648</v>
       </c>
-      <c r="R51" s="8">
-        <f t="shared" si="34"/>
+      <c r="U51" s="8">
+        <f t="shared" si="43"/>
         <v>0.18938993518235181</v>
       </c>
-      <c r="S51" s="8">
-        <f t="shared" si="34"/>
+      <c r="V51" s="8">
+        <f t="shared" si="43"/>
         <v>0.1955632636156554</v>
       </c>
     </row>
-    <row r="52" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="C52" s="8">
+        <f t="shared" ref="C52:J52" si="44">C35/C22</f>
+        <v>0.15398764945473656</v>
+      </c>
       <c r="D52" s="8">
-        <f t="shared" ref="D52:K52" si="35">D35/D22</f>
-        <v>0.15398764945473656</v>
+        <f t="shared" si="44"/>
+        <v>0.14590323628098278</v>
       </c>
       <c r="E52" s="8">
-        <f t="shared" si="35"/>
-        <v>0.14590323628098278</v>
+        <f t="shared" si="44"/>
+        <v>0.18189084265814112</v>
       </c>
       <c r="F52" s="8">
-        <f t="shared" si="35"/>
-        <v>0.18189084265814112</v>
+        <f t="shared" si="44"/>
+        <v>0.12381505126716967</v>
       </c>
       <c r="G52" s="8">
-        <f t="shared" si="35"/>
-        <v>0.12381505126716967</v>
+        <f t="shared" si="44"/>
+        <v>0.15926380368098159</v>
       </c>
       <c r="H52" s="8">
-        <f t="shared" si="35"/>
-        <v>0.15926380368098159</v>
+        <f t="shared" si="44"/>
+        <v>0.14916792738275339</v>
       </c>
       <c r="I52" s="8">
-        <f t="shared" si="35"/>
-        <v>0.14916792738275339</v>
+        <f t="shared" si="44"/>
+        <v>0.17975846959495564</v>
       </c>
       <c r="J52" s="8">
-        <f t="shared" si="35"/>
-        <v>0.17975846959495564</v>
+        <f t="shared" si="44"/>
+        <v>0.12649420160570918</v>
       </c>
       <c r="K52" s="8">
-        <f t="shared" si="35"/>
-        <v>0.12649420160570918</v>
-      </c>
-      <c r="M52" s="8">
-        <f t="shared" ref="M52:S52" si="36">M35/M22</f>
+        <f t="shared" ref="K52" si="45">K35/K22</f>
+        <v>0.15784384819917816</v>
+      </c>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="P52" s="8">
+        <f t="shared" ref="P52:V52" si="46">P35/P22</f>
         <v>0.13187990055459936</v>
       </c>
-      <c r="N52" s="8">
-        <f t="shared" si="36"/>
+      <c r="Q52" s="8">
+        <f t="shared" si="46"/>
         <v>0.12896383497719802</v>
       </c>
-      <c r="O52" s="8">
-        <f t="shared" si="36"/>
+      <c r="R52" s="8">
+        <f t="shared" si="46"/>
         <v>5.4063327124791685E-2</v>
       </c>
-      <c r="P52" s="8">
-        <f t="shared" si="36"/>
+      <c r="S52" s="8">
+        <f t="shared" si="46"/>
         <v>0.11722470775003609</v>
       </c>
-      <c r="Q52" s="8">
-        <f t="shared" si="36"/>
+      <c r="T52" s="8">
+        <f t="shared" si="46"/>
         <v>0.12729896527372656</v>
       </c>
-      <c r="R52" s="8">
-        <f t="shared" si="36"/>
+      <c r="U52" s="8">
+        <f t="shared" si="46"/>
         <v>0.15005424652961305</v>
       </c>
-      <c r="S52" s="8">
-        <f t="shared" si="36"/>
+      <c r="V52" s="8">
+        <f t="shared" si="46"/>
         <v>0.15212776972458067</v>
       </c>
     </row>
-    <row r="53" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8">
-        <f>(H27-D27)/(H22-D22)</f>
+      <c r="G53" s="8">
+        <f>(G27-C27)/(G22-C22)</f>
         <v>0.32467532467532467</v>
       </c>
+      <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
       <c r="M53" s="8"/>
-      <c r="N53" s="8">
-        <f t="shared" ref="N53:S53" si="37">(N27-M27)/(N22-M22)</f>
+      <c r="N53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8">
+        <f t="shared" ref="Q53:V53" si="47">(Q27-P27)/(Q22-P22)</f>
         <v>1</v>
       </c>
-      <c r="O53" s="8">
-        <f t="shared" si="37"/>
+      <c r="R53" s="8">
+        <f t="shared" si="47"/>
         <v>0.38655675332910588</v>
       </c>
-      <c r="P53" s="8">
-        <f t="shared" si="37"/>
+      <c r="S53" s="8">
+        <f t="shared" si="47"/>
         <v>0.35985780694558384</v>
       </c>
-      <c r="Q53" s="8">
-        <f t="shared" si="37"/>
+      <c r="T53" s="8">
+        <f t="shared" si="47"/>
         <v>0.30187512878631773</v>
       </c>
-      <c r="R53" s="8">
-        <f t="shared" si="37"/>
+      <c r="U53" s="8">
+        <f t="shared" si="47"/>
         <v>0.35553582001184131</v>
       </c>
-      <c r="S53" s="8">
-        <f t="shared" si="37"/>
+      <c r="V53" s="8">
+        <f t="shared" si="47"/>
         <v>0.32774674115456237</v>
       </c>
     </row>
-    <row r="54" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="C54" s="8">
+        <f t="shared" ref="C54:J54" si="48">C34/C33</f>
+        <v>0.22126245847176079</v>
+      </c>
       <c r="D54" s="8">
-        <f t="shared" ref="D54:K54" si="38">D34/D33</f>
-        <v>0.22126245847176079</v>
+        <f t="shared" si="48"/>
+        <v>0.22839152833428736</v>
       </c>
       <c r="E54" s="8">
-        <f t="shared" si="38"/>
-        <v>0.22839152833428736</v>
+        <f t="shared" si="48"/>
+        <v>0.19748110831234256</v>
       </c>
       <c r="F54" s="8">
-        <f t="shared" si="38"/>
-        <v>0.19748110831234256</v>
+        <f t="shared" si="48"/>
+        <v>0.21520539546290618</v>
       </c>
       <c r="G54" s="8">
-        <f t="shared" si="38"/>
-        <v>0.21520539546290618</v>
+        <f t="shared" si="48"/>
+        <v>0.2232196289646918</v>
       </c>
       <c r="H54" s="8">
-        <f t="shared" si="38"/>
-        <v>0.2232196289646918</v>
+        <f t="shared" si="48"/>
+        <v>0.23248572911261028</v>
       </c>
       <c r="I54" s="8">
-        <f t="shared" si="38"/>
-        <v>0.23248572911261028</v>
+        <f t="shared" si="48"/>
+        <v>0.21985157699443414</v>
       </c>
       <c r="J54" s="8">
-        <f t="shared" si="38"/>
-        <v>0.21985157699443414</v>
-      </c>
-      <c r="K54" s="8">
-        <f t="shared" si="38"/>
+        <f t="shared" si="48"/>
         <v>0.22258771929824561</v>
       </c>
-      <c r="M54" s="8">
-        <f t="shared" ref="M54:S54" si="39">M34/M33</f>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="P54" s="8">
+        <f t="shared" ref="P54:V54" si="49">P34/P33</f>
         <v>0.22131887985546522</v>
       </c>
-      <c r="N54" s="8">
-        <f t="shared" si="39"/>
+      <c r="Q54" s="8">
+        <f t="shared" si="49"/>
         <v>0.22084579239641178</v>
       </c>
-      <c r="O54" s="8">
-        <f t="shared" si="39"/>
+      <c r="R54" s="8">
+        <f t="shared" si="49"/>
         <v>0.21214285714285713</v>
       </c>
-      <c r="P54" s="8">
-        <f t="shared" si="39"/>
+      <c r="S54" s="8">
+        <f t="shared" si="49"/>
         <v>0.22606002858504048</v>
       </c>
-      <c r="Q54" s="8">
-        <f t="shared" si="39"/>
+      <c r="T54" s="8">
+        <f t="shared" si="49"/>
         <v>0.22605936158297554</v>
       </c>
-      <c r="R54" s="8">
-        <f t="shared" si="39"/>
+      <c r="U54" s="8">
+        <f t="shared" si="49"/>
         <v>0.21473285776677828</v>
       </c>
-      <c r="S54" s="8">
-        <f t="shared" si="39"/>
+      <c r="V54" s="8">
+        <f t="shared" si="49"/>
         <v>0.22436320443447275</v>
       </c>
-      <c r="T54" s="9">
+      <c r="W54" s="9">
         <v>0.25</v>
       </c>
     </row>
-    <row r="56" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B56" s="66" t="s">
         <v>39</v>
       </c>
@@ -4646,40 +4885,40 @@
       <c r="D56" s="66"/>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="66">
+      <c r="G56" s="66">
         <v>4774</v>
       </c>
-      <c r="I56" s="66"/>
-      <c r="J56" s="66">
+      <c r="H56" s="66"/>
+      <c r="I56" s="66">
         <v>5065</v>
       </c>
+      <c r="J56" s="66"/>
       <c r="K56" s="66"/>
       <c r="L56" s="66"/>
-      <c r="M56" s="66">
+      <c r="M56" s="66"/>
+      <c r="N56" s="66"/>
+      <c r="O56" s="66"/>
+      <c r="P56" s="66">
         <v>0</v>
       </c>
-      <c r="N56" s="66">
+      <c r="Q56" s="66">
         <v>6043</v>
       </c>
-      <c r="O56" s="66">
+      <c r="R56" s="66">
         <v>5477</v>
       </c>
-      <c r="P56" s="66">
+      <c r="S56" s="66">
         <v>5224</v>
       </c>
-      <c r="Q56" s="66">
+      <c r="T56" s="66">
         <v>4910</v>
       </c>
-      <c r="R56" s="66">
+      <c r="U56" s="66">
         <v>5097</v>
       </c>
-      <c r="S56" s="66">
+      <c r="V56" s="66">
         <v>5269</v>
       </c>
-      <c r="T56" s="66"/>
-      <c r="U56" s="66"/>
-      <c r="V56" s="66"/>
       <c r="W56" s="66"/>
       <c r="X56" s="66"/>
       <c r="Y56" s="66"/>
@@ -4695,8 +4934,11 @@
       <c r="AI56" s="66"/>
       <c r="AJ56" s="66"/>
       <c r="AK56" s="66"/>
-    </row>
-    <row r="57" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL56" s="66"/>
+      <c r="AM56" s="66"/>
+      <c r="AN56" s="66"/>
+    </row>
+    <row r="57" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B57" s="66" t="s">
         <v>40</v>
       </c>
@@ -4704,40 +4946,40 @@
       <c r="D57" s="66"/>
       <c r="E57" s="66"/>
       <c r="F57" s="66"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="66">
+      <c r="G57" s="66">
         <v>1483</v>
       </c>
-      <c r="I57" s="66"/>
-      <c r="J57" s="66">
+      <c r="H57" s="66"/>
+      <c r="I57" s="66">
         <v>1597</v>
       </c>
+      <c r="J57" s="66"/>
       <c r="K57" s="66"/>
       <c r="L57" s="66"/>
-      <c r="M57" s="66">
+      <c r="M57" s="66"/>
+      <c r="N57" s="66"/>
+      <c r="O57" s="66"/>
+      <c r="P57" s="66">
         <v>1016</v>
       </c>
-      <c r="N57" s="66">
+      <c r="Q57" s="66">
         <v>618</v>
       </c>
-      <c r="O57" s="66">
+      <c r="R57" s="66">
         <v>645</v>
       </c>
-      <c r="P57" s="66">
+      <c r="S57" s="66">
         <v>790</v>
       </c>
-      <c r="Q57" s="66">
+      <c r="T57" s="66">
         <v>1003</v>
       </c>
-      <c r="R57" s="66">
+      <c r="U57" s="66">
         <v>1420</v>
       </c>
-      <c r="S57" s="66">
+      <c r="V57" s="66">
         <v>1607</v>
       </c>
-      <c r="T57" s="66"/>
-      <c r="U57" s="66"/>
-      <c r="V57" s="66"/>
       <c r="W57" s="66"/>
       <c r="X57" s="66"/>
       <c r="Y57" s="66"/>
@@ -4753,8 +4995,11 @@
       <c r="AI57" s="66"/>
       <c r="AJ57" s="66"/>
       <c r="AK57" s="66"/>
-    </row>
-    <row r="58" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL57" s="66"/>
+      <c r="AM57" s="66"/>
+      <c r="AN57" s="66"/>
+    </row>
+    <row r="58" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B58" s="66" t="s">
         <v>41</v>
       </c>
@@ -4762,40 +5007,40 @@
       <c r="D58" s="66"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
-      <c r="G58" s="66"/>
-      <c r="H58" s="66">
+      <c r="G58" s="66">
         <v>8715</v>
       </c>
-      <c r="I58" s="66"/>
-      <c r="J58" s="66">
+      <c r="H58" s="66"/>
+      <c r="I58" s="66">
         <v>9477</v>
       </c>
+      <c r="J58" s="66"/>
       <c r="K58" s="66"/>
       <c r="L58" s="66"/>
-      <c r="M58" s="66">
+      <c r="M58" s="66"/>
+      <c r="N58" s="66"/>
+      <c r="O58" s="66"/>
+      <c r="P58" s="66">
         <v>8359</v>
       </c>
-      <c r="N58" s="66">
+      <c r="Q58" s="66">
         <v>8376</v>
       </c>
-      <c r="O58" s="66">
+      <c r="R58" s="66">
         <v>7422</v>
       </c>
-      <c r="P58" s="66">
+      <c r="S58" s="66">
         <v>7503</v>
       </c>
-      <c r="Q58" s="66">
+      <c r="T58" s="66">
         <v>7615</v>
       </c>
-      <c r="R58" s="66">
+      <c r="U58" s="66">
         <v>8361</v>
       </c>
-      <c r="S58" s="66">
+      <c r="V58" s="66">
         <v>10014</v>
       </c>
-      <c r="T58" s="66"/>
-      <c r="U58" s="66"/>
-      <c r="V58" s="66"/>
       <c r="W58" s="66"/>
       <c r="X58" s="66"/>
       <c r="Y58" s="66"/>
@@ -4811,8 +5056,11 @@
       <c r="AI58" s="66"/>
       <c r="AJ58" s="66"/>
       <c r="AK58" s="66"/>
-    </row>
-    <row r="59" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL58" s="66"/>
+      <c r="AM58" s="66"/>
+      <c r="AN58" s="66"/>
+    </row>
+    <row r="59" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B59" s="66" t="s">
         <v>42</v>
       </c>
@@ -4820,40 +5068,40 @@
       <c r="D59" s="66"/>
       <c r="E59" s="66"/>
       <c r="F59" s="66"/>
-      <c r="G59" s="66"/>
-      <c r="H59" s="66">
+      <c r="G59" s="66">
         <v>413</v>
       </c>
-      <c r="I59" s="66"/>
-      <c r="J59" s="66">
+      <c r="H59" s="66"/>
+      <c r="I59" s="66">
         <v>453</v>
       </c>
+      <c r="J59" s="66"/>
       <c r="K59" s="66"/>
       <c r="L59" s="66"/>
-      <c r="M59" s="66">
+      <c r="M59" s="66"/>
+      <c r="N59" s="66"/>
+      <c r="O59" s="66"/>
+      <c r="P59" s="66">
         <v>267</v>
       </c>
-      <c r="N59" s="66">
+      <c r="Q59" s="66">
         <v>249</v>
       </c>
-      <c r="O59" s="66">
+      <c r="R59" s="66">
         <v>261</v>
       </c>
-      <c r="P59" s="66">
+      <c r="S59" s="66">
         <v>307</v>
       </c>
-      <c r="Q59" s="66">
+      <c r="T59" s="66">
         <v>335</v>
       </c>
-      <c r="R59" s="66">
+      <c r="U59" s="66">
         <v>398</v>
       </c>
-      <c r="S59" s="66">
+      <c r="V59" s="66">
         <v>450</v>
       </c>
-      <c r="T59" s="66"/>
-      <c r="U59" s="66"/>
-      <c r="V59" s="66"/>
       <c r="W59" s="66"/>
       <c r="X59" s="66"/>
       <c r="Y59" s="66"/>
@@ -4869,8 +5117,11 @@
       <c r="AI59" s="66"/>
       <c r="AJ59" s="66"/>
       <c r="AK59" s="66"/>
-    </row>
-    <row r="60" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL59" s="66"/>
+      <c r="AM59" s="66"/>
+      <c r="AN59" s="66"/>
+    </row>
+    <row r="60" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B60" s="66" t="s">
         <v>43</v>
       </c>
@@ -4878,40 +5129,40 @@
       <c r="D60" s="66"/>
       <c r="E60" s="66"/>
       <c r="F60" s="66"/>
-      <c r="G60" s="66"/>
-      <c r="H60" s="66">
+      <c r="G60" s="66">
         <v>1506</v>
       </c>
-      <c r="I60" s="66"/>
-      <c r="J60" s="66">
+      <c r="H60" s="66"/>
+      <c r="I60" s="66">
         <v>1400</v>
       </c>
+      <c r="J60" s="66"/>
       <c r="K60" s="66"/>
       <c r="L60" s="66"/>
-      <c r="M60" s="66">
+      <c r="M60" s="66"/>
+      <c r="N60" s="66"/>
+      <c r="O60" s="66"/>
+      <c r="P60" s="66">
         <v>1422</v>
       </c>
-      <c r="N60" s="66">
+      <c r="Q60" s="66">
         <v>1692</v>
       </c>
-      <c r="O60" s="66">
+      <c r="R60" s="66">
         <v>1656</v>
       </c>
-      <c r="P60" s="66">
+      <c r="S60" s="66">
         <v>1519</v>
       </c>
-      <c r="Q60" s="66">
+      <c r="T60" s="66">
         <v>1481</v>
       </c>
-      <c r="R60" s="66">
+      <c r="U60" s="66">
         <v>1443</v>
       </c>
-      <c r="S60" s="66">
+      <c r="V60" s="66">
         <v>1017</v>
       </c>
-      <c r="T60" s="66"/>
-      <c r="U60" s="66"/>
-      <c r="V60" s="66"/>
       <c r="W60" s="66"/>
       <c r="X60" s="66"/>
       <c r="Y60" s="66"/>
@@ -4927,76 +5178,79 @@
       <c r="AI60" s="66"/>
       <c r="AJ60" s="66"/>
       <c r="AK60" s="66"/>
-    </row>
-    <row r="61" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL60" s="66"/>
+      <c r="AM60" s="66"/>
+      <c r="AN60" s="66"/>
+    </row>
+    <row r="61" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B61" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="66"/>
+      <c r="C61" s="66">
+        <f t="shared" ref="C61:J61" si="50">SUM(C56:C60)</f>
+        <v>0</v>
+      </c>
       <c r="D61" s="66">
-        <f t="shared" ref="D61:K61" si="40">SUM(D56:D60)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="E61" s="66">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="F61" s="66">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="G61" s="66">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
+        <v>16891</v>
+      </c>
+      <c r="H61" s="66">
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="H61" s="66">
-        <f t="shared" si="40"/>
-        <v>16891</v>
-      </c>
       <c r="I61" s="66">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
+        <v>17992</v>
+      </c>
+      <c r="J61" s="66">
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="J61" s="66">
-        <f t="shared" si="40"/>
-        <v>17992</v>
-      </c>
-      <c r="K61" s="66">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
+      <c r="K61" s="66"/>
       <c r="L61" s="66"/>
-      <c r="M61" s="66">
-        <f t="shared" ref="M61:S61" si="41">SUM(M56:M60)</f>
+      <c r="M61" s="66"/>
+      <c r="N61" s="66"/>
+      <c r="O61" s="66"/>
+      <c r="P61" s="66">
+        <f t="shared" ref="P61:V61" si="51">SUM(P56:P60)</f>
         <v>11064</v>
       </c>
-      <c r="N61" s="66">
-        <f t="shared" si="41"/>
+      <c r="Q61" s="66">
+        <f t="shared" si="51"/>
         <v>16978</v>
       </c>
-      <c r="O61" s="66">
-        <f t="shared" si="41"/>
+      <c r="R61" s="66">
+        <f t="shared" si="51"/>
         <v>15461</v>
       </c>
-      <c r="P61" s="66">
-        <f t="shared" si="41"/>
+      <c r="S61" s="66">
+        <f t="shared" si="51"/>
         <v>15343</v>
       </c>
-      <c r="Q61" s="66">
-        <f t="shared" si="41"/>
+      <c r="T61" s="66">
+        <f t="shared" si="51"/>
         <v>15344</v>
       </c>
-      <c r="R61" s="66">
-        <f t="shared" si="41"/>
+      <c r="U61" s="66">
+        <f t="shared" si="51"/>
         <v>16719</v>
       </c>
-      <c r="S61" s="66">
-        <f t="shared" si="41"/>
+      <c r="V61" s="66">
+        <f t="shared" si="51"/>
         <v>18357</v>
       </c>
-      <c r="T61" s="66"/>
-      <c r="U61" s="66"/>
-      <c r="V61" s="66"/>
       <c r="W61" s="66"/>
       <c r="X61" s="66"/>
       <c r="Y61" s="66"/>
@@ -5012,8 +5266,11 @@
       <c r="AI61" s="66"/>
       <c r="AJ61" s="66"/>
       <c r="AK61" s="66"/>
-    </row>
-    <row r="62" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL61" s="66"/>
+      <c r="AM61" s="66"/>
+      <c r="AN61" s="66"/>
+    </row>
+    <row r="62" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B62" s="66" t="s">
         <v>45</v>
       </c>
@@ -5021,40 +5278,40 @@
       <c r="D62" s="66"/>
       <c r="E62" s="66"/>
       <c r="F62" s="66"/>
-      <c r="G62" s="66"/>
-      <c r="H62" s="66">
+      <c r="G62" s="66">
         <v>3566</v>
       </c>
-      <c r="I62" s="66"/>
-      <c r="J62" s="66">
+      <c r="H62" s="66"/>
+      <c r="I62" s="66">
         <v>4290</v>
       </c>
+      <c r="J62" s="66"/>
       <c r="K62" s="66"/>
       <c r="L62" s="66"/>
-      <c r="M62" s="66">
+      <c r="M62" s="66"/>
+      <c r="N62" s="66"/>
+      <c r="O62" s="66"/>
+      <c r="P62" s="66">
         <v>2716</v>
       </c>
-      <c r="N62" s="66">
+      <c r="Q62" s="66">
         <v>2269</v>
       </c>
-      <c r="O62" s="66">
+      <c r="R62" s="66">
         <v>2321</v>
       </c>
-      <c r="P62" s="66">
+      <c r="S62" s="66">
         <v>3042</v>
       </c>
-      <c r="Q62" s="66">
+      <c r="T62" s="66">
         <v>3191</v>
       </c>
-      <c r="R62" s="66">
+      <c r="U62" s="66">
         <v>2966</v>
       </c>
-      <c r="S62" s="66">
+      <c r="V62" s="66">
         <v>3321</v>
       </c>
-      <c r="T62" s="66"/>
-      <c r="U62" s="66"/>
-      <c r="V62" s="66"/>
       <c r="W62" s="66"/>
       <c r="X62" s="66"/>
       <c r="Y62" s="66"/>
@@ -5070,8 +5327,11 @@
       <c r="AI62" s="66"/>
       <c r="AJ62" s="66"/>
       <c r="AK62" s="66"/>
-    </row>
-    <row r="63" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL62" s="66"/>
+      <c r="AM62" s="66"/>
+      <c r="AN62" s="66"/>
+    </row>
+    <row r="63" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B63" s="66" t="s">
         <v>46</v>
       </c>
@@ -5079,40 +5339,40 @@
       <c r="D63" s="66"/>
       <c r="E63" s="66"/>
       <c r="F63" s="66"/>
-      <c r="G63" s="66"/>
-      <c r="H63" s="66">
+      <c r="G63" s="66">
         <v>1131</v>
       </c>
-      <c r="I63" s="66"/>
-      <c r="J63" s="66">
+      <c r="H63" s="66"/>
+      <c r="I63" s="66">
         <v>1159</v>
       </c>
+      <c r="J63" s="66"/>
       <c r="K63" s="66"/>
       <c r="L63" s="66"/>
-      <c r="M63" s="66">
+      <c r="M63" s="66"/>
+      <c r="N63" s="66"/>
+      <c r="O63" s="66"/>
+      <c r="P63" s="66">
         <v>820</v>
       </c>
-      <c r="N63" s="66">
+      <c r="Q63" s="66">
         <v>780</v>
       </c>
-      <c r="O63" s="66">
+      <c r="R63" s="66">
         <v>715</v>
       </c>
-      <c r="P63" s="66">
+      <c r="S63" s="66">
         <v>842</v>
       </c>
-      <c r="Q63" s="66">
+      <c r="T63" s="66">
         <v>851</v>
       </c>
-      <c r="R63" s="66">
+      <c r="U63" s="66">
         <v>1038</v>
       </c>
-      <c r="S63" s="66">
+      <c r="V63" s="66">
         <v>1088</v>
       </c>
-      <c r="T63" s="66"/>
-      <c r="U63" s="66"/>
-      <c r="V63" s="66"/>
       <c r="W63" s="66"/>
       <c r="X63" s="66"/>
       <c r="Y63" s="66"/>
@@ -5128,8 +5388,11 @@
       <c r="AI63" s="66"/>
       <c r="AJ63" s="66"/>
       <c r="AK63" s="66"/>
-    </row>
-    <row r="64" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL63" s="66"/>
+      <c r="AM63" s="66"/>
+      <c r="AN63" s="66"/>
+    </row>
+    <row r="64" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B64" s="66" t="s">
         <v>47</v>
       </c>
@@ -5137,40 +5400,40 @@
       <c r="D64" s="66"/>
       <c r="E64" s="66"/>
       <c r="F64" s="66"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="66">
+      <c r="G64" s="66">
         <v>3978</v>
       </c>
-      <c r="I64" s="66"/>
-      <c r="J64" s="66">
+      <c r="H64" s="66"/>
+      <c r="I64" s="66">
         <v>3569</v>
       </c>
+      <c r="J64" s="66"/>
       <c r="K64" s="66"/>
       <c r="L64" s="66"/>
-      <c r="M64" s="66">
+      <c r="M64" s="66"/>
+      <c r="N64" s="66"/>
+      <c r="O64" s="66"/>
+      <c r="P64" s="66">
         <v>1929</v>
       </c>
-      <c r="N64" s="66">
+      <c r="Q64" s="66">
         <v>3319</v>
       </c>
-      <c r="O64" s="66">
+      <c r="R64" s="66">
         <v>176</v>
       </c>
-      <c r="P64" s="66">
+      <c r="S64" s="66">
         <v>2374</v>
       </c>
-      <c r="Q64" s="66">
+      <c r="T64" s="66">
         <v>4522</v>
       </c>
-      <c r="R64" s="66">
+      <c r="U64" s="66">
         <v>4415</v>
       </c>
-      <c r="S64" s="66">
+      <c r="V64" s="66">
         <v>5120</v>
       </c>
-      <c r="T64" s="66"/>
-      <c r="U64" s="66"/>
-      <c r="V64" s="66"/>
       <c r="W64" s="66"/>
       <c r="X64" s="66"/>
       <c r="Y64" s="66"/>
@@ -5186,8 +5449,11 @@
       <c r="AI64" s="66"/>
       <c r="AJ64" s="66"/>
       <c r="AK64" s="66"/>
-    </row>
-    <row r="65" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL64" s="66"/>
+      <c r="AM64" s="66"/>
+      <c r="AN64" s="66"/>
+    </row>
+    <row r="65" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B65" s="66" t="s">
         <v>48</v>
       </c>
@@ -5195,40 +5461,40 @@
       <c r="D65" s="66"/>
       <c r="E65" s="66"/>
       <c r="F65" s="66"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="66">
+      <c r="G65" s="66">
         <v>7668</v>
       </c>
-      <c r="I65" s="66"/>
-      <c r="J65" s="66">
+      <c r="H65" s="66"/>
+      <c r="I65" s="66">
         <v>8268</v>
       </c>
+      <c r="J65" s="66"/>
       <c r="K65" s="66"/>
       <c r="L65" s="66"/>
-      <c r="M65" s="66">
+      <c r="M65" s="66"/>
+      <c r="N65" s="66"/>
+      <c r="O65" s="66"/>
+      <c r="P65" s="66">
         <v>4866</v>
       </c>
-      <c r="N65" s="66">
+      <c r="Q65" s="66">
         <v>4780</v>
       </c>
-      <c r="O65" s="66">
+      <c r="R65" s="66">
         <v>7398</v>
       </c>
-      <c r="P65" s="66">
+      <c r="S65" s="66">
         <v>7021</v>
       </c>
-      <c r="Q65" s="66">
+      <c r="T65" s="66">
         <v>5561</v>
       </c>
-      <c r="R65" s="66">
+      <c r="U65" s="66">
         <v>7007</v>
       </c>
-      <c r="S65" s="66">
+      <c r="V65" s="66">
         <v>6382</v>
       </c>
-      <c r="T65" s="66"/>
-      <c r="U65" s="66"/>
-      <c r="V65" s="66"/>
       <c r="W65" s="66"/>
       <c r="X65" s="66"/>
       <c r="Y65" s="66"/>
@@ -5244,8 +5510,11 @@
       <c r="AI65" s="66"/>
       <c r="AJ65" s="66"/>
       <c r="AK65" s="66"/>
-    </row>
-    <row r="66" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL65" s="66"/>
+      <c r="AM65" s="66"/>
+      <c r="AN65" s="66"/>
+    </row>
+    <row r="66" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B66" s="66" t="s">
         <v>43</v>
       </c>
@@ -5253,40 +5522,40 @@
       <c r="D66" s="66"/>
       <c r="E66" s="66"/>
       <c r="F66" s="66"/>
-      <c r="G66" s="66"/>
-      <c r="H66" s="66">
+      <c r="G66" s="66">
         <v>736</v>
       </c>
-      <c r="I66" s="66"/>
-      <c r="J66" s="66">
+      <c r="H66" s="66"/>
+      <c r="I66" s="66">
         <v>813</v>
       </c>
+      <c r="J66" s="66"/>
       <c r="K66" s="66"/>
       <c r="L66" s="66"/>
-      <c r="M66" s="66">
+      <c r="M66" s="66"/>
+      <c r="N66" s="66"/>
+      <c r="O66" s="66"/>
+      <c r="P66" s="66">
         <v>289</v>
       </c>
-      <c r="N66" s="66">
+      <c r="Q66" s="66">
         <v>265</v>
       </c>
-      <c r="O66" s="66">
+      <c r="R66" s="66">
         <v>347</v>
       </c>
-      <c r="P66" s="66">
+      <c r="S66" s="66">
         <v>323</v>
       </c>
-      <c r="Q66" s="66">
+      <c r="T66" s="66">
         <v>515</v>
       </c>
-      <c r="R66" s="66">
+      <c r="U66" s="66">
         <v>590</v>
       </c>
-      <c r="S66" s="66">
+      <c r="V66" s="66">
         <v>445</v>
       </c>
-      <c r="T66" s="66"/>
-      <c r="U66" s="66"/>
-      <c r="V66" s="66"/>
       <c r="W66" s="66"/>
       <c r="X66" s="66"/>
       <c r="Y66" s="66"/>
@@ -5302,76 +5571,79 @@
       <c r="AI66" s="66"/>
       <c r="AJ66" s="66"/>
       <c r="AK66" s="66"/>
-    </row>
-    <row r="67" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL66" s="66"/>
+      <c r="AM66" s="66"/>
+      <c r="AN66" s="66"/>
+    </row>
+    <row r="67" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B67" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="C67" s="66"/>
+      <c r="C67" s="66">
+        <f t="shared" ref="C67:J67" si="52">SUM(C62:C66)</f>
+        <v>0</v>
+      </c>
       <c r="D67" s="66">
-        <f t="shared" ref="D67:K67" si="42">SUM(D62:D66)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="E67" s="66">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="F67" s="66">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="G67" s="66">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
+        <v>17079</v>
+      </c>
+      <c r="H67" s="66">
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="H67" s="66">
-        <f t="shared" si="42"/>
-        <v>17079</v>
-      </c>
       <c r="I67" s="66">
-        <f t="shared" si="42"/>
+        <f t="shared" si="52"/>
+        <v>18099</v>
+      </c>
+      <c r="J67" s="66">
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="J67" s="66">
-        <f t="shared" si="42"/>
-        <v>18099</v>
-      </c>
-      <c r="K67" s="66">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
+      <c r="K67" s="66"/>
       <c r="L67" s="66"/>
-      <c r="M67" s="66">
-        <f t="shared" ref="M67:Q67" si="43">SUM(M62:M66)</f>
+      <c r="M67" s="66"/>
+      <c r="N67" s="66"/>
+      <c r="O67" s="66"/>
+      <c r="P67" s="66">
+        <f t="shared" ref="P67:T67" si="53">SUM(P62:P66)</f>
         <v>10620</v>
       </c>
-      <c r="N67" s="66">
-        <f t="shared" si="43"/>
+      <c r="Q67" s="66">
+        <f t="shared" si="53"/>
         <v>11413</v>
       </c>
-      <c r="O67" s="66">
-        <f t="shared" si="43"/>
+      <c r="R67" s="66">
+        <f t="shared" si="53"/>
         <v>10957</v>
       </c>
-      <c r="P67" s="66">
-        <f t="shared" si="43"/>
+      <c r="S67" s="66">
+        <f t="shared" si="53"/>
         <v>13602</v>
       </c>
-      <c r="Q67" s="66">
-        <f t="shared" si="43"/>
+      <c r="T67" s="66">
+        <f t="shared" si="53"/>
         <v>14640</v>
       </c>
-      <c r="R67" s="66">
-        <f>SUM(R62:R66)</f>
+      <c r="U67" s="66">
+        <f>SUM(U62:U66)</f>
         <v>16016</v>
       </c>
-      <c r="S67" s="66">
-        <f>SUM(S62:S66)</f>
+      <c r="V67" s="66">
+        <f>SUM(V62:V66)</f>
         <v>16356</v>
       </c>
-      <c r="T67" s="66"/>
-      <c r="U67" s="66"/>
-      <c r="V67" s="66"/>
       <c r="W67" s="66"/>
       <c r="X67" s="66"/>
       <c r="Y67" s="66"/>
@@ -5387,76 +5659,79 @@
       <c r="AI67" s="66"/>
       <c r="AJ67" s="66"/>
       <c r="AK67" s="66"/>
-    </row>
-    <row r="68" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL67" s="66"/>
+      <c r="AM67" s="66"/>
+      <c r="AN67" s="66"/>
+    </row>
+    <row r="68" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B68" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="C68" s="70"/>
+      <c r="C68" s="70">
+        <f t="shared" ref="C68:J68" si="54">C61+C67</f>
+        <v>0</v>
+      </c>
       <c r="D68" s="70">
-        <f t="shared" ref="D68:K68" si="44">D61+D67</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="E68" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="F68" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="G68" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
+        <v>33970</v>
+      </c>
+      <c r="H68" s="70">
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="H68" s="70">
-        <f t="shared" si="44"/>
-        <v>33970</v>
-      </c>
       <c r="I68" s="70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
+        <v>36091</v>
+      </c>
+      <c r="J68" s="70">
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="J68" s="70">
-        <f t="shared" si="44"/>
-        <v>36091</v>
-      </c>
-      <c r="K68" s="70">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
+      <c r="K68" s="70"/>
       <c r="L68" s="70"/>
-      <c r="M68" s="70">
-        <f t="shared" ref="M68:S68" si="45">M61+M67</f>
+      <c r="M68" s="70"/>
+      <c r="N68" s="70"/>
+      <c r="O68" s="70"/>
+      <c r="P68" s="70">
+        <f t="shared" ref="P68:V68" si="55">P61+P67</f>
         <v>21684</v>
       </c>
-      <c r="N68" s="70">
-        <f t="shared" si="45"/>
+      <c r="Q68" s="70">
+        <f t="shared" si="55"/>
         <v>28391</v>
       </c>
-      <c r="O68" s="70">
-        <f t="shared" si="45"/>
+      <c r="R68" s="70">
+        <f t="shared" si="55"/>
         <v>26418</v>
       </c>
-      <c r="P68" s="70">
-        <f t="shared" si="45"/>
+      <c r="S68" s="70">
+        <f t="shared" si="55"/>
         <v>28945</v>
       </c>
-      <c r="Q68" s="70">
-        <f t="shared" si="45"/>
+      <c r="T68" s="70">
+        <f t="shared" si="55"/>
         <v>29984</v>
       </c>
-      <c r="R68" s="70">
-        <f t="shared" si="45"/>
+      <c r="U68" s="70">
+        <f t="shared" si="55"/>
         <v>32735</v>
       </c>
-      <c r="S68" s="70">
-        <f t="shared" si="45"/>
+      <c r="V68" s="70">
+        <f t="shared" si="55"/>
         <v>34713</v>
       </c>
-      <c r="T68" s="66"/>
-      <c r="U68" s="66"/>
-      <c r="V68" s="66"/>
       <c r="W68" s="66"/>
       <c r="X68" s="66"/>
       <c r="Y68" s="66"/>
@@ -5472,8 +5747,11 @@
       <c r="AI68" s="66"/>
       <c r="AJ68" s="66"/>
       <c r="AK68" s="66"/>
-    </row>
-    <row r="69" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL68" s="66"/>
+      <c r="AM68" s="66"/>
+      <c r="AN68" s="66"/>
+    </row>
+    <row r="69" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B69" s="66"/>
       <c r="C69" s="66"/>
       <c r="D69" s="66"/>
@@ -5510,8 +5788,11 @@
       <c r="AI69" s="66"/>
       <c r="AJ69" s="66"/>
       <c r="AK69" s="66"/>
-    </row>
-    <row r="70" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL69" s="66"/>
+      <c r="AM69" s="66"/>
+      <c r="AN69" s="66"/>
+    </row>
+    <row r="70" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B70" s="66" t="s">
         <v>51</v>
       </c>
@@ -5519,40 +5800,40 @@
       <c r="D70" s="66"/>
       <c r="E70" s="66"/>
       <c r="F70" s="66"/>
-      <c r="G70" s="66"/>
-      <c r="H70" s="66">
+      <c r="G70" s="66">
         <v>17519</v>
       </c>
-      <c r="I70" s="66"/>
-      <c r="J70" s="66">
+      <c r="H70" s="66"/>
+      <c r="I70" s="66">
         <v>18140</v>
       </c>
+      <c r="J70" s="66"/>
       <c r="K70" s="66"/>
       <c r="L70" s="66"/>
-      <c r="M70" s="66">
+      <c r="M70" s="66"/>
+      <c r="N70" s="66"/>
+      <c r="O70" s="66"/>
+      <c r="P70" s="66">
         <v>14653</v>
       </c>
-      <c r="N70" s="66">
+      <c r="Q70" s="66">
         <v>14913</v>
       </c>
-      <c r="O70" s="66">
+      <c r="R70" s="66">
         <v>14520</v>
       </c>
-      <c r="P70" s="66">
+      <c r="S70" s="66">
         <v>15733</v>
       </c>
-      <c r="Q70" s="66">
+      <c r="T70" s="66">
         <v>17008</v>
       </c>
-      <c r="R70" s="66">
+      <c r="U70" s="66">
         <v>18642</v>
       </c>
-      <c r="S70" s="66">
+      <c r="V70" s="66">
         <v>19676</v>
       </c>
-      <c r="T70" s="66"/>
-      <c r="U70" s="66"/>
-      <c r="V70" s="66"/>
       <c r="W70" s="66"/>
       <c r="X70" s="66"/>
       <c r="Y70" s="66"/>
@@ -5568,8 +5849,11 @@
       <c r="AI70" s="66"/>
       <c r="AJ70" s="66"/>
       <c r="AK70" s="66"/>
-    </row>
-    <row r="71" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL70" s="66"/>
+      <c r="AM70" s="66"/>
+      <c r="AN70" s="66"/>
+    </row>
+    <row r="71" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B71" s="66" t="s">
         <v>52</v>
       </c>
@@ -5577,40 +5861,40 @@
       <c r="D71" s="66"/>
       <c r="E71" s="66"/>
       <c r="F71" s="66"/>
-      <c r="G71" s="66"/>
-      <c r="H71" s="66">
+      <c r="G71" s="66">
         <v>35</v>
       </c>
-      <c r="I71" s="66"/>
-      <c r="J71" s="66">
+      <c r="H71" s="66"/>
+      <c r="I71" s="66">
         <v>0</v>
       </c>
+      <c r="J71" s="66"/>
       <c r="K71" s="66"/>
       <c r="L71" s="66"/>
-      <c r="M71" s="66">
+      <c r="M71" s="66"/>
+      <c r="N71" s="66"/>
+      <c r="O71" s="66"/>
+      <c r="P71" s="66">
         <v>30</v>
       </c>
-      <c r="N71" s="66">
+      <c r="Q71" s="66">
         <v>36</v>
-      </c>
-      <c r="O71" s="66">
-        <v>30</v>
-      </c>
-      <c r="P71" s="66">
-        <v>26</v>
-      </c>
-      <c r="Q71" s="66">
-        <v>25</v>
       </c>
       <c r="R71" s="66">
         <v>30</v>
       </c>
       <c r="S71" s="66">
+        <v>26</v>
+      </c>
+      <c r="T71" s="66">
+        <v>25</v>
+      </c>
+      <c r="U71" s="66">
+        <v>30</v>
+      </c>
+      <c r="V71" s="66">
         <v>0</v>
       </c>
-      <c r="T71" s="66"/>
-      <c r="U71" s="66"/>
-      <c r="V71" s="66"/>
       <c r="W71" s="66"/>
       <c r="X71" s="66"/>
       <c r="Y71" s="66"/>
@@ -5626,76 +5910,79 @@
       <c r="AI71" s="66"/>
       <c r="AJ71" s="66"/>
       <c r="AK71" s="66"/>
-    </row>
-    <row r="72" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL71" s="66"/>
+      <c r="AM71" s="66"/>
+      <c r="AN71" s="66"/>
+    </row>
+    <row r="72" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B72" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="C72" s="70"/>
+      <c r="C72" s="70">
+        <f t="shared" ref="C72:J72" si="56">C70+C71</f>
+        <v>0</v>
+      </c>
       <c r="D72" s="70">
-        <f t="shared" ref="D72:K72" si="46">D70+D71</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="E72" s="70">
-        <f t="shared" si="46"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="F72" s="70">
-        <f t="shared" si="46"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="G72" s="70">
-        <f t="shared" si="46"/>
+        <f t="shared" si="56"/>
+        <v>17554</v>
+      </c>
+      <c r="H72" s="70">
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="H72" s="70">
-        <f t="shared" si="46"/>
-        <v>17554</v>
-      </c>
       <c r="I72" s="70">
-        <f t="shared" si="46"/>
+        <f t="shared" si="56"/>
+        <v>18140</v>
+      </c>
+      <c r="J72" s="70">
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="J72" s="70">
-        <f t="shared" si="46"/>
-        <v>18140</v>
-      </c>
-      <c r="K72" s="70">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
+      <c r="K72" s="70"/>
       <c r="L72" s="70"/>
-      <c r="M72" s="70">
-        <f t="shared" ref="M72:Q72" si="47">M70+M71</f>
+      <c r="M72" s="70"/>
+      <c r="N72" s="70"/>
+      <c r="O72" s="70"/>
+      <c r="P72" s="70">
+        <f t="shared" ref="P72:T72" si="57">P70+P71</f>
         <v>14683</v>
       </c>
-      <c r="N72" s="70">
-        <f t="shared" si="47"/>
+      <c r="Q72" s="70">
+        <f t="shared" si="57"/>
         <v>14949</v>
       </c>
-      <c r="O72" s="70">
-        <f t="shared" si="47"/>
+      <c r="R72" s="70">
+        <f t="shared" si="57"/>
         <v>14550</v>
       </c>
-      <c r="P72" s="70">
-        <f t="shared" si="47"/>
+      <c r="S72" s="70">
+        <f t="shared" si="57"/>
         <v>15759</v>
       </c>
-      <c r="Q72" s="70">
-        <f t="shared" si="47"/>
+      <c r="T72" s="70">
+        <f t="shared" si="57"/>
         <v>17033</v>
       </c>
-      <c r="R72" s="70">
-        <f>R70+R71</f>
+      <c r="U72" s="70">
+        <f>U70+U71</f>
         <v>18672</v>
       </c>
-      <c r="S72" s="70">
-        <f>S70+S71</f>
+      <c r="V72" s="70">
+        <f>V70+V71</f>
         <v>19676</v>
       </c>
-      <c r="T72" s="66"/>
-      <c r="U72" s="66"/>
-      <c r="V72" s="66"/>
       <c r="W72" s="66"/>
       <c r="X72" s="66"/>
       <c r="Y72" s="66"/>
@@ -5711,8 +5998,11 @@
       <c r="AI72" s="66"/>
       <c r="AJ72" s="66"/>
       <c r="AK72" s="66"/>
-    </row>
-    <row r="73" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL72" s="66"/>
+      <c r="AM72" s="66"/>
+      <c r="AN72" s="66"/>
+    </row>
+    <row r="73" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B73" s="66" t="s">
         <v>54</v>
       </c>
@@ -5720,40 +6010,40 @@
       <c r="D73" s="66"/>
       <c r="E73" s="66"/>
       <c r="F73" s="66"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="66">
+      <c r="G73" s="66">
         <v>444</v>
       </c>
-      <c r="I73" s="66"/>
-      <c r="J73" s="66">
+      <c r="H73" s="66"/>
+      <c r="I73" s="66">
         <v>391</v>
       </c>
+      <c r="J73" s="66"/>
       <c r="K73" s="66"/>
       <c r="L73" s="66"/>
-      <c r="M73" s="66">
+      <c r="M73" s="66"/>
+      <c r="N73" s="66"/>
+      <c r="O73" s="66"/>
+      <c r="P73" s="66">
         <v>312</v>
       </c>
-      <c r="N73" s="66">
+      <c r="Q73" s="66">
         <v>370</v>
       </c>
-      <c r="O73" s="66">
+      <c r="R73" s="66">
         <v>396</v>
       </c>
-      <c r="P73" s="66">
+      <c r="S73" s="66">
         <v>359</v>
       </c>
-      <c r="Q73" s="66">
+      <c r="T73" s="66">
         <v>384</v>
       </c>
-      <c r="R73" s="66">
+      <c r="U73" s="66">
         <v>394</v>
       </c>
-      <c r="S73" s="66">
+      <c r="V73" s="66">
         <v>72</v>
       </c>
-      <c r="T73" s="66"/>
-      <c r="U73" s="66"/>
-      <c r="V73" s="66"/>
       <c r="W73" s="66"/>
       <c r="X73" s="66"/>
       <c r="Y73" s="66"/>
@@ -5769,8 +6059,11 @@
       <c r="AI73" s="66"/>
       <c r="AJ73" s="66"/>
       <c r="AK73" s="66"/>
-    </row>
-    <row r="74" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL73" s="66"/>
+      <c r="AM73" s="66"/>
+      <c r="AN73" s="66"/>
+    </row>
+    <row r="74" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B74" s="66" t="s">
         <v>55</v>
       </c>
@@ -5778,40 +6071,40 @@
       <c r="D74" s="66"/>
       <c r="E74" s="66"/>
       <c r="F74" s="66"/>
-      <c r="G74" s="66"/>
-      <c r="H74" s="66">
+      <c r="G74" s="66">
         <v>0</v>
       </c>
-      <c r="I74" s="66"/>
-      <c r="J74" s="66">
+      <c r="H74" s="66"/>
+      <c r="I74" s="66">
         <v>0</v>
       </c>
+      <c r="J74" s="66"/>
       <c r="K74" s="66"/>
       <c r="L74" s="66"/>
-      <c r="M74" s="66">
+      <c r="M74" s="66"/>
+      <c r="N74" s="66"/>
+      <c r="O74" s="66"/>
+      <c r="P74" s="66">
         <v>5</v>
       </c>
-      <c r="N74" s="66">
+      <c r="Q74" s="66">
         <v>6</v>
       </c>
-      <c r="O74" s="66">
+      <c r="R74" s="66">
         <v>3</v>
       </c>
-      <c r="P74" s="66">
+      <c r="S74" s="66">
         <v>1</v>
       </c>
-      <c r="Q74" s="66">
+      <c r="T74" s="66">
         <v>0</v>
       </c>
-      <c r="R74" s="66">
+      <c r="U74" s="66">
         <v>0</v>
       </c>
-      <c r="S74" s="66">
+      <c r="V74" s="66">
         <v>0</v>
       </c>
-      <c r="T74" s="66"/>
-      <c r="U74" s="66"/>
-      <c r="V74" s="66"/>
       <c r="W74" s="66"/>
       <c r="X74" s="66"/>
       <c r="Y74" s="66"/>
@@ -5827,8 +6120,11 @@
       <c r="AI74" s="66"/>
       <c r="AJ74" s="66"/>
       <c r="AK74" s="66"/>
-    </row>
-    <row r="75" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL74" s="66"/>
+      <c r="AM74" s="66"/>
+      <c r="AN74" s="66"/>
+    </row>
+    <row r="75" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B75" s="66" t="s">
         <v>56</v>
       </c>
@@ -5836,40 +6132,40 @@
       <c r="D75" s="66"/>
       <c r="E75" s="66"/>
       <c r="F75" s="66"/>
-      <c r="G75" s="66"/>
-      <c r="H75" s="66">
+      <c r="G75" s="66">
         <v>3790</v>
       </c>
-      <c r="I75" s="66"/>
-      <c r="J75" s="66">
+      <c r="H75" s="66"/>
+      <c r="I75" s="66">
         <v>4010</v>
       </c>
+      <c r="J75" s="66"/>
       <c r="K75" s="66"/>
       <c r="L75" s="66"/>
-      <c r="M75" s="66">
+      <c r="M75" s="66"/>
+      <c r="N75" s="66"/>
+      <c r="O75" s="66"/>
+      <c r="P75" s="66">
         <v>0</v>
       </c>
-      <c r="N75" s="66">
+      <c r="Q75" s="66">
         <v>5163</v>
       </c>
-      <c r="O75" s="66">
+      <c r="R75" s="66">
         <v>4599</v>
       </c>
-      <c r="P75" s="66">
+      <c r="S75" s="66">
         <v>4262</v>
       </c>
-      <c r="Q75" s="66">
+      <c r="T75" s="66">
         <v>3924</v>
       </c>
-      <c r="R75" s="66">
+      <c r="U75" s="66">
         <v>4123</v>
       </c>
-      <c r="S75" s="66">
+      <c r="V75" s="66">
         <v>4180</v>
       </c>
-      <c r="T75" s="66"/>
-      <c r="U75" s="66"/>
-      <c r="V75" s="66"/>
       <c r="W75" s="66"/>
       <c r="X75" s="66"/>
       <c r="Y75" s="66"/>
@@ -5885,8 +6181,11 @@
       <c r="AI75" s="66"/>
       <c r="AJ75" s="66"/>
       <c r="AK75" s="66"/>
-    </row>
-    <row r="76" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL75" s="66"/>
+      <c r="AM75" s="66"/>
+      <c r="AN75" s="66"/>
+    </row>
+    <row r="76" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B76" s="66" t="s">
         <v>43</v>
       </c>
@@ -5894,40 +6193,40 @@
       <c r="D76" s="66"/>
       <c r="E76" s="66"/>
       <c r="F76" s="66"/>
-      <c r="G76" s="66"/>
-      <c r="H76" s="66">
+      <c r="G76" s="66">
         <v>570</v>
       </c>
-      <c r="I76" s="66"/>
-      <c r="J76" s="66">
+      <c r="H76" s="66"/>
+      <c r="I76" s="66">
         <v>598</v>
       </c>
+      <c r="J76" s="66"/>
       <c r="K76" s="66"/>
       <c r="L76" s="66"/>
-      <c r="M76" s="66">
+      <c r="M76" s="66"/>
+      <c r="N76" s="66"/>
+      <c r="O76" s="66"/>
+      <c r="P76" s="66">
         <v>1301</v>
       </c>
-      <c r="N76" s="66">
+      <c r="Q76" s="66">
         <v>597</v>
       </c>
-      <c r="O76" s="66">
+      <c r="R76" s="66">
         <v>532</v>
       </c>
-      <c r="P76" s="66">
+      <c r="S76" s="66">
         <v>536</v>
       </c>
-      <c r="Q76" s="66">
+      <c r="T76" s="66">
         <v>505</v>
       </c>
-      <c r="R76" s="66">
+      <c r="U76" s="66">
         <v>610</v>
       </c>
-      <c r="S76" s="66">
+      <c r="V76" s="66">
         <v>599</v>
       </c>
-      <c r="T76" s="66"/>
-      <c r="U76" s="66"/>
-      <c r="V76" s="66"/>
       <c r="W76" s="66"/>
       <c r="X76" s="66"/>
       <c r="Y76" s="66"/>
@@ -5943,76 +6242,79 @@
       <c r="AI76" s="66"/>
       <c r="AJ76" s="66"/>
       <c r="AK76" s="66"/>
-    </row>
-    <row r="77" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL76" s="66"/>
+      <c r="AM76" s="66"/>
+      <c r="AN76" s="66"/>
+    </row>
+    <row r="77" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B77" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="C77" s="66"/>
+      <c r="C77" s="66">
+        <f t="shared" ref="C77:J77" si="58">SUM(C73:C76)</f>
+        <v>0</v>
+      </c>
       <c r="D77" s="66">
-        <f t="shared" ref="D77:K77" si="48">SUM(D73:D76)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="E77" s="66">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="F77" s="66">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="G77" s="66">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
+        <v>4804</v>
+      </c>
+      <c r="H77" s="66">
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="H77" s="66">
-        <f t="shared" si="48"/>
-        <v>4804</v>
-      </c>
       <c r="I77" s="66">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
+        <v>4999</v>
+      </c>
+      <c r="J77" s="66">
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="J77" s="66">
-        <f t="shared" si="48"/>
-        <v>4999</v>
-      </c>
-      <c r="K77" s="66">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
+      <c r="K77" s="66"/>
       <c r="L77" s="66"/>
-      <c r="M77" s="66">
-        <f t="shared" ref="M77:Q77" si="49">SUM(M73:M76)</f>
+      <c r="M77" s="66"/>
+      <c r="N77" s="66"/>
+      <c r="O77" s="66"/>
+      <c r="P77" s="66">
+        <f t="shared" ref="P77:T77" si="59">SUM(P73:P76)</f>
         <v>1618</v>
       </c>
-      <c r="N77" s="66">
-        <f t="shared" si="49"/>
+      <c r="Q77" s="66">
+        <f t="shared" si="59"/>
         <v>6136</v>
       </c>
-      <c r="O77" s="66">
-        <f t="shared" si="49"/>
+      <c r="R77" s="66">
+        <f t="shared" si="59"/>
         <v>5530</v>
       </c>
-      <c r="P77" s="66">
-        <f t="shared" si="49"/>
+      <c r="S77" s="66">
+        <f t="shared" si="59"/>
         <v>5158</v>
       </c>
-      <c r="Q77" s="66">
-        <f t="shared" si="49"/>
+      <c r="T77" s="66">
+        <f t="shared" si="59"/>
         <v>4813</v>
       </c>
-      <c r="R77" s="66">
-        <f>SUM(R73:R76)</f>
+      <c r="U77" s="66">
+        <f>SUM(U73:U76)</f>
         <v>5127</v>
       </c>
-      <c r="S77" s="66">
-        <f>SUM(S73:S76)</f>
+      <c r="V77" s="66">
+        <f>SUM(V73:V76)</f>
         <v>4851</v>
       </c>
-      <c r="T77" s="66"/>
-      <c r="U77" s="66"/>
-      <c r="V77" s="66"/>
       <c r="W77" s="66"/>
       <c r="X77" s="66"/>
       <c r="Y77" s="66"/>
@@ -6028,8 +6330,11 @@
       <c r="AI77" s="66"/>
       <c r="AJ77" s="66"/>
       <c r="AK77" s="66"/>
-    </row>
-    <row r="78" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL77" s="66"/>
+      <c r="AM77" s="66"/>
+      <c r="AN77" s="66"/>
+    </row>
+    <row r="78" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B78" s="66" t="s">
         <v>55</v>
       </c>
@@ -6037,40 +6342,40 @@
       <c r="D78" s="66"/>
       <c r="E78" s="66"/>
       <c r="F78" s="66"/>
-      <c r="G78" s="66"/>
-      <c r="H78" s="66">
+      <c r="G78" s="66">
         <v>22</v>
       </c>
-      <c r="I78" s="66"/>
-      <c r="J78" s="66">
+      <c r="H78" s="66"/>
+      <c r="I78" s="66">
         <v>13</v>
       </c>
+      <c r="J78" s="66"/>
       <c r="K78" s="66"/>
       <c r="L78" s="66"/>
-      <c r="M78" s="66">
+      <c r="M78" s="66"/>
+      <c r="N78" s="66"/>
+      <c r="O78" s="66"/>
+      <c r="P78" s="66">
         <v>84</v>
       </c>
-      <c r="N78" s="66">
+      <c r="Q78" s="66">
         <v>32</v>
       </c>
-      <c r="O78" s="66">
+      <c r="R78" s="66">
         <v>11</v>
       </c>
-      <c r="P78" s="66">
+      <c r="S78" s="66">
         <v>35</v>
       </c>
-      <c r="Q78" s="66">
+      <c r="T78" s="66">
         <v>13</v>
       </c>
-      <c r="R78" s="66">
+      <c r="U78" s="66">
         <v>16</v>
       </c>
-      <c r="S78" s="66">
+      <c r="V78" s="66">
         <v>7</v>
       </c>
-      <c r="T78" s="66"/>
-      <c r="U78" s="66"/>
-      <c r="V78" s="66"/>
       <c r="W78" s="66"/>
       <c r="X78" s="66"/>
       <c r="Y78" s="66"/>
@@ -6086,8 +6391,11 @@
       <c r="AI78" s="66"/>
       <c r="AJ78" s="66"/>
       <c r="AK78" s="66"/>
-    </row>
-    <row r="79" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL78" s="66"/>
+      <c r="AM78" s="66"/>
+      <c r="AN78" s="66"/>
+    </row>
+    <row r="79" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B79" s="66" t="s">
         <v>56</v>
       </c>
@@ -6095,40 +6403,40 @@
       <c r="D79" s="66"/>
       <c r="E79" s="66"/>
       <c r="F79" s="66"/>
-      <c r="G79" s="66"/>
-      <c r="H79" s="66">
+      <c r="G79" s="66">
         <v>1443</v>
       </c>
-      <c r="I79" s="66"/>
-      <c r="J79" s="66">
+      <c r="H79" s="66"/>
+      <c r="I79" s="66">
         <v>1499</v>
       </c>
+      <c r="J79" s="66"/>
       <c r="K79" s="66"/>
       <c r="L79" s="66"/>
-      <c r="M79" s="66">
+      <c r="M79" s="66"/>
+      <c r="N79" s="66"/>
+      <c r="O79" s="66"/>
+      <c r="P79" s="66">
         <v>0</v>
       </c>
-      <c r="N79" s="66">
+      <c r="Q79" s="66">
         <v>1649</v>
       </c>
-      <c r="O79" s="66">
+      <c r="R79" s="66">
         <v>1552</v>
       </c>
-      <c r="P79" s="66">
+      <c r="S79" s="66">
         <v>1562</v>
       </c>
-      <c r="Q79" s="66">
+      <c r="T79" s="66">
         <v>1517</v>
       </c>
-      <c r="R79" s="66">
+      <c r="U79" s="66">
         <v>1428</v>
       </c>
-      <c r="S79" s="66">
+      <c r="V79" s="66">
         <v>1542</v>
       </c>
-      <c r="T79" s="66"/>
-      <c r="U79" s="66"/>
-      <c r="V79" s="66"/>
       <c r="W79" s="66"/>
       <c r="X79" s="66"/>
       <c r="Y79" s="66"/>
@@ -6144,8 +6452,11 @@
       <c r="AI79" s="66"/>
       <c r="AJ79" s="66"/>
       <c r="AK79" s="66"/>
-    </row>
-    <row r="80" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AL79" s="66"/>
+      <c r="AM79" s="66"/>
+      <c r="AN79" s="66"/>
+    </row>
+    <row r="80" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B80" s="66" t="s">
         <v>58</v>
       </c>
@@ -6153,40 +6464,40 @@
       <c r="D80" s="66"/>
       <c r="E80" s="66"/>
       <c r="F80" s="66"/>
-      <c r="G80" s="66"/>
-      <c r="H80" s="66">
+      <c r="G80" s="66">
         <v>10126</v>
       </c>
-      <c r="I80" s="66"/>
-      <c r="J80" s="66">
+      <c r="H80" s="66"/>
+      <c r="I80" s="66">
         <v>11392</v>
       </c>
+      <c r="J80" s="66"/>
       <c r="K80" s="66"/>
       <c r="L80" s="66"/>
-      <c r="M80" s="66">
+      <c r="M80" s="66"/>
+      <c r="N80" s="66"/>
+      <c r="O80" s="66"/>
+      <c r="P80" s="66">
         <v>5251</v>
       </c>
-      <c r="N80" s="66">
+      <c r="Q80" s="66">
         <v>5585</v>
       </c>
-      <c r="O80" s="66">
+      <c r="R80" s="66">
         <v>4747</v>
       </c>
-      <c r="P80" s="66">
+      <c r="S80" s="66">
         <v>6411</v>
       </c>
-      <c r="Q80" s="66">
+      <c r="T80" s="66">
         <v>6561</v>
       </c>
-      <c r="R80" s="66">
+      <c r="U80" s="66">
         <v>7467</v>
       </c>
-      <c r="S80" s="66">
+      <c r="V80" s="66">
         <v>8590</v>
       </c>
-      <c r="T80" s="66"/>
-      <c r="U80" s="66"/>
-      <c r="V80" s="66"/>
       <c r="W80" s="66"/>
       <c r="X80" s="66"/>
       <c r="Y80" s="66"/>
@@ -6202,8 +6513,11 @@
       <c r="AI80" s="66"/>
       <c r="AJ80" s="66"/>
       <c r="AK80" s="66"/>
-    </row>
-    <row r="81" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AL80" s="66"/>
+      <c r="AM80" s="66"/>
+      <c r="AN80" s="66"/>
+    </row>
+    <row r="81" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B81" s="66" t="s">
         <v>43</v>
       </c>
@@ -6211,40 +6525,40 @@
       <c r="D81" s="66"/>
       <c r="E81" s="66"/>
       <c r="F81" s="66"/>
-      <c r="G81" s="66"/>
-      <c r="H81" s="66">
+      <c r="G81" s="66">
         <v>21</v>
       </c>
-      <c r="I81" s="66"/>
-      <c r="J81" s="66">
+      <c r="H81" s="66"/>
+      <c r="I81" s="66">
         <v>48</v>
       </c>
+      <c r="J81" s="66"/>
       <c r="K81" s="66"/>
       <c r="L81" s="66"/>
-      <c r="M81" s="66">
+      <c r="M81" s="66"/>
+      <c r="N81" s="66"/>
+      <c r="O81" s="66"/>
+      <c r="P81" s="66">
         <v>47</v>
       </c>
-      <c r="N81" s="66">
+      <c r="Q81" s="66">
         <v>40</v>
       </c>
-      <c r="O81" s="66">
+      <c r="R81" s="66">
         <v>27</v>
       </c>
-      <c r="P81" s="66">
+      <c r="S81" s="66">
         <v>22</v>
       </c>
-      <c r="Q81" s="66">
+      <c r="T81" s="66">
         <v>46</v>
       </c>
-      <c r="R81" s="66">
+      <c r="U81" s="66">
         <v>26</v>
       </c>
-      <c r="S81" s="66">
+      <c r="V81" s="66">
         <v>48</v>
       </c>
-      <c r="T81" s="66"/>
-      <c r="U81" s="66"/>
-      <c r="V81" s="66"/>
       <c r="W81" s="66"/>
       <c r="X81" s="66"/>
       <c r="Y81" s="66"/>
@@ -6260,76 +6574,79 @@
       <c r="AI81" s="66"/>
       <c r="AJ81" s="66"/>
       <c r="AK81" s="66"/>
-    </row>
-    <row r="82" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AL81" s="66"/>
+      <c r="AM81" s="66"/>
+      <c r="AN81" s="66"/>
+    </row>
+    <row r="82" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B82" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="C82" s="66"/>
+      <c r="C82" s="66">
+        <f t="shared" ref="C82:J82" si="60">SUM(C78:C81)</f>
+        <v>0</v>
+      </c>
       <c r="D82" s="66">
-        <f t="shared" ref="D82:K82" si="50">SUM(D78:D81)</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="E82" s="66">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="F82" s="66">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="G82" s="66">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
+        <v>11612</v>
+      </c>
+      <c r="H82" s="66">
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="H82" s="66">
-        <f t="shared" si="50"/>
-        <v>11612</v>
-      </c>
       <c r="I82" s="66">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
+        <v>12952</v>
+      </c>
+      <c r="J82" s="66">
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="J82" s="66">
-        <f t="shared" si="50"/>
-        <v>12952</v>
-      </c>
-      <c r="K82" s="66">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
+      <c r="K82" s="66"/>
       <c r="L82" s="66"/>
-      <c r="M82" s="66">
-        <f t="shared" ref="M82:Q82" si="51">SUM(M78:M81)</f>
+      <c r="M82" s="66"/>
+      <c r="N82" s="66"/>
+      <c r="O82" s="66"/>
+      <c r="P82" s="66">
+        <f t="shared" ref="P82:T82" si="61">SUM(P78:P81)</f>
         <v>5382</v>
       </c>
-      <c r="N82" s="66">
-        <f t="shared" si="51"/>
+      <c r="Q82" s="66">
+        <f t="shared" si="61"/>
         <v>7306</v>
       </c>
-      <c r="O82" s="66">
-        <f t="shared" si="51"/>
+      <c r="R82" s="66">
+        <f t="shared" si="61"/>
         <v>6337</v>
       </c>
-      <c r="P82" s="66">
-        <f t="shared" si="51"/>
+      <c r="S82" s="66">
+        <f t="shared" si="61"/>
         <v>8030</v>
       </c>
-      <c r="Q82" s="66">
-        <f t="shared" si="51"/>
+      <c r="T82" s="66">
+        <f t="shared" si="61"/>
         <v>8137</v>
       </c>
-      <c r="R82" s="66">
-        <f>SUM(R78:R81)</f>
+      <c r="U82" s="66">
+        <f>SUM(U78:U81)</f>
         <v>8937</v>
       </c>
-      <c r="S82" s="66">
-        <f>SUM(S78:S81)</f>
+      <c r="V82" s="66">
+        <f>SUM(V78:V81)</f>
         <v>10187</v>
       </c>
-      <c r="T82" s="66"/>
-      <c r="U82" s="66"/>
-      <c r="V82" s="66"/>
       <c r="W82" s="66"/>
       <c r="X82" s="66"/>
       <c r="Y82" s="66"/>
@@ -6345,76 +6662,79 @@
       <c r="AI82" s="66"/>
       <c r="AJ82" s="66"/>
       <c r="AK82" s="66"/>
-    </row>
-    <row r="83" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AL82" s="66"/>
+      <c r="AM82" s="66"/>
+      <c r="AN82" s="66"/>
+    </row>
+    <row r="83" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B83" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="C83" s="70"/>
+      <c r="C83" s="70">
+        <f t="shared" ref="C83:J83" si="62">C72+C77+C82</f>
+        <v>0</v>
+      </c>
       <c r="D83" s="70">
-        <f t="shared" ref="D83:K83" si="52">D72+D77+D82</f>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="E83" s="70">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="F83" s="70">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="G83" s="70">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
+        <v>33970</v>
+      </c>
+      <c r="H83" s="70">
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="H83" s="70">
-        <f t="shared" si="52"/>
-        <v>33970</v>
-      </c>
       <c r="I83" s="70">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
+        <v>36091</v>
+      </c>
+      <c r="J83" s="70">
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="J83" s="70">
-        <f t="shared" si="52"/>
-        <v>36091</v>
-      </c>
-      <c r="K83" s="70">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
+      <c r="K83" s="70"/>
       <c r="L83" s="70"/>
-      <c r="M83" s="70">
-        <f t="shared" ref="M83:S83" si="53">M72+M77+M82</f>
+      <c r="M83" s="70"/>
+      <c r="N83" s="70"/>
+      <c r="O83" s="70"/>
+      <c r="P83" s="70">
+        <f t="shared" ref="P83:V83" si="63">P72+P77+P82</f>
         <v>21683</v>
       </c>
-      <c r="N83" s="70">
-        <f t="shared" si="53"/>
+      <c r="Q83" s="70">
+        <f t="shared" si="63"/>
         <v>28391</v>
       </c>
-      <c r="O83" s="70">
-        <f t="shared" si="53"/>
+      <c r="R83" s="70">
+        <f t="shared" si="63"/>
         <v>26417</v>
       </c>
-      <c r="P83" s="70">
-        <f t="shared" si="53"/>
+      <c r="S83" s="70">
+        <f t="shared" si="63"/>
         <v>28947</v>
       </c>
-      <c r="Q83" s="70">
-        <f t="shared" si="53"/>
+      <c r="T83" s="70">
+        <f t="shared" si="63"/>
         <v>29983</v>
       </c>
-      <c r="R83" s="70">
-        <f t="shared" si="53"/>
+      <c r="U83" s="70">
+        <f t="shared" si="63"/>
         <v>32736</v>
       </c>
-      <c r="S83" s="70">
-        <f t="shared" si="53"/>
+      <c r="V83" s="70">
+        <f t="shared" si="63"/>
         <v>34714</v>
       </c>
-      <c r="T83" s="66"/>
-      <c r="U83" s="66"/>
-      <c r="V83" s="66"/>
       <c r="W83" s="66"/>
       <c r="X83" s="66"/>
       <c r="Y83" s="66"/>
@@ -6430,8 +6750,11 @@
       <c r="AI83" s="66"/>
       <c r="AJ83" s="66"/>
       <c r="AK83" s="66"/>
-    </row>
-    <row r="84" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AL83" s="66"/>
+      <c r="AM83" s="66"/>
+      <c r="AN83" s="66"/>
+    </row>
+    <row r="84" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B84" s="66"/>
       <c r="C84" s="66"/>
       <c r="D84" s="66"/>
@@ -6468,8 +6791,11 @@
       <c r="AI84" s="66"/>
       <c r="AJ84" s="66"/>
       <c r="AK84" s="66"/>
-    </row>
-    <row r="85" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AL84" s="66"/>
+      <c r="AM84" s="66"/>
+      <c r="AN84" s="66"/>
+    </row>
+    <row r="85" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B85" s="66"/>
       <c r="C85" s="66"/>
       <c r="D85" s="66"/>
@@ -6506,8 +6832,11 @@
       <c r="AI85" s="66"/>
       <c r="AJ85" s="66"/>
       <c r="AK85" s="66"/>
-    </row>
-    <row r="86" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AL85" s="66"/>
+      <c r="AM85" s="66"/>
+      <c r="AN85" s="66"/>
+    </row>
+    <row r="86" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B86" s="66" t="s">
         <v>33</v>
       </c>
@@ -6521,37 +6850,37 @@
       <c r="J86" s="66"/>
       <c r="K86" s="66"/>
       <c r="L86" s="66"/>
-      <c r="M86" s="66">
-        <f t="shared" ref="M86:S86" si="54">M33</f>
+      <c r="M86" s="66"/>
+      <c r="N86" s="66"/>
+      <c r="O86" s="66"/>
+      <c r="P86" s="66">
+        <f t="shared" ref="P86:V86" si="64">P33</f>
         <v>4428</v>
       </c>
-      <c r="N86" s="66">
-        <f t="shared" si="54"/>
+      <c r="Q86" s="66">
+        <f t="shared" si="64"/>
         <v>4682</v>
       </c>
-      <c r="O86" s="66">
-        <f t="shared" si="54"/>
+      <c r="R86" s="66">
+        <f t="shared" si="64"/>
         <v>1400</v>
       </c>
-      <c r="P86" s="66">
-        <f t="shared" si="54"/>
+      <c r="S86" s="66">
+        <f t="shared" si="64"/>
         <v>4198</v>
       </c>
-      <c r="Q86" s="66">
-        <f t="shared" si="54"/>
+      <c r="T86" s="66">
+        <f t="shared" si="64"/>
         <v>5357</v>
       </c>
-      <c r="R86" s="66">
-        <f t="shared" si="54"/>
+      <c r="U86" s="66">
+        <f t="shared" si="64"/>
         <v>6869</v>
       </c>
-      <c r="S86" s="66">
-        <f t="shared" si="54"/>
+      <c r="V86" s="66">
+        <f t="shared" si="64"/>
         <v>7577</v>
       </c>
-      <c r="T86" s="66"/>
-      <c r="U86" s="66"/>
-      <c r="V86" s="66"/>
       <c r="W86" s="66"/>
       <c r="X86" s="66"/>
       <c r="Y86" s="66"/>
@@ -6569,8 +6898,11 @@
       <c r="AK86" s="66"/>
       <c r="AL86" s="66"/>
       <c r="AM86" s="66"/>
-    </row>
-    <row r="87" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN86" s="66"/>
+      <c r="AO86" s="66"/>
+      <c r="AP86" s="66"/>
+    </row>
+    <row r="87" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B87" s="66" t="s">
         <v>28</v>
       </c>
@@ -6584,30 +6916,30 @@
       <c r="J87" s="66"/>
       <c r="K87" s="66"/>
       <c r="L87" s="66"/>
-      <c r="M87" s="66">
+      <c r="M87" s="66"/>
+      <c r="N87" s="66"/>
+      <c r="O87" s="66"/>
+      <c r="P87" s="66">
         <v>1100</v>
       </c>
-      <c r="N87" s="66">
+      <c r="Q87" s="66">
         <v>2826</v>
       </c>
-      <c r="O87" s="66">
+      <c r="R87" s="66">
         <v>3045</v>
       </c>
-      <c r="P87" s="66">
+      <c r="S87" s="66">
         <v>2901</v>
       </c>
-      <c r="Q87" s="66">
+      <c r="T87" s="66">
         <v>2899</v>
       </c>
-      <c r="R87" s="66">
+      <c r="U87" s="66">
         <v>3041</v>
       </c>
-      <c r="S87" s="66">
+      <c r="V87" s="66">
         <v>3174</v>
       </c>
-      <c r="T87" s="66"/>
-      <c r="U87" s="66"/>
-      <c r="V87" s="66"/>
       <c r="W87" s="66"/>
       <c r="X87" s="66"/>
       <c r="Y87" s="66"/>
@@ -6625,8 +6957,11 @@
       <c r="AK87" s="66"/>
       <c r="AL87" s="66"/>
       <c r="AM87" s="66"/>
-    </row>
-    <row r="88" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN87" s="66"/>
+      <c r="AO87" s="66"/>
+      <c r="AP87" s="66"/>
+    </row>
+    <row r="88" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B88" s="66" t="s">
         <v>67</v>
       </c>
@@ -6640,30 +6975,30 @@
       <c r="J88" s="66"/>
       <c r="K88" s="66"/>
       <c r="L88" s="66"/>
-      <c r="M88" s="66">
+      <c r="M88" s="66"/>
+      <c r="N88" s="66"/>
+      <c r="O88" s="66"/>
+      <c r="P88" s="66">
         <v>0</v>
       </c>
-      <c r="N88" s="66">
+      <c r="Q88" s="66">
         <v>142</v>
       </c>
-      <c r="O88" s="66">
+      <c r="R88" s="66">
         <v>120</v>
       </c>
-      <c r="P88" s="66">
+      <c r="S88" s="66">
         <v>92</v>
       </c>
-      <c r="Q88" s="66">
+      <c r="T88" s="66">
         <v>116</v>
       </c>
-      <c r="R88" s="66">
+      <c r="U88" s="66">
         <v>196</v>
       </c>
-      <c r="S88" s="66">
+      <c r="V88" s="66">
         <v>223</v>
       </c>
-      <c r="T88" s="66"/>
-      <c r="U88" s="66"/>
-      <c r="V88" s="66"/>
       <c r="W88" s="66"/>
       <c r="X88" s="66"/>
       <c r="Y88" s="66"/>
@@ -6681,8 +7016,11 @@
       <c r="AK88" s="66"/>
       <c r="AL88" s="66"/>
       <c r="AM88" s="66"/>
-    </row>
-    <row r="89" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN88" s="66"/>
+      <c r="AO88" s="66"/>
+      <c r="AP88" s="66"/>
+    </row>
+    <row r="89" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B89" s="66" t="s">
         <v>43</v>
       </c>
@@ -6696,32 +7034,32 @@
       <c r="J89" s="66"/>
       <c r="K89" s="66"/>
       <c r="L89" s="66"/>
-      <c r="M89" s="66">
+      <c r="M89" s="66"/>
+      <c r="N89" s="66"/>
+      <c r="O89" s="66"/>
+      <c r="P89" s="66">
         <f>-48-33</f>
         <v>-81</v>
       </c>
-      <c r="N89" s="66">
+      <c r="Q89" s="66">
         <f>272-19</f>
         <v>253</v>
       </c>
-      <c r="O89" s="66">
+      <c r="R89" s="66">
         <v>-250</v>
       </c>
-      <c r="P89" s="66">
+      <c r="S89" s="66">
         <v>74</v>
       </c>
-      <c r="Q89" s="66">
+      <c r="T89" s="66">
         <v>146</v>
       </c>
-      <c r="R89" s="66">
+      <c r="U89" s="66">
         <v>76</v>
       </c>
-      <c r="S89" s="66">
+      <c r="V89" s="66">
         <v>51</v>
       </c>
-      <c r="T89" s="66"/>
-      <c r="U89" s="66"/>
-      <c r="V89" s="66"/>
       <c r="W89" s="66"/>
       <c r="X89" s="66"/>
       <c r="Y89" s="66"/>
@@ -6739,8 +7077,11 @@
       <c r="AK89" s="66"/>
       <c r="AL89" s="66"/>
       <c r="AM89" s="66"/>
-    </row>
-    <row r="90" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN89" s="66"/>
+      <c r="AO89" s="66"/>
+      <c r="AP89" s="66"/>
+    </row>
+    <row r="90" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B90" s="66" t="s">
         <v>34</v>
       </c>
@@ -6754,30 +7095,30 @@
       <c r="J90" s="66"/>
       <c r="K90" s="66"/>
       <c r="L90" s="66"/>
-      <c r="M90" s="66">
+      <c r="M90" s="66"/>
+      <c r="N90" s="66"/>
+      <c r="O90" s="66"/>
+      <c r="P90" s="66">
         <v>-1070</v>
       </c>
-      <c r="N90" s="66">
+      <c r="Q90" s="66">
         <v>-1207</v>
       </c>
-      <c r="O90" s="66">
+      <c r="R90" s="66">
         <v>-452</v>
       </c>
-      <c r="P90" s="66">
+      <c r="S90" s="66">
         <v>-734</v>
       </c>
-      <c r="Q90" s="66">
+      <c r="T90" s="66">
         <v>-1176</v>
       </c>
-      <c r="R90" s="66">
+      <c r="U90" s="66">
         <v>-1460</v>
       </c>
-      <c r="S90" s="66">
+      <c r="V90" s="66">
         <v>-1539</v>
       </c>
-      <c r="T90" s="66"/>
-      <c r="U90" s="66"/>
-      <c r="V90" s="66"/>
       <c r="W90" s="66"/>
       <c r="X90" s="66"/>
       <c r="Y90" s="66"/>
@@ -6795,8 +7136,11 @@
       <c r="AK90" s="66"/>
       <c r="AL90" s="66"/>
       <c r="AM90" s="66"/>
-    </row>
-    <row r="91" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN90" s="66"/>
+      <c r="AO90" s="66"/>
+      <c r="AP90" s="66"/>
+    </row>
+    <row r="91" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B91" s="66" t="s">
         <v>68</v>
       </c>
@@ -6837,8 +7181,11 @@
       <c r="AK91" s="66"/>
       <c r="AL91" s="66"/>
       <c r="AM91" s="66"/>
-    </row>
-    <row r="92" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN91" s="66"/>
+      <c r="AO91" s="66"/>
+      <c r="AP91" s="66"/>
+    </row>
+    <row r="92" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B92" s="66" t="s">
         <v>69</v>
       </c>
@@ -6852,30 +7199,30 @@
       <c r="J92" s="66"/>
       <c r="K92" s="66"/>
       <c r="L92" s="66"/>
-      <c r="M92" s="66">
+      <c r="M92" s="66"/>
+      <c r="N92" s="66"/>
+      <c r="O92" s="66"/>
+      <c r="P92" s="66">
         <v>-70</v>
       </c>
-      <c r="N92" s="66">
+      <c r="Q92" s="66">
         <v>201</v>
       </c>
-      <c r="O92" s="66">
+      <c r="R92" s="66">
         <v>93</v>
       </c>
-      <c r="P92" s="66">
+      <c r="S92" s="66">
         <v>-759</v>
       </c>
-      <c r="Q92" s="66">
+      <c r="T92" s="66">
         <v>-193</v>
       </c>
-      <c r="R92" s="66">
+      <c r="U92" s="66">
         <v>130</v>
       </c>
-      <c r="S92" s="66">
+      <c r="V92" s="66">
         <v>-427</v>
       </c>
-      <c r="T92" s="66"/>
-      <c r="U92" s="66"/>
-      <c r="V92" s="66"/>
       <c r="W92" s="66"/>
       <c r="X92" s="66"/>
       <c r="Y92" s="66"/>
@@ -6893,8 +7240,11 @@
       <c r="AK92" s="66"/>
       <c r="AL92" s="66"/>
       <c r="AM92" s="66"/>
-    </row>
-    <row r="93" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN92" s="66"/>
+      <c r="AO92" s="66"/>
+      <c r="AP92" s="66"/>
+    </row>
+    <row r="93" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B93" s="66" t="s">
         <v>70</v>
       </c>
@@ -6908,30 +7258,30 @@
       <c r="J93" s="66"/>
       <c r="K93" s="66"/>
       <c r="L93" s="66"/>
-      <c r="M93" s="66">
+      <c r="M93" s="66"/>
+      <c r="N93" s="66"/>
+      <c r="O93" s="66"/>
+      <c r="P93" s="66">
         <v>-142</v>
       </c>
-      <c r="N93" s="66">
+      <c r="Q93" s="66">
         <v>-10</v>
       </c>
-      <c r="O93" s="66">
+      <c r="R93" s="66">
         <v>34</v>
       </c>
-      <c r="P93" s="66">
+      <c r="S93" s="66">
         <v>-154</v>
       </c>
-      <c r="Q93" s="66">
+      <c r="T93" s="66">
         <v>-58</v>
       </c>
-      <c r="R93" s="66">
+      <c r="U93" s="66">
         <v>-341</v>
       </c>
-      <c r="S93" s="66">
+      <c r="V93" s="66">
         <v>-164</v>
       </c>
-      <c r="T93" s="66"/>
-      <c r="U93" s="66"/>
-      <c r="V93" s="66"/>
       <c r="W93" s="66"/>
       <c r="X93" s="66"/>
       <c r="Y93" s="66"/>
@@ -6949,8 +7299,11 @@
       <c r="AK93" s="66"/>
       <c r="AL93" s="66"/>
       <c r="AM93" s="66"/>
-    </row>
-    <row r="94" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN93" s="66"/>
+      <c r="AO93" s="66"/>
+      <c r="AP93" s="66"/>
+    </row>
+    <row r="94" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B94" s="66" t="s">
         <v>71</v>
       </c>
@@ -6964,30 +7317,30 @@
       <c r="J94" s="66"/>
       <c r="K94" s="66"/>
       <c r="L94" s="66"/>
-      <c r="M94" s="66">
+      <c r="M94" s="66"/>
+      <c r="N94" s="66"/>
+      <c r="O94" s="66"/>
+      <c r="P94" s="66">
         <v>-137</v>
       </c>
-      <c r="N94" s="66">
+      <c r="Q94" s="66">
         <v>14</v>
       </c>
-      <c r="O94" s="66">
+      <c r="R94" s="66">
         <v>-974</v>
       </c>
-      <c r="P94" s="66">
+      <c r="S94" s="66">
         <v>1136</v>
       </c>
-      <c r="Q94" s="66">
+      <c r="T94" s="66">
         <v>-418</v>
       </c>
-      <c r="R94" s="66">
+      <c r="U94" s="66">
         <v>154</v>
       </c>
-      <c r="S94" s="66">
+      <c r="V94" s="66">
         <v>392</v>
       </c>
-      <c r="T94" s="66"/>
-      <c r="U94" s="66"/>
-      <c r="V94" s="66"/>
       <c r="W94" s="66"/>
       <c r="X94" s="66"/>
       <c r="Y94" s="66"/>
@@ -7005,8 +7358,11 @@
       <c r="AK94" s="66"/>
       <c r="AL94" s="66"/>
       <c r="AM94" s="66"/>
-    </row>
-    <row r="95" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN94" s="66"/>
+      <c r="AO94" s="66"/>
+      <c r="AP94" s="66"/>
+    </row>
+    <row r="95" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B95" s="66" t="s">
         <v>72</v>
       </c>
@@ -7020,37 +7376,37 @@
       <c r="J95" s="66"/>
       <c r="K95" s="66"/>
       <c r="L95" s="66"/>
-      <c r="M95" s="66">
-        <f t="shared" ref="M95:P95" si="55">SUM(M92:M94)</f>
+      <c r="M95" s="66"/>
+      <c r="N95" s="66"/>
+      <c r="O95" s="66"/>
+      <c r="P95" s="66">
+        <f t="shared" ref="P95:S95" si="65">SUM(P92:P94)</f>
         <v>-349</v>
       </c>
-      <c r="N95" s="66">
-        <f t="shared" si="55"/>
+      <c r="Q95" s="66">
+        <f t="shared" si="65"/>
         <v>205</v>
       </c>
-      <c r="O95" s="66">
-        <f t="shared" si="55"/>
+      <c r="R95" s="66">
+        <f t="shared" si="65"/>
         <v>-847</v>
       </c>
-      <c r="P95" s="66">
-        <f t="shared" si="55"/>
+      <c r="S95" s="66">
+        <f t="shared" si="65"/>
         <v>223</v>
       </c>
-      <c r="Q95" s="66">
-        <f>SUM(Q92:Q94)</f>
+      <c r="T95" s="66">
+        <f>SUM(T92:T94)</f>
         <v>-669</v>
       </c>
-      <c r="R95" s="66">
-        <f>SUM(R92:R94)</f>
+      <c r="U95" s="66">
+        <f>SUM(U92:U94)</f>
         <v>-57</v>
       </c>
-      <c r="S95" s="66">
-        <f>SUM(S92:S94)</f>
+      <c r="V95" s="66">
+        <f>SUM(V92:V94)</f>
         <v>-199</v>
       </c>
-      <c r="T95" s="66"/>
-      <c r="U95" s="66"/>
-      <c r="V95" s="66"/>
       <c r="W95" s="66"/>
       <c r="X95" s="66"/>
       <c r="Y95" s="66"/>
@@ -7068,8 +7424,11 @@
       <c r="AK95" s="66"/>
       <c r="AL95" s="66"/>
       <c r="AM95" s="66"/>
-    </row>
-    <row r="96" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN95" s="66"/>
+      <c r="AO95" s="66"/>
+      <c r="AP95" s="66"/>
+    </row>
+    <row r="96" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B96" s="70" t="s">
         <v>73</v>
       </c>
@@ -7083,37 +7442,37 @@
       <c r="J96" s="70"/>
       <c r="K96" s="70"/>
       <c r="L96" s="70"/>
-      <c r="M96" s="70">
-        <f t="shared" ref="M96:Q96" si="56">M86+SUM(M87:M90)+M95</f>
+      <c r="M96" s="70"/>
+      <c r="N96" s="70"/>
+      <c r="O96" s="70"/>
+      <c r="P96" s="70">
+        <f t="shared" ref="P96:T96" si="66">P86+SUM(P87:P90)+P95</f>
         <v>4028</v>
       </c>
-      <c r="N96" s="70">
-        <f t="shared" si="56"/>
+      <c r="Q96" s="70">
+        <f t="shared" si="66"/>
         <v>6901</v>
       </c>
-      <c r="O96" s="70">
-        <f t="shared" si="56"/>
+      <c r="R96" s="70">
+        <f t="shared" si="66"/>
         <v>3016</v>
       </c>
-      <c r="P96" s="70">
-        <f t="shared" si="56"/>
+      <c r="S96" s="70">
+        <f t="shared" si="66"/>
         <v>6754</v>
       </c>
-      <c r="Q96" s="70">
-        <f t="shared" si="56"/>
+      <c r="T96" s="70">
+        <f t="shared" si="66"/>
         <v>6673</v>
       </c>
-      <c r="R96" s="70">
-        <f>R86+SUM(R87:R90)+R95</f>
+      <c r="U96" s="70">
+        <f>U86+SUM(U87:U90)+U95</f>
         <v>8665</v>
       </c>
-      <c r="S96" s="70">
-        <f>S86+SUM(S87:S90)+S95</f>
+      <c r="V96" s="70">
+        <f>V86+SUM(V87:V90)+V95</f>
         <v>9287</v>
       </c>
-      <c r="T96" s="66"/>
-      <c r="U96" s="66"/>
-      <c r="V96" s="66"/>
       <c r="W96" s="66"/>
       <c r="X96" s="66"/>
       <c r="Y96" s="66"/>
@@ -7131,8 +7490,11 @@
       <c r="AK96" s="66"/>
       <c r="AL96" s="66"/>
       <c r="AM96" s="66"/>
-    </row>
-    <row r="97" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN96" s="66"/>
+      <c r="AO96" s="66"/>
+      <c r="AP96" s="66"/>
+    </row>
+    <row r="97" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B97" s="66" t="s">
         <v>74</v>
       </c>
@@ -7146,30 +7508,30 @@
       <c r="J97" s="66"/>
       <c r="K97" s="66"/>
       <c r="L97" s="66"/>
-      <c r="M97" s="66">
+      <c r="M97" s="66"/>
+      <c r="N97" s="66"/>
+      <c r="O97" s="66"/>
+      <c r="P97" s="66">
         <v>-230</v>
       </c>
-      <c r="N97" s="66">
+      <c r="Q97" s="66">
         <v>-238</v>
       </c>
-      <c r="O97" s="66">
+      <c r="R97" s="66">
         <v>-241</v>
       </c>
-      <c r="P97" s="66">
+      <c r="S97" s="66">
         <v>-460</v>
       </c>
-      <c r="Q97" s="66">
+      <c r="T97" s="66">
         <v>-388</v>
       </c>
-      <c r="R97" s="66">
+      <c r="U97" s="66">
         <v>-473</v>
       </c>
-      <c r="S97" s="66">
+      <c r="V97" s="66">
         <v>-465</v>
       </c>
-      <c r="T97" s="66"/>
-      <c r="U97" s="66"/>
-      <c r="V97" s="66"/>
       <c r="W97" s="66"/>
       <c r="X97" s="66"/>
       <c r="Y97" s="66"/>
@@ -7187,8 +7549,11 @@
       <c r="AK97" s="66"/>
       <c r="AL97" s="66"/>
       <c r="AM97" s="66"/>
-    </row>
-    <row r="98" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN97" s="66"/>
+      <c r="AO97" s="66"/>
+      <c r="AP97" s="66"/>
+    </row>
+    <row r="98" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B98" s="66" t="s">
         <v>75</v>
       </c>
@@ -7202,33 +7567,33 @@
       <c r="J98" s="66"/>
       <c r="K98" s="66"/>
       <c r="L98" s="66"/>
-      <c r="M98" s="66">
+      <c r="M98" s="66"/>
+      <c r="N98" s="66"/>
+      <c r="O98" s="66"/>
+      <c r="P98" s="66">
         <f>-1391+159</f>
         <v>-1232</v>
       </c>
-      <c r="N98" s="66">
+      <c r="Q98" s="66">
         <f>-914+40</f>
         <v>-874</v>
       </c>
-      <c r="O98" s="66">
+      <c r="R98" s="66">
         <f>-467+36-5</f>
         <v>-436</v>
       </c>
-      <c r="P98" s="66">
+      <c r="S98" s="66">
         <v>-666</v>
       </c>
-      <c r="Q98" s="66">
+      <c r="T98" s="66">
         <v>-1027</v>
       </c>
-      <c r="R98" s="66">
+      <c r="U98" s="66">
         <v>-1399</v>
       </c>
-      <c r="S98" s="66">
+      <c r="V98" s="66">
         <v>-2207</v>
       </c>
-      <c r="T98" s="66"/>
-      <c r="U98" s="66"/>
-      <c r="V98" s="66"/>
       <c r="W98" s="66"/>
       <c r="X98" s="66"/>
       <c r="Y98" s="66"/>
@@ -7246,8 +7611,11 @@
       <c r="AK98" s="66"/>
       <c r="AL98" s="66"/>
       <c r="AM98" s="66"/>
-    </row>
-    <row r="99" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN98" s="66"/>
+      <c r="AO98" s="66"/>
+      <c r="AP98" s="66"/>
+    </row>
+    <row r="99" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B99" s="66" t="s">
         <v>76</v>
       </c>
@@ -7261,31 +7629,31 @@
       <c r="J99" s="66"/>
       <c r="K99" s="66"/>
       <c r="L99" s="66"/>
-      <c r="M99" s="66">
+      <c r="M99" s="66"/>
+      <c r="N99" s="66"/>
+      <c r="O99" s="66"/>
+      <c r="P99" s="66">
         <v>24</v>
       </c>
-      <c r="N99" s="66">
+      <c r="Q99" s="66">
         <v>70</v>
       </c>
-      <c r="O99" s="66">
+      <c r="R99" s="66">
         <v>12</v>
       </c>
-      <c r="P99" s="66">
+      <c r="S99" s="66">
         <v>25</v>
       </c>
-      <c r="Q99" s="66">
+      <c r="T99" s="66">
         <v>24</v>
       </c>
-      <c r="R99" s="66">
+      <c r="U99" s="66">
         <v>61</v>
       </c>
-      <c r="S99" s="66">
+      <c r="V99" s="66">
         <f>51-14</f>
         <v>37</v>
       </c>
-      <c r="T99" s="66"/>
-      <c r="U99" s="66"/>
-      <c r="V99" s="66"/>
       <c r="W99" s="66"/>
       <c r="X99" s="66"/>
       <c r="Y99" s="66"/>
@@ -7303,8 +7671,11 @@
       <c r="AK99" s="66"/>
       <c r="AL99" s="66"/>
       <c r="AM99" s="66"/>
-    </row>
-    <row r="100" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN99" s="66"/>
+      <c r="AO99" s="66"/>
+      <c r="AP99" s="66"/>
+    </row>
+    <row r="100" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B100" s="66" t="s">
         <v>77</v>
       </c>
@@ -7318,30 +7689,30 @@
       <c r="J100" s="66"/>
       <c r="K100" s="66"/>
       <c r="L100" s="66"/>
-      <c r="M100" s="66">
+      <c r="M100" s="66"/>
+      <c r="N100" s="66"/>
+      <c r="O100" s="66"/>
+      <c r="P100" s="66">
         <v>20</v>
       </c>
-      <c r="N100" s="66">
+      <c r="Q100" s="66">
         <v>56</v>
       </c>
-      <c r="O100" s="66">
+      <c r="R100" s="66">
         <v>36</v>
       </c>
-      <c r="P100" s="66">
+      <c r="S100" s="66">
         <v>46</v>
       </c>
-      <c r="Q100" s="66">
+      <c r="T100" s="66">
         <v>36</v>
       </c>
-      <c r="R100" s="66">
+      <c r="U100" s="66">
         <v>-6</v>
       </c>
-      <c r="S100" s="66">
+      <c r="V100" s="66">
         <v>51</v>
       </c>
-      <c r="T100" s="66"/>
-      <c r="U100" s="66"/>
-      <c r="V100" s="66"/>
       <c r="W100" s="66"/>
       <c r="X100" s="66"/>
       <c r="Y100" s="66"/>
@@ -7359,8 +7730,11 @@
       <c r="AK100" s="66"/>
       <c r="AL100" s="66"/>
       <c r="AM100" s="66"/>
-    </row>
-    <row r="101" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN100" s="66"/>
+      <c r="AO100" s="66"/>
+      <c r="AP100" s="66"/>
+    </row>
+    <row r="101" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B101" s="66" t="s">
         <v>78</v>
       </c>
@@ -7374,30 +7748,30 @@
       <c r="J101" s="66"/>
       <c r="K101" s="66"/>
       <c r="L101" s="66"/>
-      <c r="M101" s="66">
+      <c r="M101" s="66"/>
+      <c r="N101" s="66"/>
+      <c r="O101" s="66"/>
+      <c r="P101" s="66">
         <v>-457</v>
       </c>
-      <c r="N101" s="66">
+      <c r="Q101" s="66">
         <v>-1390</v>
       </c>
-      <c r="O101" s="66">
+      <c r="R101" s="66">
         <v>3143</v>
       </c>
-      <c r="P101" s="66">
+      <c r="S101" s="66">
         <v>-2198</v>
       </c>
-      <c r="Q101" s="66">
+      <c r="T101" s="66">
         <v>-2148</v>
       </c>
-      <c r="R101" s="66">
+      <c r="U101" s="66">
         <v>107</v>
       </c>
-      <c r="S101" s="66">
+      <c r="V101" s="66">
         <v>-705</v>
       </c>
-      <c r="T101" s="66"/>
-      <c r="U101" s="66"/>
-      <c r="V101" s="66"/>
       <c r="W101" s="66"/>
       <c r="X101" s="66"/>
       <c r="Y101" s="66"/>
@@ -7415,8 +7789,11 @@
       <c r="AK101" s="66"/>
       <c r="AL101" s="66"/>
       <c r="AM101" s="66"/>
-    </row>
-    <row r="102" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN101" s="66"/>
+      <c r="AO101" s="66"/>
+      <c r="AP101" s="66"/>
+    </row>
+    <row r="102" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B102" s="70" t="s">
         <v>79</v>
       </c>
@@ -7430,37 +7807,37 @@
       <c r="J102" s="70"/>
       <c r="K102" s="70"/>
       <c r="L102" s="70"/>
-      <c r="M102" s="70">
-        <f t="shared" ref="M102:Q102" si="57">SUM(M97:M101)</f>
+      <c r="M102" s="70"/>
+      <c r="N102" s="70"/>
+      <c r="O102" s="70"/>
+      <c r="P102" s="70">
+        <f t="shared" ref="P102:T102" si="67">SUM(P97:P101)</f>
         <v>-1875</v>
       </c>
-      <c r="N102" s="70">
-        <f t="shared" si="57"/>
+      <c r="Q102" s="70">
+        <f t="shared" si="67"/>
         <v>-2376</v>
       </c>
-      <c r="O102" s="70">
-        <f t="shared" si="57"/>
+      <c r="R102" s="70">
+        <f t="shared" si="67"/>
         <v>2514</v>
       </c>
-      <c r="P102" s="70">
-        <f t="shared" si="57"/>
+      <c r="S102" s="70">
+        <f t="shared" si="67"/>
         <v>-3253</v>
       </c>
-      <c r="Q102" s="70">
-        <f t="shared" si="57"/>
+      <c r="T102" s="70">
+        <f t="shared" si="67"/>
         <v>-3503</v>
       </c>
-      <c r="R102" s="70">
-        <f>SUM(R97:R101)</f>
+      <c r="U102" s="70">
+        <f>SUM(U97:U101)</f>
         <v>-1710</v>
       </c>
-      <c r="S102" s="70">
-        <f>SUM(S97:S101)</f>
+      <c r="V102" s="70">
+        <f>SUM(V97:V101)</f>
         <v>-3289</v>
       </c>
-      <c r="T102" s="66"/>
-      <c r="U102" s="66"/>
-      <c r="V102" s="66"/>
       <c r="W102" s="66"/>
       <c r="X102" s="66"/>
       <c r="Y102" s="66"/>
@@ -7478,8 +7855,11 @@
       <c r="AK102" s="66"/>
       <c r="AL102" s="66"/>
       <c r="AM102" s="66"/>
-    </row>
-    <row r="103" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN102" s="66"/>
+      <c r="AO102" s="66"/>
+      <c r="AP102" s="66"/>
+    </row>
+    <row r="103" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B103" s="66" t="s">
         <v>81</v>
       </c>
@@ -7493,30 +7873,30 @@
       <c r="J103" s="66"/>
       <c r="K103" s="66"/>
       <c r="L103" s="66"/>
-      <c r="M103" s="66">
+      <c r="M103" s="66"/>
+      <c r="N103" s="66"/>
+      <c r="O103" s="66"/>
+      <c r="P103" s="66">
         <v>2</v>
       </c>
-      <c r="N103" s="66">
+      <c r="Q103" s="66">
         <v>-3</v>
       </c>
-      <c r="O103" s="66">
+      <c r="R103" s="66">
         <v>-6</v>
       </c>
-      <c r="P103" s="66">
+      <c r="S103" s="66">
         <v>-5</v>
       </c>
-      <c r="Q103" s="66">
+      <c r="T103" s="66">
         <v>-1</v>
       </c>
-      <c r="R103" s="66">
+      <c r="U103" s="66">
         <v>-1</v>
       </c>
-      <c r="S103" s="66">
+      <c r="V103" s="66">
         <v>0</v>
       </c>
-      <c r="T103" s="66"/>
-      <c r="U103" s="66"/>
-      <c r="V103" s="66"/>
       <c r="W103" s="66"/>
       <c r="X103" s="66"/>
       <c r="Y103" s="66"/>
@@ -7534,8 +7914,11 @@
       <c r="AK103" s="66"/>
       <c r="AL103" s="66"/>
       <c r="AM103" s="66"/>
-    </row>
-    <row r="104" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN103" s="66"/>
+      <c r="AO103" s="66"/>
+      <c r="AP103" s="66"/>
+    </row>
+    <row r="104" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B104" s="66" t="s">
         <v>82</v>
       </c>
@@ -7549,30 +7932,30 @@
       <c r="J104" s="66"/>
       <c r="K104" s="66"/>
       <c r="L104" s="66"/>
-      <c r="M104" s="66">
+      <c r="M104" s="66"/>
+      <c r="N104" s="66"/>
+      <c r="O104" s="66"/>
+      <c r="P104" s="66">
         <v>0</v>
       </c>
-      <c r="N104" s="66">
+      <c r="Q104" s="66">
         <v>0</v>
-      </c>
-      <c r="O104" s="66">
-        <v>0</v>
-      </c>
-      <c r="P104" s="66">
-        <v>-71</v>
-      </c>
-      <c r="Q104" s="66">
-        <v>-61</v>
       </c>
       <c r="R104" s="66">
         <v>0</v>
       </c>
       <c r="S104" s="66">
+        <v>-71</v>
+      </c>
+      <c r="T104" s="66">
+        <v>-61</v>
+      </c>
+      <c r="U104" s="66">
         <v>0</v>
       </c>
-      <c r="T104" s="66"/>
-      <c r="U104" s="66"/>
-      <c r="V104" s="66"/>
+      <c r="V104" s="66">
+        <v>0</v>
+      </c>
       <c r="W104" s="66"/>
       <c r="X104" s="66"/>
       <c r="Y104" s="66"/>
@@ -7590,8 +7973,11 @@
       <c r="AK104" s="66"/>
       <c r="AL104" s="66"/>
       <c r="AM104" s="66"/>
-    </row>
-    <row r="105" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN104" s="66"/>
+      <c r="AO104" s="66"/>
+      <c r="AP104" s="66"/>
+    </row>
+    <row r="105" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B105" s="66" t="s">
         <v>83</v>
       </c>
@@ -7605,30 +7991,30 @@
       <c r="J105" s="66"/>
       <c r="K105" s="66"/>
       <c r="L105" s="66"/>
-      <c r="M105" s="66">
+      <c r="M105" s="66"/>
+      <c r="N105" s="66"/>
+      <c r="O105" s="66"/>
+      <c r="P105" s="66">
         <v>73</v>
       </c>
-      <c r="N105" s="66">
+      <c r="Q105" s="66">
         <v>-49</v>
       </c>
-      <c r="O105" s="66">
+      <c r="R105" s="66">
         <v>-17</v>
       </c>
-      <c r="P105" s="66">
+      <c r="S105" s="66">
         <v>27</v>
       </c>
-      <c r="Q105" s="66">
+      <c r="T105" s="66">
         <v>-17</v>
       </c>
-      <c r="R105" s="66">
+      <c r="U105" s="66">
         <v>4</v>
       </c>
-      <c r="S105" s="66">
+      <c r="V105" s="66">
         <v>-8</v>
       </c>
-      <c r="T105" s="66"/>
-      <c r="U105" s="66"/>
-      <c r="V105" s="66"/>
       <c r="W105" s="66"/>
       <c r="X105" s="66"/>
       <c r="Y105" s="66"/>
@@ -7646,8 +8032,11 @@
       <c r="AK105" s="66"/>
       <c r="AL105" s="66"/>
       <c r="AM105" s="66"/>
-    </row>
-    <row r="106" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN105" s="66"/>
+      <c r="AO105" s="66"/>
+      <c r="AP105" s="66"/>
+    </row>
+    <row r="106" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B106" s="66" t="s">
         <v>84</v>
       </c>
@@ -7661,30 +8050,30 @@
       <c r="J106" s="66"/>
       <c r="K106" s="66"/>
       <c r="L106" s="66"/>
-      <c r="M106" s="66">
+      <c r="M106" s="66"/>
+      <c r="N106" s="66"/>
+      <c r="O106" s="66"/>
+      <c r="P106" s="66">
         <v>0</v>
       </c>
-      <c r="N106" s="66">
+      <c r="Q106" s="66">
         <v>-1836</v>
       </c>
-      <c r="O106" s="66">
+      <c r="R106" s="66">
         <v>-1673</v>
       </c>
-      <c r="P106" s="66">
+      <c r="S106" s="66">
         <v>-1668</v>
       </c>
-      <c r="Q106" s="66">
+      <c r="T106" s="66">
         <v>-1621</v>
       </c>
-      <c r="R106" s="66">
+      <c r="U106" s="66">
         <v>-1733</v>
       </c>
-      <c r="S106" s="66">
+      <c r="V106" s="66">
         <v>-1802</v>
       </c>
-      <c r="T106" s="66"/>
-      <c r="U106" s="66"/>
-      <c r="V106" s="66"/>
       <c r="W106" s="66"/>
       <c r="X106" s="66"/>
       <c r="Y106" s="66"/>
@@ -7702,8 +8091,11 @@
       <c r="AK106" s="66"/>
       <c r="AL106" s="66"/>
       <c r="AM106" s="66"/>
-    </row>
-    <row r="107" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN106" s="66"/>
+      <c r="AO106" s="66"/>
+      <c r="AP106" s="66"/>
+    </row>
+    <row r="107" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B107" s="66" t="s">
         <v>85</v>
       </c>
@@ -7717,30 +8109,30 @@
       <c r="J107" s="66"/>
       <c r="K107" s="66"/>
       <c r="L107" s="66"/>
-      <c r="M107" s="66">
+      <c r="M107" s="66"/>
+      <c r="N107" s="66"/>
+      <c r="O107" s="66"/>
+      <c r="P107" s="66">
         <v>-2335</v>
       </c>
-      <c r="N107" s="66">
+      <c r="Q107" s="66">
         <v>-2741</v>
       </c>
-      <c r="O107" s="66">
+      <c r="R107" s="66">
         <v>-1090</v>
       </c>
-      <c r="P107" s="66">
+      <c r="S107" s="66">
         <v>-2192</v>
       </c>
-      <c r="Q107" s="66">
+      <c r="T107" s="66">
         <v>-2914</v>
       </c>
-      <c r="R107" s="66">
+      <c r="U107" s="66">
         <v>-3744</v>
       </c>
-      <c r="S107" s="66">
+      <c r="V107" s="66">
         <v>-4797</v>
       </c>
-      <c r="T107" s="66"/>
-      <c r="U107" s="66"/>
-      <c r="V107" s="66"/>
       <c r="W107" s="66"/>
       <c r="X107" s="66"/>
       <c r="Y107" s="66"/>
@@ -7758,8 +8150,11 @@
       <c r="AK107" s="66"/>
       <c r="AL107" s="66"/>
       <c r="AM107" s="66"/>
-    </row>
-    <row r="108" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN107" s="66"/>
+      <c r="AO107" s="66"/>
+      <c r="AP107" s="66"/>
+    </row>
+    <row r="108" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B108" s="70" t="s">
         <v>80</v>
       </c>
@@ -7773,37 +8168,37 @@
       <c r="J108" s="70"/>
       <c r="K108" s="70"/>
       <c r="L108" s="70"/>
-      <c r="M108" s="70">
-        <f t="shared" ref="M108:Q108" si="58">SUM(M103:M107)</f>
+      <c r="M108" s="70"/>
+      <c r="N108" s="70"/>
+      <c r="O108" s="70"/>
+      <c r="P108" s="70">
+        <f t="shared" ref="P108:T108" si="68">SUM(P103:P107)</f>
         <v>-2260</v>
       </c>
-      <c r="N108" s="70">
-        <f t="shared" si="58"/>
+      <c r="Q108" s="70">
+        <f t="shared" si="68"/>
         <v>-4629</v>
       </c>
-      <c r="O108" s="70">
-        <f t="shared" si="58"/>
+      <c r="R108" s="70">
+        <f t="shared" si="68"/>
         <v>-2786</v>
       </c>
-      <c r="P108" s="70">
-        <f t="shared" si="58"/>
+      <c r="S108" s="70">
+        <f t="shared" si="68"/>
         <v>-3909</v>
       </c>
-      <c r="Q108" s="70">
-        <f t="shared" si="58"/>
+      <c r="T108" s="70">
+        <f t="shared" si="68"/>
         <v>-4614</v>
       </c>
-      <c r="R108" s="70">
-        <f>SUM(R103:R107)</f>
+      <c r="U108" s="70">
+        <f>SUM(U103:U107)</f>
         <v>-5474</v>
       </c>
-      <c r="S108" s="70">
-        <f>SUM(S103:S107)</f>
+      <c r="V108" s="70">
+        <f>SUM(V103:V107)</f>
         <v>-6607</v>
       </c>
-      <c r="T108" s="66"/>
-      <c r="U108" s="66"/>
-      <c r="V108" s="66"/>
       <c r="W108" s="66"/>
       <c r="X108" s="66"/>
       <c r="Y108" s="66"/>
@@ -7821,8 +8216,11 @@
       <c r="AK108" s="66"/>
       <c r="AL108" s="66"/>
       <c r="AM108" s="66"/>
-    </row>
-    <row r="109" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN108" s="66"/>
+      <c r="AO108" s="66"/>
+      <c r="AP108" s="66"/>
+    </row>
+    <row r="109" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B109" s="66" t="s">
         <v>86</v>
       </c>
@@ -7836,30 +8234,30 @@
       <c r="J109" s="66"/>
       <c r="K109" s="66"/>
       <c r="L109" s="66"/>
-      <c r="M109" s="66">
+      <c r="M109" s="66"/>
+      <c r="N109" s="66"/>
+      <c r="O109" s="66"/>
+      <c r="P109" s="66">
         <v>41</v>
       </c>
-      <c r="N109" s="66">
+      <c r="Q109" s="66">
         <v>20</v>
       </c>
-      <c r="O109" s="66">
+      <c r="R109" s="66">
         <v>-127</v>
       </c>
-      <c r="P109" s="66">
+      <c r="S109" s="66">
         <v>31</v>
       </c>
-      <c r="Q109" s="66">
+      <c r="T109" s="66">
         <v>-17</v>
       </c>
-      <c r="R109" s="66">
+      <c r="U109" s="66">
         <v>38</v>
       </c>
-      <c r="S109" s="66">
+      <c r="V109" s="66">
         <v>-18</v>
       </c>
-      <c r="T109" s="66"/>
-      <c r="U109" s="66"/>
-      <c r="V109" s="66"/>
       <c r="W109" s="66"/>
       <c r="X109" s="66"/>
       <c r="Y109" s="66"/>
@@ -7877,8 +8275,11 @@
       <c r="AK109" s="66"/>
       <c r="AL109" s="66"/>
       <c r="AM109" s="66"/>
-    </row>
-    <row r="110" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN109" s="66"/>
+      <c r="AO109" s="66"/>
+      <c r="AP109" s="66"/>
+    </row>
+    <row r="110" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B110" s="66"/>
       <c r="C110" s="66"/>
       <c r="D110" s="66"/>
@@ -7917,8 +8318,11 @@
       <c r="AK110" s="66"/>
       <c r="AL110" s="66"/>
       <c r="AM110" s="66"/>
-    </row>
-    <row r="111" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN110" s="66"/>
+      <c r="AO110" s="66"/>
+      <c r="AP110" s="66"/>
+    </row>
+    <row r="111" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B111" s="70" t="s">
         <v>87</v>
       </c>
@@ -7932,37 +8336,37 @@
       <c r="J111" s="70"/>
       <c r="K111" s="70"/>
       <c r="L111" s="70"/>
-      <c r="M111" s="70">
-        <f t="shared" ref="M111:Q111" si="59">M96+M102+M108+M109</f>
+      <c r="M111" s="70"/>
+      <c r="N111" s="70"/>
+      <c r="O111" s="70"/>
+      <c r="P111" s="70">
+        <f t="shared" ref="P111:T111" si="69">P96+P102+P108+P109</f>
         <v>-66</v>
       </c>
-      <c r="N111" s="70">
-        <f t="shared" si="59"/>
+      <c r="Q111" s="70">
+        <f t="shared" si="69"/>
         <v>-84</v>
       </c>
-      <c r="O111" s="70">
-        <f t="shared" si="59"/>
+      <c r="R111" s="70">
+        <f t="shared" si="69"/>
         <v>2617</v>
       </c>
-      <c r="P111" s="70">
-        <f t="shared" si="59"/>
+      <c r="S111" s="70">
+        <f t="shared" si="69"/>
         <v>-377</v>
       </c>
-      <c r="Q111" s="70">
-        <f t="shared" si="59"/>
+      <c r="T111" s="70">
+        <f t="shared" si="69"/>
         <v>-1461</v>
       </c>
-      <c r="R111" s="70">
-        <f>R96+R102+R108+R109</f>
+      <c r="U111" s="70">
+        <f>U96+U102+U108+U109</f>
         <v>1519</v>
       </c>
-      <c r="S111" s="70">
-        <f>S96+S102+S108+S109</f>
+      <c r="V111" s="70">
+        <f>V96+V102+V108+V109</f>
         <v>-627</v>
       </c>
-      <c r="T111" s="66"/>
-      <c r="U111" s="66"/>
-      <c r="V111" s="66"/>
       <c r="W111" s="66"/>
       <c r="X111" s="66"/>
       <c r="Y111" s="66"/>
@@ -7980,8 +8384,11 @@
       <c r="AK111" s="66"/>
       <c r="AL111" s="66"/>
       <c r="AM111" s="66"/>
-    </row>
-    <row r="112" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN111" s="66"/>
+      <c r="AO111" s="66"/>
+      <c r="AP111" s="66"/>
+    </row>
+    <row r="112" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B112" s="66" t="s">
         <v>88</v>
       </c>
@@ -7995,31 +8402,31 @@
       <c r="J112" s="66"/>
       <c r="K112" s="66"/>
       <c r="L112" s="66"/>
-      <c r="M112" s="66">
+      <c r="M112" s="66"/>
+      <c r="N112" s="66"/>
+      <c r="O112" s="66"/>
+      <c r="P112" s="66">
         <v>4931</v>
       </c>
-      <c r="N112" s="66">
+      <c r="Q112" s="66">
         <v>4866</v>
       </c>
-      <c r="O112" s="66">
+      <c r="R112" s="66">
         <v>4780</v>
       </c>
-      <c r="P112" s="66">
+      <c r="S112" s="66">
         <v>7398</v>
       </c>
-      <c r="Q112" s="66">
+      <c r="T112" s="66">
         <v>7021</v>
       </c>
-      <c r="R112" s="66">
+      <c r="U112" s="66">
         <v>5561</v>
       </c>
-      <c r="S112" s="66">
-        <f>+R113</f>
+      <c r="V112" s="66">
+        <f>+U113</f>
         <v>7007</v>
       </c>
-      <c r="T112" s="66"/>
-      <c r="U112" s="66"/>
-      <c r="V112" s="66"/>
       <c r="W112" s="66"/>
       <c r="X112" s="66"/>
       <c r="Y112" s="66"/>
@@ -8037,8 +8444,11 @@
       <c r="AK112" s="66"/>
       <c r="AL112" s="66"/>
       <c r="AM112" s="66"/>
-    </row>
-    <row r="113" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN112" s="66"/>
+      <c r="AO112" s="66"/>
+      <c r="AP112" s="66"/>
+    </row>
+    <row r="113" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B113" s="66" t="s">
         <v>89</v>
       </c>
@@ -8052,36 +8462,36 @@
       <c r="J113" s="66"/>
       <c r="K113" s="66"/>
       <c r="L113" s="66"/>
-      <c r="M113" s="66">
-        <f>N112</f>
-        <v>4866</v>
-      </c>
-      <c r="N113" s="66">
-        <f>O112</f>
-        <v>4780</v>
-      </c>
-      <c r="O113" s="66">
-        <f>P112</f>
-        <v>7398</v>
-      </c>
+      <c r="M113" s="66"/>
+      <c r="N113" s="66"/>
+      <c r="O113" s="66"/>
       <c r="P113" s="66">
         <f>Q112</f>
-        <v>7021</v>
+        <v>4866</v>
       </c>
       <c r="Q113" s="66">
         <f>R112</f>
+        <v>4780</v>
+      </c>
+      <c r="R113" s="66">
+        <f>S112</f>
+        <v>7398</v>
+      </c>
+      <c r="S113" s="66">
+        <f>T112</f>
+        <v>7021</v>
+      </c>
+      <c r="T113" s="66">
+        <f>U112</f>
         <v>5561</v>
       </c>
-      <c r="R113" s="66">
+      <c r="U113" s="66">
         <v>7007</v>
       </c>
-      <c r="S113" s="66">
-        <f>+S111+S112</f>
+      <c r="V113" s="66">
+        <f>+V111+V112</f>
         <v>6380</v>
       </c>
-      <c r="T113" s="66"/>
-      <c r="U113" s="66"/>
-      <c r="V113" s="66"/>
       <c r="W113" s="66"/>
       <c r="X113" s="66"/>
       <c r="Y113" s="66"/>
@@ -8099,8 +8509,11 @@
       <c r="AK113" s="66"/>
       <c r="AL113" s="66"/>
       <c r="AM113" s="66"/>
-    </row>
-    <row r="114" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN113" s="66"/>
+      <c r="AO113" s="66"/>
+      <c r="AP113" s="66"/>
+    </row>
+    <row r="114" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C114" s="65"/>
       <c r="D114" s="65"/>
       <c r="E114" s="65"/>
@@ -8136,10 +8549,13 @@
       <c r="AI114" s="65"/>
       <c r="AJ114" s="65"/>
       <c r="AK114" s="65"/>
-      <c r="AL114" s="66"/>
-      <c r="AM114" s="66"/>
-    </row>
-    <row r="115" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AL114" s="65"/>
+      <c r="AM114" s="65"/>
+      <c r="AN114" s="65"/>
+      <c r="AO114" s="66"/>
+      <c r="AP114" s="66"/>
+    </row>
+    <row r="115" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C115" s="65"/>
       <c r="D115" s="65"/>
       <c r="E115" s="65"/>
@@ -8175,10 +8591,13 @@
       <c r="AI115" s="65"/>
       <c r="AJ115" s="65"/>
       <c r="AK115" s="65"/>
-      <c r="AL115" s="66"/>
-      <c r="AM115" s="66"/>
-    </row>
-    <row r="116" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AL115" s="65"/>
+      <c r="AM115" s="65"/>
+      <c r="AN115" s="65"/>
+      <c r="AO115" s="66"/>
+      <c r="AP115" s="66"/>
+    </row>
+    <row r="116" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C116" s="65"/>
       <c r="D116" s="65"/>
       <c r="E116" s="65"/>
@@ -8214,10 +8633,13 @@
       <c r="AI116" s="65"/>
       <c r="AJ116" s="65"/>
       <c r="AK116" s="65"/>
-      <c r="AL116" s="66"/>
-      <c r="AM116" s="66"/>
-    </row>
-    <row r="117" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AL116" s="65"/>
+      <c r="AM116" s="65"/>
+      <c r="AN116" s="65"/>
+      <c r="AO116" s="66"/>
+      <c r="AP116" s="66"/>
+    </row>
+    <row r="117" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C117" s="65"/>
       <c r="D117" s="65"/>
       <c r="E117" s="65"/>
@@ -8253,10 +8675,13 @@
       <c r="AI117" s="65"/>
       <c r="AJ117" s="65"/>
       <c r="AK117" s="65"/>
-      <c r="AL117" s="66"/>
-      <c r="AM117" s="66"/>
-    </row>
-    <row r="118" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AL117" s="65"/>
+      <c r="AM117" s="65"/>
+      <c r="AN117" s="65"/>
+      <c r="AO117" s="66"/>
+      <c r="AP117" s="66"/>
+    </row>
+    <row r="118" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C118" s="65"/>
       <c r="D118" s="65"/>
       <c r="E118" s="65"/>
@@ -8292,10 +8717,13 @@
       <c r="AI118" s="65"/>
       <c r="AJ118" s="65"/>
       <c r="AK118" s="65"/>
-      <c r="AL118" s="66"/>
-      <c r="AM118" s="66"/>
-    </row>
-    <row r="119" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AL118" s="65"/>
+      <c r="AM118" s="65"/>
+      <c r="AN118" s="65"/>
+      <c r="AO118" s="66"/>
+      <c r="AP118" s="66"/>
+    </row>
+    <row r="119" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C119" s="65"/>
       <c r="D119" s="65"/>
       <c r="E119" s="65"/>
@@ -8331,10 +8759,13 @@
       <c r="AI119" s="65"/>
       <c r="AJ119" s="65"/>
       <c r="AK119" s="65"/>
-      <c r="AL119" s="66"/>
-      <c r="AM119" s="66"/>
-    </row>
-    <row r="120" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AL119" s="65"/>
+      <c r="AM119" s="65"/>
+      <c r="AN119" s="65"/>
+      <c r="AO119" s="66"/>
+      <c r="AP119" s="66"/>
+    </row>
+    <row r="120" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C120" s="65"/>
       <c r="D120" s="65"/>
       <c r="E120" s="65"/>
@@ -8370,10 +8801,13 @@
       <c r="AI120" s="65"/>
       <c r="AJ120" s="65"/>
       <c r="AK120" s="65"/>
-      <c r="AL120" s="66"/>
-      <c r="AM120" s="66"/>
-    </row>
-    <row r="121" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AL120" s="65"/>
+      <c r="AM120" s="65"/>
+      <c r="AN120" s="65"/>
+      <c r="AO120" s="66"/>
+      <c r="AP120" s="66"/>
+    </row>
+    <row r="121" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C121" s="65"/>
       <c r="D121" s="65"/>
       <c r="E121" s="65"/>
@@ -8409,10 +8843,13 @@
       <c r="AI121" s="65"/>
       <c r="AJ121" s="65"/>
       <c r="AK121" s="65"/>
-      <c r="AL121" s="66"/>
-      <c r="AM121" s="66"/>
-    </row>
-    <row r="122" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AL121" s="65"/>
+      <c r="AM121" s="65"/>
+      <c r="AN121" s="65"/>
+      <c r="AO121" s="66"/>
+      <c r="AP121" s="66"/>
+    </row>
+    <row r="122" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C122" s="65"/>
       <c r="D122" s="65"/>
       <c r="E122" s="65"/>
@@ -8448,10 +8885,13 @@
       <c r="AI122" s="65"/>
       <c r="AJ122" s="65"/>
       <c r="AK122" s="65"/>
-      <c r="AL122" s="66"/>
-      <c r="AM122" s="66"/>
-    </row>
-    <row r="123" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AL122" s="65"/>
+      <c r="AM122" s="65"/>
+      <c r="AN122" s="65"/>
+      <c r="AO122" s="66"/>
+      <c r="AP122" s="66"/>
+    </row>
+    <row r="123" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C123" s="66"/>
       <c r="D123" s="66"/>
       <c r="E123" s="66"/>
@@ -8489,8 +8929,11 @@
       <c r="AK123" s="66"/>
       <c r="AL123" s="66"/>
       <c r="AM123" s="66"/>
-    </row>
-    <row r="124" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN123" s="66"/>
+      <c r="AO123" s="66"/>
+      <c r="AP123" s="66"/>
+    </row>
+    <row r="124" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C124" s="66"/>
       <c r="D124" s="66"/>
       <c r="E124" s="66"/>
@@ -8528,8 +8971,11 @@
       <c r="AK124" s="66"/>
       <c r="AL124" s="66"/>
       <c r="AM124" s="66"/>
-    </row>
-    <row r="125" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN124" s="66"/>
+      <c r="AO124" s="66"/>
+      <c r="AP124" s="66"/>
+    </row>
+    <row r="125" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C125" s="65"/>
       <c r="D125" s="65"/>
       <c r="E125" s="65"/>
@@ -8550,8 +8996,11 @@
       <c r="T125" s="65"/>
       <c r="U125" s="65"/>
       <c r="V125" s="65"/>
-    </row>
-    <row r="126" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="W125" s="65"/>
+      <c r="X125" s="65"/>
+      <c r="Y125" s="65"/>
+    </row>
+    <row r="126" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C126" s="65"/>
       <c r="D126" s="65"/>
       <c r="E126" s="65"/>
@@ -8572,8 +9021,11 @@
       <c r="T126" s="65"/>
       <c r="U126" s="65"/>
       <c r="V126" s="65"/>
-    </row>
-    <row r="127" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="W126" s="65"/>
+      <c r="X126" s="65"/>
+      <c r="Y126" s="65"/>
+    </row>
+    <row r="127" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C127" s="65"/>
       <c r="D127" s="65"/>
       <c r="E127" s="65"/>
@@ -8594,8 +9046,11 @@
       <c r="T127" s="65"/>
       <c r="U127" s="65"/>
       <c r="V127" s="65"/>
-    </row>
-    <row r="128" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="W127" s="65"/>
+      <c r="X127" s="65"/>
+      <c r="Y127" s="65"/>
+    </row>
+    <row r="128" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C128" s="65"/>
       <c r="D128" s="65"/>
       <c r="E128" s="65"/>
@@ -8616,6 +9071,9 @@
       <c r="T128" s="65"/>
       <c r="U128" s="65"/>
       <c r="V128" s="65"/>
+      <c r="W128" s="65"/>
+      <c r="X128" s="65"/>
+      <c r="Y128" s="65"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8700,31 +9158,31 @@
         <v>99</v>
       </c>
       <c r="D4" s="8">
-        <f>Model!M37/Model!M70</f>
+        <f>Model!P37/Model!P70</f>
         <v>0.2350371937487204</v>
       </c>
       <c r="E4" s="8">
-        <f>Model!N37/Model!N70</f>
+        <f>Model!Q37/Model!Q70</f>
         <v>0.24408234426339434</v>
       </c>
       <c r="F4" s="8">
-        <f>Model!O37/Model!O70</f>
+        <f>Model!R37/Model!R70</f>
         <v>7.6101928374655653E-2</v>
       </c>
       <c r="G4" s="8">
-        <f>Model!P37/Model!P70</f>
+        <f>Model!S37/Model!S70</f>
         <v>0.20606368778999556</v>
       </c>
       <c r="H4" s="8">
-        <f>Model!Q37/Model!Q70</f>
+        <f>Model!T37/Model!T70</f>
         <v>0.24276810912511759</v>
       </c>
       <c r="I4" s="8">
-        <f>Model!R37/Model!R70</f>
+        <f>Model!U37/Model!U70</f>
         <v>0.28859564424417983</v>
       </c>
       <c r="J4" s="8">
-        <f>Model!S37/Model!S70</f>
+        <f>Model!V37/Model!V70</f>
         <v>0.29812970115877213</v>
       </c>
       <c r="M4" s="9">
@@ -8737,31 +9195,31 @@
         <v>190</v>
       </c>
       <c r="D5" s="8">
-        <f>Model!M30/Model!M68</f>
+        <f>Model!P30/Model!P68</f>
         <v>0.2009315624423538</v>
       </c>
       <c r="E5" s="8">
-        <f>Model!N30/Model!N68</f>
+        <f>Model!Q30/Model!Q68</f>
         <v>0.16811665668697826</v>
       </c>
       <c r="F5" s="8">
-        <f>Model!O30/Model!O68</f>
+        <f>Model!R30/Model!R68</f>
         <v>5.7006586418351123E-2</v>
       </c>
       <c r="G5" s="8">
-        <f>Model!P30/Model!P68</f>
+        <f>Model!S30/Model!S68</f>
         <v>0.14793574019692521</v>
       </c>
       <c r="H5" s="8">
-        <f>Model!Q30/Model!Q68</f>
+        <f>Model!T30/Model!T68</f>
         <v>0.18403148345784417</v>
       </c>
       <c r="I5" s="8">
-        <f>Model!R30/Model!R68</f>
+        <f>Model!U30/Model!U68</f>
         <v>0.20797311745837788</v>
       </c>
       <c r="J5" s="8">
-        <f>Model!S30/Model!S68</f>
+        <f>Model!V30/Model!V68</f>
         <v>0.21764180566358424</v>
       </c>
       <c r="M5" s="9">
@@ -8774,31 +9232,31 @@
         <v>100</v>
       </c>
       <c r="D6" s="8">
-        <f>(Model!M30*(1-Model!M54))/(Model!M72+Model!M75+Model!M76+Model!M78+Model!M79-Model!M65-Model!M64)</f>
+        <f>(Model!P30*(1-Model!P54))/(Model!P72+Model!P75+Model!P76+Model!P78+Model!P79-Model!P65-Model!P64)</f>
         <v>0.36587012190981749</v>
       </c>
       <c r="E6" s="8">
-        <f>(Model!N30*(1-Model!N54))/(Model!N72+Model!N75+Model!N76+Model!N78+Model!N79-Model!N65-Model!N64)</f>
+        <f>(Model!Q30*(1-Model!Q54))/(Model!Q72+Model!Q75+Model!Q76+Model!Q78+Model!Q79-Model!Q65-Model!Q64)</f>
         <v>0.26022692833894945</v>
       </c>
       <c r="F6" s="8">
-        <f>(Model!O30*(1-Model!O54))/(Model!O72+Model!O75+Model!O76+Model!O78+Model!O79-Model!O65-Model!O64)</f>
+        <f>(Model!R30*(1-Model!R54))/(Model!R72+Model!R75+Model!R76+Model!R78+Model!R79-Model!R65-Model!R64)</f>
         <v>8.6796843975337018E-2</v>
       </c>
       <c r="G6" s="8">
-        <f>(Model!P30*(1-Model!P54))/(Model!P72+Model!P75+Model!P76+Model!P78+Model!P79-Model!P65-Model!P64)</f>
+        <f>(Model!S30*(1-Model!S54))/(Model!S72+Model!S75+Model!S76+Model!S78+Model!S79-Model!S65-Model!S64)</f>
         <v>0.259739082812043</v>
       </c>
       <c r="H6" s="8">
-        <f>(Model!Q30*(1-Model!Q54))/(Model!Q72+Model!Q75+Model!Q76+Model!Q78+Model!Q79-Model!Q65-Model!Q64)</f>
+        <f>(Model!T30*(1-Model!T54))/(Model!T72+Model!T75+Model!T76+Model!T78+Model!T79-Model!T65-Model!T64)</f>
         <v>0.33082380066505085</v>
       </c>
       <c r="I6" s="8">
-        <f>(Model!R30*(1-Model!R54))/(Model!R72+Model!R75+Model!R76+Model!R78+Model!R79-Model!R65-Model!R64)</f>
+        <f>(Model!U30*(1-Model!U54))/(Model!U72+Model!U75+Model!U76+Model!U78+Model!U79-Model!U65-Model!U64)</f>
         <v>0.39816032653040684</v>
       </c>
       <c r="J6" s="8">
-        <f>(Model!S30*(1-Model!S54))/(Model!S72+Model!S75+Model!S76+Model!S78+Model!S79-Model!S65-Model!S64)</f>
+        <f>(Model!V30*(1-Model!V54))/(Model!V72+Model!V75+Model!V76+Model!V78+Model!V79-Model!V65-Model!V64)</f>
         <v>0.40407778171959441</v>
       </c>
       <c r="M6" s="9">
@@ -8811,31 +9269,31 @@
         <v>101</v>
       </c>
       <c r="D7" s="8">
-        <f>Model!M30/(Model!M61+Model!M62+Model!M63+Model!M66-Model!M80)</f>
+        <f>Model!P30/(Model!P61+Model!P62+Model!P63+Model!P66-Model!P80)</f>
         <v>0.45206474372276406</v>
       </c>
       <c r="E7" s="8">
-        <f>Model!N30/(Model!N61+Model!N62+Model!N63+Model!N66-Model!N80)</f>
+        <f>Model!Q30/(Model!Q61+Model!Q62+Model!Q63+Model!Q66-Model!Q80)</f>
         <v>0.32453933501053922</v>
       </c>
       <c r="F7" s="8">
-        <f>Model!O30/(Model!O61+Model!O62+Model!O63+Model!O66-Model!O80)</f>
+        <f>Model!R30/(Model!R61+Model!R62+Model!R63+Model!R66-Model!R80)</f>
         <v>0.1068312406895084</v>
       </c>
       <c r="G7" s="8">
-        <f>Model!P30/(Model!P61+Model!P62+Model!P63+Model!P66-Model!P80)</f>
+        <f>Model!S30/(Model!S61+Model!S62+Model!S63+Model!S66-Model!S80)</f>
         <v>0.32589999238907069</v>
       </c>
       <c r="H7" s="8">
-        <f>Model!Q30/(Model!Q61+Model!Q62+Model!Q63+Model!Q66-Model!Q80)</f>
+        <f>Model!T30/(Model!T61+Model!T62+Model!T63+Model!T66-Model!T80)</f>
         <v>0.41364317841079462</v>
       </c>
       <c r="I7" s="8">
-        <f>Model!R30/(Model!R61+Model!R62+Model!R63+Model!R66-Model!R80)</f>
+        <f>Model!U30/(Model!U61+Model!U62+Model!U63+Model!U66-Model!U80)</f>
         <v>0.49169435215946844</v>
       </c>
       <c r="J7" s="8">
-        <f>Model!S30/(Model!S61+Model!S62+Model!S63+Model!S66-Model!S80)</f>
+        <f>Model!V30/(Model!V61+Model!V62+Model!V63+Model!V66-Model!V80)</f>
         <v>0.51672252239928873</v>
       </c>
       <c r="M7" s="9">
@@ -8848,31 +9306,31 @@
         <v>104</v>
       </c>
       <c r="D9" s="8">
-        <f>1-(-Model!M107/Model!M37)</f>
+        <f>1-(-Model!P107/Model!P37)</f>
         <v>0.32200929152148661</v>
       </c>
       <c r="E9" s="8">
-        <f>1-(-Model!N107/Model!N37)</f>
+        <f>1-(-Model!Q107/Model!Q37)</f>
         <v>0.24697802197802199</v>
       </c>
       <c r="F9" s="8">
-        <f>1-(-Model!O107/Model!O37)</f>
+        <f>1-(-Model!R107/Model!R37)</f>
         <v>1.3574660633484115E-2</v>
       </c>
       <c r="G9" s="8">
-        <f>1-(-Model!P107/Model!P37)</f>
+        <f>1-(-Model!S107/Model!S37)</f>
         <v>0.32387415175817391</v>
       </c>
       <c r="H9" s="8">
-        <f>1-(-Model!Q107/Model!Q37)</f>
+        <f>1-(-Model!T107/Model!T37)</f>
         <v>0.29426011140712038</v>
       </c>
       <c r="I9" s="8">
-        <f>1-(-Model!R107/Model!R37)</f>
+        <f>1-(-Model!U107/Model!U37)</f>
         <v>0.30408921933085498</v>
       </c>
       <c r="J9" s="8">
-        <f>1-(-Model!S107/Model!S37)</f>
+        <f>1-(-Model!V107/Model!V37)</f>
         <v>0.18223661779747702</v>
       </c>
       <c r="M9" s="9">
@@ -8922,31 +9380,31 @@
         <v>103</v>
       </c>
       <c r="D11" s="8">
-        <f>(-Model!M95-Model!M102)/(Model!M30*(1-Model!M54))</f>
+        <f>(-Model!P95-Model!P102)/(Model!P30*(1-Model!P54))</f>
         <v>0.65552246245341128</v>
       </c>
       <c r="E11" s="8">
-        <f>(-Model!N95-Model!N102)/(Model!N30*(1-Model!N54))</f>
+        <f>(-Model!Q95-Model!Q102)/(Model!Q30*(1-Model!Q54))</f>
         <v>0.58377429602184805</v>
       </c>
       <c r="F11" s="8">
-        <f>(-Model!O95-Model!O102)/(Model!O30*(1-Model!O54))</f>
+        <f>(-Model!R95-Model!R102)/(Model!R30*(1-Model!R54))</f>
         <v>-1.4049573841232232</v>
       </c>
       <c r="G11" s="8">
-        <f>(-Model!P95-Model!P102)/(Model!P30*(1-Model!P54))</f>
+        <f>(-Model!S95-Model!S102)/(Model!S30*(1-Model!S54))</f>
         <v>0.9142999340579625</v>
       </c>
       <c r="H11" s="8">
-        <f>(-Model!Q95-Model!Q102)/(Model!Q30*(1-Model!Q54))</f>
+        <f>(-Model!T95-Model!T102)/(Model!T30*(1-Model!T54))</f>
         <v>0.97691089303488976</v>
       </c>
       <c r="I11" s="8">
-        <f>(-Model!R95-Model!R102)/(Model!R30*(1-Model!R54))</f>
+        <f>(-Model!U95-Model!U102)/(Model!U30*(1-Model!U54))</f>
         <v>0.33052139470805142</v>
       </c>
       <c r="J11" s="8">
-        <f>(-Model!S95-Model!S102)/(Model!S30*(1-Model!S54))</f>
+        <f>(-Model!V95-Model!V102)/(Model!V30*(1-Model!V54))</f>
         <v>0.59522834475600461</v>
       </c>
       <c r="M11" s="9">
@@ -9030,31 +9488,31 @@
         <v>122</v>
       </c>
       <c r="D20" s="23">
-        <f>Model!M63/Model!M22*360</f>
+        <f>Model!P63/Model!P22*360</f>
         <v>11.290877796901894</v>
       </c>
       <c r="E20" s="23">
-        <f>Model!N63/Model!N22*360</f>
+        <f>Model!Q63/Model!Q22*360</f>
         <v>9.9268215081132674</v>
       </c>
       <c r="F20" s="23">
-        <f>Model!O63/Model!O22*360</f>
+        <f>Model!R63/Model!R22*360</f>
         <v>12.61641015586707</v>
       </c>
       <c r="G20" s="23">
-        <f>Model!P63/Model!P22*360</f>
+        <f>Model!S63/Model!S22*360</f>
         <v>10.936643094241592</v>
       </c>
       <c r="H20" s="23">
-        <f>Model!Q63/Model!Q22*360</f>
+        <f>Model!T63/Model!T22*360</f>
         <v>9.4064908348429483</v>
       </c>
       <c r="I20" s="23">
-        <f>Model!R63/Model!R22*360</f>
+        <f>Model!U63/Model!U22*360</f>
         <v>10.39530419784683</v>
       </c>
       <c r="J20" s="23">
-        <f>Model!S63/Model!S22*360</f>
+        <f>Model!V63/Model!V22*360</f>
         <v>10.138745081797474</v>
       </c>
       <c r="M20" s="23">
@@ -9067,31 +9525,31 @@
         <v>123</v>
       </c>
       <c r="D21" s="23">
-        <f>Model!M80/Model!M22*360</f>
+        <f>Model!P80/Model!P22*360</f>
         <v>72.302925989672971</v>
       </c>
       <c r="E21" s="23">
-        <f>Model!N80/Model!N22*360</f>
+        <f>Model!Q80/Model!Q22*360</f>
         <v>71.078587336939236</v>
       </c>
       <c r="F21" s="23">
-        <f>Model!O80/Model!O22*360</f>
+        <f>Model!R80/Model!R22*360</f>
         <v>83.762376237623769</v>
       </c>
       <c r="G21" s="23">
-        <f>Model!P80/Model!P22*360</f>
+        <f>Model!S80/Model!S22*360</f>
         <v>83.27175638620291</v>
       </c>
       <c r="H21" s="23">
-        <f>Model!Q80/Model!Q22*360</f>
+        <f>Model!T80/Model!T22*360</f>
         <v>72.521723110933706</v>
       </c>
       <c r="I21" s="23">
-        <f>Model!R80/Model!R22*360</f>
+        <f>Model!U80/Model!U22*360</f>
         <v>74.780092914568669</v>
       </c>
       <c r="J21" s="23">
-        <f>Model!S80/Model!S22*360</f>
+        <f>Model!V80/Model!V22*360</f>
         <v>80.047628908676742</v>
       </c>
       <c r="M21" s="23">
@@ -9104,31 +9562,31 @@
         <v>124</v>
       </c>
       <c r="D22" s="8">
-        <f>Model!M62/Model!M68</f>
+        <f>Model!P62/Model!P68</f>
         <v>0.12525364323925475</v>
       </c>
       <c r="E22" s="8">
-        <f>Model!N62/Model!N68</f>
+        <f>Model!Q62/Model!Q68</f>
         <v>7.9919692860413505E-2</v>
       </c>
       <c r="F22" s="8">
-        <f>Model!O62/Model!O68</f>
+        <f>Model!R62/Model!R68</f>
         <v>8.7856764327352566E-2</v>
       </c>
       <c r="G22" s="8">
-        <f>Model!P62/Model!P68</f>
+        <f>Model!S62/Model!S68</f>
         <v>0.10509587148039386</v>
       </c>
       <c r="H22" s="8">
-        <f>Model!Q62/Model!Q68</f>
+        <f>Model!T62/Model!T68</f>
         <v>0.10642342582710779</v>
       </c>
       <c r="I22" s="8">
-        <f>Model!R62/Model!R68</f>
+        <f>Model!U62/Model!U68</f>
         <v>9.0606384603635251E-2</v>
       </c>
       <c r="J22" s="8">
-        <f>Model!S62/Model!S68</f>
+        <f>Model!V62/Model!V68</f>
         <v>9.5670210007778062E-2</v>
       </c>
       <c r="M22" s="8">
@@ -9141,31 +9599,31 @@
         <v>125</v>
       </c>
       <c r="D23" s="23">
-        <f>Model!M23/Model!M62</f>
+        <f>Model!P23/Model!P62</f>
         <v>4.1712076583210607</v>
       </c>
       <c r="E23" s="23">
-        <f>Model!N23/Model!N62</f>
+        <f>Model!Q23/Model!Q62</f>
         <v>5.4997796386073157</v>
       </c>
       <c r="F23" s="23">
-        <f>Model!O23/Model!O62</f>
+        <f>Model!R23/Model!R62</f>
         <v>3.8832399827660491</v>
       </c>
       <c r="G23" s="23">
-        <f>Model!P23/Model!P62</f>
+        <f>Model!S23/Model!S62</f>
         <v>3.9125575279421434</v>
       </c>
       <c r="H23" s="23">
-        <f>Model!Q23/Model!Q62</f>
+        <f>Model!T23/Model!T62</f>
         <v>4.3907865872767156</v>
       </c>
       <c r="I23" s="23">
-        <f>Model!R23/Model!R62</f>
+        <f>Model!U23/Model!U62</f>
         <v>5.1200269723533376</v>
       </c>
       <c r="J23" s="23">
-        <f>Model!S23/Model!S62</f>
+        <f>Model!V23/Model!V62</f>
         <v>4.9045468232460099</v>
       </c>
       <c r="M23" s="23">
@@ -9279,7 +9737,7 @@
       </c>
       <c r="J29" s="3">
         <f>Main!J3</f>
-        <v>44.78</v>
+        <v>46.8</v>
       </c>
       <c r="M29" s="23"/>
     </row>
@@ -9288,31 +9746,31 @@
         <v>112</v>
       </c>
       <c r="D30" s="3">
-        <f>Model!M40</f>
+        <f>Model!P40</f>
         <v>3113.701857</v>
       </c>
       <c r="E30" s="3">
-        <f>Model!N40</f>
+        <f>Model!Q40</f>
         <v>3114.3841950000001</v>
       </c>
       <c r="F30" s="3">
-        <f>Model!O40</f>
+        <f>Model!R40</f>
         <v>3114.8569630000002</v>
       </c>
       <c r="G30" s="3">
-        <f>Model!P40</f>
+        <f>Model!S40</f>
         <v>3113.5709769999999</v>
       </c>
       <c r="H30" s="3">
-        <f>Model!Q40</f>
+        <f>Model!T40</f>
         <v>3112.4554050000002</v>
       </c>
       <c r="I30" s="3">
-        <f>Model!R40</f>
+        <f>Model!U40</f>
         <v>3112.8365509999999</v>
       </c>
       <c r="J30" s="3">
-        <f>Model!S40</f>
+        <f>Model!V40</f>
         <v>3144.4529830000001</v>
       </c>
     </row>
@@ -9346,7 +9804,7 @@
       </c>
       <c r="J31" s="66">
         <f>J29*J30</f>
-        <v>140808.60457874002</v>
+        <v>147160.39960440001</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -9354,32 +9812,32 @@
         <v>113</v>
       </c>
       <c r="D32" s="66">
-        <f>Model!M74+Model!M75+Model!M78+Model!M79-Model!M65-Model!M64-Model!M59</f>
+        <f>Model!P74+Model!P75+Model!P78+Model!P79-Model!P65-Model!P64-Model!P59</f>
         <v>-6973</v>
       </c>
       <c r="E32" s="66">
-        <f>Model!N74+Model!N75+Model!N78+Model!N79-Model!N65-Model!N64-Model!N59</f>
+        <f>Model!Q74+Model!Q75+Model!Q78+Model!Q79-Model!Q65-Model!Q64-Model!Q59</f>
         <v>-1498</v>
       </c>
       <c r="F32" s="66">
-        <f>Model!O74+Model!O75+Model!O78+Model!O79-Model!O65-Model!O64-Model!O59</f>
+        <f>Model!R74+Model!R75+Model!R78+Model!R79-Model!R65-Model!R64-Model!R59</f>
         <v>-1670</v>
       </c>
       <c r="G32" s="66">
-        <f>Model!P74+Model!P75+Model!P78+Model!P79-Model!P65-Model!P64-Model!P59</f>
+        <f>Model!S74+Model!S75+Model!S78+Model!S79-Model!S65-Model!S64-Model!S59</f>
         <v>-3842</v>
       </c>
       <c r="H32" s="66">
-        <f>Model!Q74+Model!Q75+Model!Q78+Model!Q79-Model!Q65-Model!Q64-Model!Q59</f>
+        <f>Model!T74+Model!T75+Model!T78+Model!T79-Model!T65-Model!T64-Model!T59</f>
         <v>-4964</v>
       </c>
       <c r="I32" s="66">
-        <f>Model!R74+Model!R75+Model!R78+Model!R79-Model!R65-Model!R64-Model!R59</f>
+        <f>Model!U74+Model!U75+Model!U78+Model!U79-Model!U65-Model!U64-Model!U59</f>
         <v>-6253</v>
       </c>
       <c r="J32" s="66">
         <f>Main!J7-Main!J6</f>
-        <v>-11495</v>
+        <v>-10778</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
@@ -9412,7 +9870,7 @@
       </c>
       <c r="J33" s="66">
         <f>J31+J32</f>
-        <v>129313.60457874002</v>
+        <v>136382.39960440001</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -9425,32 +9883,32 @@
         <v>114</v>
       </c>
       <c r="D35" s="23">
-        <f>D31/Model!M37</f>
+        <f>D31/Model!P37</f>
         <v>25.359853974695124</v>
       </c>
       <c r="E35" s="23">
-        <f>E31/Model!N37</f>
+        <f>E31/Model!Q37</f>
         <v>28.320361773214287</v>
       </c>
       <c r="F35" s="23">
-        <f>F31/Model!O37</f>
+        <f>F31/Model!R37</f>
         <v>84.594441139936663</v>
       </c>
       <c r="G35" s="23">
-        <f>G31/Model!P37</f>
+        <f>G31/Model!S37</f>
         <v>28.849991409339914</v>
       </c>
       <c r="H35" s="23">
-        <f>H31/Model!Q37</f>
+        <f>H31/Model!T37</f>
         <v>23.405604341305402</v>
       </c>
       <c r="I35" s="23">
-        <f>I31/Model!R37</f>
+        <f>I31/Model!U37</f>
         <v>24.723328220117097</v>
       </c>
       <c r="J35" s="23">
-        <f>J31/Model!S37</f>
-        <v>24.004194438926017</v>
+        <f>J31/Model!V37</f>
+        <v>25.087009820047733</v>
       </c>
       <c r="M35" s="23">
         <f>AVERAGE(G35:I35,D35:E35)</f>
@@ -9463,28 +9921,28 @@
       </c>
       <c r="D36" s="25"/>
       <c r="E36" s="25">
-        <f>E35/((Model!N37/Model!M37-1)*100)</f>
+        <f>E35/((Model!Q37/Model!P37-1)*100)</f>
         <v>4.9762921401505125</v>
       </c>
       <c r="F36" s="25">
-        <f>F35/((Model!O37/Model!N37-1)*100)</f>
+        <f>F35/((Model!R37/Model!Q37-1)*100)</f>
         <v>-1.2146894112401163</v>
       </c>
       <c r="G36" s="25">
-        <f>G35/((Model!P37/Model!O37-1)*100)</f>
+        <f>G35/((Model!S37/Model!R37-1)*100)</f>
         <v>0.14917754097950683</v>
       </c>
       <c r="H36" s="25">
-        <f>H35/((Model!Q37/Model!P37-1)*100)</f>
+        <f>H35/((Model!T37/Model!S37-1)*100)</f>
         <v>0.85547879678142191</v>
       </c>
       <c r="I36" s="25">
-        <f>I35/((Model!R37/Model!Q37-1)*100)</f>
+        <f>I35/((Model!U37/Model!T37-1)*100)</f>
         <v>0.81600817122992408</v>
       </c>
       <c r="J36" s="25">
-        <f>J35/((Model!S37/Model!R37-1)*100)</f>
-        <v>2.657254446119794</v>
+        <f>J35/((Model!V37/Model!U37-1)*100)</f>
+        <v>2.7771216632069304</v>
       </c>
       <c r="M36" s="23">
         <f t="shared" ref="M36:M37" si="10">AVERAGE(G36:I36,D36:E36)</f>
@@ -9496,27 +9954,27 @@
         <v>118</v>
       </c>
       <c r="D37" s="23">
-        <f>D31/Model!M72</f>
+        <f>D31/Model!P72</f>
         <v>5.9483305243376696</v>
       </c>
       <c r="E37" s="23">
-        <f>E31/Model!N72</f>
+        <f>E31/Model!Q72</f>
         <v>6.8958536928557104</v>
       </c>
       <c r="F37" s="23">
-        <f>F31/Model!O72</f>
+        <f>F31/Model!R72</f>
         <v>6.4245262858852241</v>
       </c>
       <c r="G37" s="23">
-        <f>G31/Model!P72</f>
+        <f>G31/Model!S72</f>
         <v>5.9351273652566787</v>
       </c>
       <c r="H37" s="23">
-        <f>H31/Model!Q72</f>
+        <f>H31/Model!T72</f>
         <v>5.6737944182029008</v>
       </c>
       <c r="I37" s="23">
-        <f>I31/Model!R72</f>
+        <f>I31/Model!U72</f>
         <v>7.1235810745624448</v>
       </c>
       <c r="J37" s="22" t="s">
@@ -9538,32 +9996,32 @@
         <v>119</v>
       </c>
       <c r="D39" s="23">
-        <f>D33/Model!M22</f>
+        <f>D33/Model!P22</f>
         <v>3.0738702271505072</v>
       </c>
       <c r="E39" s="23">
-        <f>E33/Model!N22</f>
+        <f>E33/Model!Q22</f>
         <v>3.5913358381765481</v>
       </c>
       <c r="F39" s="23">
-        <f>F33/Model!O22</f>
+        <f>F33/Model!R22</f>
         <v>4.4998949838069802</v>
       </c>
       <c r="G39" s="23">
-        <f>G33/Model!P22</f>
+        <f>G33/Model!S22</f>
         <v>3.236025117227594</v>
       </c>
       <c r="H39" s="23">
-        <f>H33/Model!Q22</f>
+        <f>H33/Model!T22</f>
         <v>2.8148773473318189</v>
       </c>
       <c r="I39" s="23">
-        <f>I33/Model!R22</f>
+        <f>I33/Model!U22</f>
         <v>3.5262610461020385</v>
       </c>
       <c r="J39" s="23">
-        <f>J33/Model!S22</f>
-        <v>3.3473184038812387</v>
+        <f>J33/Model!V22</f>
+        <v>3.5302961173224272</v>
       </c>
       <c r="M39" s="23">
         <f t="shared" ref="M39:M41" si="11">AVERAGE(G39:I39,D39:E39)</f>
@@ -9575,32 +10033,32 @@
         <v>120</v>
       </c>
       <c r="D40" s="23">
-        <f>D33/Model!M27</f>
+        <f>D33/Model!P27</f>
         <v>14.727201225737586</v>
       </c>
       <c r="E40" s="23">
-        <f>E33/Model!N27</f>
+        <f>E33/Model!Q27</f>
         <v>13.368616509343337</v>
       </c>
       <c r="F40" s="23">
-        <f>F33/Model!O27</f>
+        <f>F33/Model!R27</f>
         <v>20.172897705917386</v>
       </c>
       <c r="G40" s="23">
-        <f>G33/Model!P27</f>
+        <f>G33/Model!S27</f>
         <v>12.486380641665042</v>
       </c>
       <c r="H40" s="23">
-        <f>H33/Model!Q27</f>
+        <f>H33/Model!T27</f>
         <v>10.601033802642231</v>
       </c>
       <c r="I40" s="23">
-        <f>I33/Model!R27</f>
+        <f>I33/Model!U27</f>
         <v>12.870190458343991</v>
       </c>
       <c r="J40" s="23">
-        <f>J33/Model!S27</f>
-        <v>12.052717362171686</v>
+        <f>J33/Model!V27</f>
+        <v>12.711566744747881</v>
       </c>
       <c r="M40" s="23">
         <f t="shared" si="11"/>
@@ -9612,32 +10070,32 @@
         <v>121</v>
       </c>
       <c r="D41" s="23">
-        <f>D33/Model!M30</f>
+        <f>D33/Model!P30</f>
         <v>18.445337867535002</v>
       </c>
       <c r="E41" s="23">
-        <f>E33/Model!N30</f>
+        <f>E33/Model!Q30</f>
         <v>21.283913022103501</v>
       </c>
       <c r="F41" s="23">
-        <f>F33/Model!O30</f>
+        <f>F33/Model!R30</f>
         <v>60.960728724853929</v>
       </c>
       <c r="G41" s="23">
-        <f>G33/Model!P30</f>
+        <f>G33/Model!S30</f>
         <v>20.945743145511443</v>
       </c>
       <c r="H41" s="23">
-        <f>H33/Model!Q30</f>
+        <f>H33/Model!T30</f>
         <v>16.614305966881119</v>
       </c>
       <c r="I41" s="23">
-        <f>I33/Model!R30</f>
+        <f>I33/Model!U30</f>
         <v>18.619051971831663</v>
       </c>
       <c r="J41" s="23">
-        <f>J33/Model!S30</f>
-        <v>17.116294451189944</v>
+        <f>J33/Model!V30</f>
+        <v>18.051939060807413</v>
       </c>
       <c r="M41" s="23">
         <f t="shared" si="11"/>
@@ -9714,7 +10172,7 @@
       </c>
       <c r="J3" s="28">
         <f>Main!J3</f>
-        <v>44.78</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -9729,7 +10187,7 @@
       </c>
       <c r="J4" s="63">
         <f ca="1">V60</f>
-        <v>69.373939290789664</v>
+        <v>69.126303005675666</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -9744,7 +10202,7 @@
       </c>
       <c r="J5" s="64">
         <f ca="1">J4/J3-1</f>
-        <v>0.54921704535037219</v>
+        <v>0.47705775653153148</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -10020,27 +10478,27 @@
         <v>161</v>
       </c>
       <c r="G23" s="3">
-        <f>Model!M22</f>
+        <f>Model!P22</f>
         <v>26145</v>
       </c>
       <c r="H23" s="3">
-        <f>Model!N22</f>
+        <f>Model!Q22</f>
         <v>28287</v>
       </c>
       <c r="I23" s="3">
-        <f>Model!O22</f>
+        <f>Model!R22</f>
         <v>20402</v>
       </c>
       <c r="J23" s="3">
-        <f>Model!P22</f>
+        <f>Model!S22</f>
         <v>27716</v>
       </c>
       <c r="K23" s="3">
-        <f>Model!Q22</f>
+        <f>Model!T22</f>
         <v>32569</v>
       </c>
       <c r="L23" s="3">
-        <f>Model!R22</f>
+        <f>Model!U22</f>
         <v>35947</v>
       </c>
       <c r="M23" s="3">
@@ -10302,27 +10760,27 @@
         <v>30</v>
       </c>
       <c r="G29" s="3">
-        <f>Model!M27-Model!M87</f>
+        <f>Model!P27-Model!P87</f>
         <v>4357</v>
       </c>
       <c r="H29" s="3">
-        <f>Model!N27-Model!N87</f>
+        <f>Model!Q27-Model!Q87</f>
         <v>4773</v>
       </c>
       <c r="I29" s="3">
-        <f>Model!O27-Model!O87</f>
+        <f>Model!R27-Model!R87</f>
         <v>1506</v>
       </c>
       <c r="J29" s="3">
-        <f>Model!P27-Model!P87</f>
+        <f>Model!S27-Model!S87</f>
         <v>4282</v>
       </c>
       <c r="K29" s="3">
-        <f>Model!Q27-Model!Q87</f>
+        <f>Model!T27-Model!T87</f>
         <v>5749</v>
       </c>
       <c r="L29" s="3">
-        <f>Model!R27-Model!R87</f>
+        <f>Model!U27-Model!U87</f>
         <v>6808</v>
       </c>
       <c r="M29" s="3">
@@ -10554,27 +11012,27 @@
         <v>170</v>
       </c>
       <c r="G35" s="3">
-        <f>Model!M34</f>
+        <f>Model!P34</f>
         <v>980</v>
       </c>
       <c r="H35" s="3">
-        <f>Model!N34</f>
+        <f>Model!Q34</f>
         <v>1034</v>
       </c>
       <c r="I35" s="3">
-        <f>Model!O34</f>
+        <f>Model!R34</f>
         <v>297</v>
       </c>
       <c r="J35" s="3">
-        <f>Model!P34</f>
+        <f>Model!S34</f>
         <v>949</v>
       </c>
       <c r="K35" s="3">
-        <f>Model!Q34</f>
+        <f>Model!T34</f>
         <v>1211</v>
       </c>
       <c r="L35" s="3">
-        <f>Model!R34</f>
+        <f>Model!U34</f>
         <v>1475</v>
       </c>
       <c r="M35" s="3">
@@ -10758,27 +11216,27 @@
         <v>28</v>
       </c>
       <c r="G40" s="3">
-        <f>Model!M87</f>
+        <f>Model!P87</f>
         <v>1100</v>
       </c>
       <c r="H40" s="3">
-        <f>Model!N87</f>
+        <f>Model!Q87</f>
         <v>2826</v>
       </c>
       <c r="I40" s="3">
-        <f>Model!O87</f>
+        <f>Model!R87</f>
         <v>3045</v>
       </c>
       <c r="J40" s="3">
-        <f>Model!P87</f>
+        <f>Model!S87</f>
         <v>2901</v>
       </c>
       <c r="K40" s="3">
-        <f>Model!Q87</f>
+        <f>Model!T87</f>
         <v>2899</v>
       </c>
       <c r="L40" s="3">
-        <f>Model!R87</f>
+        <f>Model!U87</f>
         <v>3041</v>
       </c>
       <c r="M40" s="3">
@@ -10899,27 +11357,27 @@
         <v>173</v>
       </c>
       <c r="G43" s="49">
-        <f>Model!M98+Model!M97</f>
+        <f>Model!P98+Model!P97</f>
         <v>-1462</v>
       </c>
       <c r="H43" s="49">
-        <f>Model!N98+Model!N97</f>
+        <f>Model!Q98+Model!Q97</f>
         <v>-1112</v>
       </c>
       <c r="I43" s="49">
-        <f>Model!O98+Model!O97</f>
+        <f>Model!R98+Model!R97</f>
         <v>-677</v>
       </c>
       <c r="J43" s="49">
-        <f>Model!P98+Model!P97</f>
+        <f>Model!S98+Model!S97</f>
         <v>-1126</v>
       </c>
       <c r="K43" s="49">
-        <f>Model!Q98+Model!Q97</f>
+        <f>Model!T98+Model!T97</f>
         <v>-1415</v>
       </c>
       <c r="L43" s="49">
-        <f>Model!R98+Model!R97</f>
+        <f>Model!U98+Model!U97</f>
         <v>-1872</v>
       </c>
       <c r="M43" s="49">
@@ -11036,27 +11494,27 @@
         <v>174</v>
       </c>
       <c r="G46" s="49">
-        <f>Model!M95</f>
+        <f>Model!P95</f>
         <v>-349</v>
       </c>
       <c r="H46" s="49">
-        <f>Model!N95</f>
+        <f>Model!Q95</f>
         <v>205</v>
       </c>
       <c r="I46" s="49">
-        <f>Model!O95</f>
+        <f>Model!R95</f>
         <v>-847</v>
       </c>
       <c r="J46" s="49">
-        <f>Model!P95</f>
+        <f>Model!S95</f>
         <v>223</v>
       </c>
       <c r="K46" s="49">
-        <f>Model!Q95</f>
+        <f>Model!T95</f>
         <v>-669</v>
       </c>
       <c r="L46" s="49">
-        <f>Model!R95</f>
+        <f>Model!U95</f>
         <v>-57</v>
       </c>
       <c r="M46" s="49">
@@ -11433,7 +11891,7 @@
       <c r="Q56" s="3"/>
       <c r="V56" s="3">
         <f>Main!J6</f>
-        <v>11502</v>
+        <v>10785</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
@@ -11474,7 +11932,7 @@
       <c r="Q58" s="3"/>
       <c r="V58" s="3">
         <f ca="1">V55+V56-V57</f>
-        <v>216061.87216666079</v>
+        <v>215344.87216666079</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
@@ -11502,7 +11960,7 @@
       <c r="U59" s="56"/>
       <c r="V59" s="56">
         <f>Main!J4</f>
-        <v>3114.4529830000001</v>
+        <v>3115.2378010000002</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
@@ -11511,7 +11969,7 @@
       </c>
       <c r="V60" s="23">
         <f ca="1">V58/V59</f>
-        <v>69.373939290789664</v>
+        <v>69.126303005675666</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">

--- a/ITX.MC.xlsx
+++ b/ITX.MC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435E8556-D49B-45D3-A126-67054FD910AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF083EAB-1646-4F83-8AF1-A165CB70D96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{D8A593F9-CE2E-4D8C-B815-D7E0264BAFFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{D8A593F9-CE2E-4D8C-B815-D7E0264BAFFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1139,6 +1139,7 @@
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1151,7 +1152,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -4422,52 +4422,52 @@
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="76">
+      <c r="G48" s="72">
         <f>G22/C22-1</f>
         <v>7.0818552095651022E-2</v>
       </c>
-      <c r="H48" s="76">
+      <c r="H48" s="72">
         <f>H22/D22-1</f>
         <v>7.3168091784825195E-2</v>
       </c>
-      <c r="I48" s="76">
+      <c r="I48" s="72">
         <f>I22/E22-1</f>
         <v>6.839461064169905E-2</v>
       </c>
-      <c r="J48" s="76">
+      <c r="J48" s="72">
         <f>J22/F22-1</f>
         <v>8.434900367575926E-2</v>
       </c>
-      <c r="K48" s="76">
+      <c r="K48" s="72">
         <f>K22/G22-1</f>
         <v>1.5214723926380458E-2</v>
       </c>
-      <c r="L48" s="76"/>
-      <c r="M48" s="76"/>
-      <c r="N48" s="76"/>
+      <c r="L48" s="72"/>
+      <c r="M48" s="72"/>
+      <c r="N48" s="72"/>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
-      <c r="Q48" s="76">
+      <c r="Q48" s="72">
         <f t="shared" ref="Q48:V48" si="34">Q22/P22-1</f>
         <v>8.192771084337358E-2</v>
       </c>
-      <c r="R48" s="76">
+      <c r="R48" s="72">
         <f t="shared" si="34"/>
         <v>-0.27874995581008943</v>
       </c>
-      <c r="S48" s="76">
+      <c r="S48" s="72">
         <f t="shared" si="34"/>
         <v>0.3584942652681109</v>
       </c>
-      <c r="T48" s="76">
+      <c r="T48" s="72">
         <f t="shared" si="34"/>
         <v>0.17509741665463996</v>
       </c>
-      <c r="U48" s="76">
+      <c r="U48" s="72">
         <f t="shared" si="34"/>
         <v>0.10371825969480186</v>
       </c>
-      <c r="V48" s="76">
+      <c r="V48" s="72">
         <f t="shared" si="34"/>
         <v>7.4693298467187752E-2</v>
       </c>
@@ -12002,19 +12002,19 @@
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="58"/>
-      <c r="C66" s="72" t="s">
+      <c r="C66" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="72"/>
-      <c r="H66" s="72"/>
-      <c r="I66" s="72"/>
-      <c r="J66" s="73"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="73"/>
+      <c r="I66" s="73"/>
+      <c r="J66" s="74"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="74" t="s">
+      <c r="B67" s="75" t="s">
         <v>162</v>
       </c>
       <c r="C67" s="59"/>
@@ -12027,7 +12027,7 @@
       <c r="J67" s="60"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="74"/>
+      <c r="B68" s="75"/>
       <c r="C68" s="61"/>
       <c r="D68" s="25"/>
       <c r="E68" s="25"/>
@@ -12038,7 +12038,7 @@
       <c r="J68" s="25"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="74"/>
+      <c r="B69" s="75"/>
       <c r="C69" s="61"/>
       <c r="D69" s="25"/>
       <c r="E69" s="25"/>
@@ -12049,7 +12049,7 @@
       <c r="J69" s="25"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="74"/>
+      <c r="B70" s="75"/>
       <c r="C70" s="61"/>
       <c r="D70" s="25"/>
       <c r="E70" s="25"/>
@@ -12060,7 +12060,7 @@
       <c r="J70" s="25"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="74"/>
+      <c r="B71" s="75"/>
       <c r="C71" s="61"/>
       <c r="D71" s="25"/>
       <c r="E71" s="25"/>
@@ -12071,7 +12071,7 @@
       <c r="J71" s="25"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B72" s="74"/>
+      <c r="B72" s="75"/>
       <c r="C72" s="61"/>
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
@@ -12082,7 +12082,7 @@
       <c r="J72" s="25"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="74"/>
+      <c r="B73" s="75"/>
       <c r="C73" s="61"/>
       <c r="D73" s="25"/>
       <c r="E73" s="25"/>
@@ -12093,7 +12093,7 @@
       <c r="J73" s="25"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="75"/>
+      <c r="B74" s="76"/>
       <c r="C74" s="61"/>
       <c r="D74" s="25"/>
       <c r="E74" s="25"/>

--- a/ITX.MC.xlsx
+++ b/ITX.MC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86287F5-CE32-48E1-BE2E-318BD2A4A91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D09F8C8-2E46-4B12-8374-64084317917A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{D8A593F9-CE2E-4D8C-B815-D7E0264BAFFB}"/>
   </bookViews>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="203">
   <si>
     <t>Inditex</t>
   </si>
@@ -719,6 +719,9 @@
   </si>
   <si>
     <t>Uterqüe Stores</t>
+  </si>
+  <si>
+    <t>New Brand: Lefties - high budget Zara pieces</t>
   </si>
 </sst>
 </file>
@@ -744,6 +747,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -839,12 +848,6 @@
       <color theme="0" tint="-0.14999847407452621"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1082,126 +1085,128 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="3" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1279,16 +1284,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11113</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1303,8 +1308,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8372475" y="114300"/>
-          <a:ext cx="6350" cy="18310225"/>
+          <a:off x="8986838" y="247650"/>
+          <a:ext cx="6350" cy="19443700"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1664,10 +1669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B0593E-5163-482C-A654-07C73293509B}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1696,8 +1701,8 @@
       <c r="I3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="3">
-        <v>45.46</v>
+      <c r="J3" s="79">
+        <v>54.86</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1714,10 +1719,10 @@
         <v>2</v>
       </c>
       <c r="J4" s="5">
-        <v>3115.8116409999998</v>
-      </c>
-      <c r="K4" s="78" t="s">
-        <v>192</v>
+        <v>3115.9987160000001</v>
+      </c>
+      <c r="K4" s="80" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1735,7 +1740,7 @@
       </c>
       <c r="J5" s="5">
         <f>J4*J3</f>
-        <v>141644.79719985998</v>
+        <v>170943.68955976001</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -1743,11 +1748,11 @@
         <v>4</v>
       </c>
       <c r="J6" s="5">
-        <f>5139+4874</f>
-        <v>10013</v>
-      </c>
-      <c r="K6" s="78" t="s">
-        <v>192</v>
+        <f>5951+5318</f>
+        <v>11269</v>
+      </c>
+      <c r="K6" s="80" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1771,11 +1776,11 @@
         <v>5</v>
       </c>
       <c r="J7" s="5">
-        <f>0+1</f>
+        <f>1+0</f>
         <v>1</v>
       </c>
-      <c r="K7" s="78" t="s">
-        <v>192</v>
+      <c r="K7" s="80" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1795,7 +1800,7 @@
       </c>
       <c r="J8" s="5">
         <f>J5-J6+J7</f>
-        <v>131632.79719985998</v>
+        <v>159675.68955976001</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1870,6 +1875,11 @@
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="19"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="81" t="s">
+        <v>202</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1884,10 +1894,10 @@
   <dimension ref="A1:AP135"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L46" sqref="L46"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2014,7 +2024,7 @@
       <c r="AB2" s="20"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="74" t="s">
         <v>195</v>
       </c>
       <c r="C3" s="21"/>
@@ -2023,14 +2033,20 @@
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="I3" s="21">
+        <f>1588+203+407</f>
+        <v>2198</v>
+      </c>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21">
         <f>1534+379+210</f>
         <v>2123</v>
       </c>
-      <c r="M3" s="6"/>
+      <c r="M3" s="6">
+        <f>1528+380+213</f>
+        <v>2121</v>
+      </c>
       <c r="N3" s="6"/>
       <c r="O3" s="2"/>
       <c r="P3" s="20"/>
@@ -2048,7 +2064,7 @@
       <c r="AB3" s="20"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="74" t="s">
         <v>196</v>
       </c>
       <c r="C4" s="21"/>
@@ -2057,13 +2073,17 @@
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="I4" s="21">
+        <v>812</v>
+      </c>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
       <c r="L4" s="21">
         <v>801</v>
       </c>
-      <c r="M4" s="6"/>
+      <c r="M4" s="6">
+        <v>800</v>
+      </c>
       <c r="N4" s="6"/>
       <c r="O4" s="2"/>
       <c r="P4" s="20"/>
@@ -2081,7 +2101,7 @@
       <c r="AB4" s="20"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="74" t="s">
         <v>197</v>
       </c>
       <c r="C5" s="21"/>
@@ -2090,13 +2110,17 @@
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="I5" s="21">
+        <v>542</v>
+      </c>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
       <c r="L5" s="21">
         <v>518</v>
       </c>
-      <c r="M5" s="6"/>
+      <c r="M5" s="6">
+        <v>519</v>
+      </c>
       <c r="N5" s="6"/>
       <c r="O5" s="2"/>
       <c r="P5" s="20"/>
@@ -2114,7 +2138,7 @@
       <c r="AB5" s="20"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="74" t="s">
         <v>198</v>
       </c>
       <c r="C6" s="21"/>
@@ -2123,13 +2147,17 @@
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="I6" s="21">
+        <v>855</v>
+      </c>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
       <c r="L6" s="21">
         <v>856</v>
       </c>
-      <c r="M6" s="6"/>
+      <c r="M6" s="6">
+        <v>859</v>
+      </c>
       <c r="N6" s="6"/>
       <c r="O6" s="2"/>
       <c r="P6" s="20"/>
@@ -2147,7 +2175,7 @@
       <c r="AB6" s="20"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="74" t="s">
         <v>199</v>
       </c>
       <c r="C7" s="21"/>
@@ -2156,13 +2184,17 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="I7" s="21">
+        <v>845</v>
+      </c>
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
       <c r="L7" s="21">
         <v>839</v>
       </c>
-      <c r="M7" s="6"/>
+      <c r="M7" s="6">
+        <v>839</v>
+      </c>
       <c r="N7" s="6"/>
       <c r="O7" s="2"/>
       <c r="P7" s="20"/>
@@ -2180,7 +2212,7 @@
       <c r="AB7" s="20"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="74" t="s">
         <v>200</v>
       </c>
       <c r="C8" s="21"/>
@@ -2189,13 +2221,17 @@
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
+      <c r="I8" s="21">
+        <v>407</v>
+      </c>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
       <c r="L8" s="21">
         <v>391</v>
       </c>
-      <c r="M8" s="6"/>
+      <c r="M8" s="6">
+        <v>389</v>
+      </c>
       <c r="N8" s="6"/>
       <c r="O8" s="2"/>
       <c r="P8" s="20"/>
@@ -2213,7 +2249,7 @@
       <c r="AB8" s="20"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="74" t="s">
         <v>201</v>
       </c>
       <c r="C9" s="21"/>
@@ -2222,13 +2258,17 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
+      <c r="I9" s="21">
+        <v>203</v>
+      </c>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
       <c r="L9" s="21">
         <v>0</v>
       </c>
-      <c r="M9" s="6"/>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
       <c r="N9" s="6"/>
       <c r="O9" s="2"/>
       <c r="P9" s="20"/>
@@ -2276,7 +2316,10 @@
         <f>+SUM(L3:L9)</f>
         <v>5528</v>
       </c>
-      <c r="M10" s="28"/>
+      <c r="M10" s="28">
+        <f>+SUM(M3:M9)</f>
+        <v>5527</v>
+      </c>
       <c r="N10" s="28"/>
       <c r="O10" s="28"/>
       <c r="P10" s="28">
@@ -3278,7 +3321,10 @@
         <f>18357-K29</f>
         <v>10083</v>
       </c>
-      <c r="M29" s="28"/>
+      <c r="M29" s="28">
+        <f>28171-SUM(K29:L29)</f>
+        <v>9814</v>
+      </c>
       <c r="N29" s="28"/>
       <c r="O29" s="21"/>
       <c r="P29" s="28">
@@ -3368,7 +3414,10 @@
         <f>7654-K30</f>
         <v>4392</v>
       </c>
-      <c r="M30" s="21"/>
+      <c r="M30" s="21">
+        <f>11361-SUM(K30:L30)</f>
+        <v>3707</v>
+      </c>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
       <c r="P30" s="21">
@@ -3437,14 +3486,17 @@
         <v>6053</v>
       </c>
       <c r="K31" s="21">
-        <f t="shared" ref="K31:L31" si="14">K29-K30</f>
+        <f t="shared" ref="K31:M31" si="14">K29-K30</f>
         <v>5012</v>
       </c>
       <c r="L31" s="21">
         <f t="shared" si="14"/>
         <v>5691</v>
       </c>
-      <c r="M31" s="21"/>
+      <c r="M31" s="21">
+        <f t="shared" si="14"/>
+        <v>6107</v>
+      </c>
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
       <c r="P31" s="21">
@@ -3520,7 +3572,10 @@
         <f>5584-K32</f>
         <v>2972</v>
       </c>
-      <c r="M32" s="21"/>
+      <c r="M32" s="21">
+        <f>8479-SUM(K32:L32)</f>
+        <v>2895</v>
+      </c>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
       <c r="P32" s="21">
@@ -3589,7 +3644,10 @@
         <f>-5-K33</f>
         <v>1</v>
       </c>
-      <c r="M33" s="21"/>
+      <c r="M33" s="21">
+        <f>-29-SUM(K33:L33)</f>
+        <v>-24</v>
+      </c>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21">
@@ -3658,14 +3716,17 @@
         <v>2762</v>
       </c>
       <c r="K34" s="21">
-        <f t="shared" ref="K34:L34" si="17">K31-K32+K33</f>
+        <f t="shared" ref="K34:M34" si="17">K31-K32+K33</f>
         <v>2394</v>
       </c>
       <c r="L34" s="21">
         <f t="shared" si="17"/>
         <v>2720</v>
       </c>
-      <c r="M34" s="21"/>
+      <c r="M34" s="21">
+        <f t="shared" si="17"/>
+        <v>3188</v>
+      </c>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
       <c r="P34" s="21">
@@ -3738,7 +3799,9 @@
       <c r="L35" s="21">
         <v>0</v>
       </c>
-      <c r="M35" s="21"/>
+      <c r="M35" s="21">
+        <v>0</v>
+      </c>
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
       <c r="P35" s="21">
@@ -3806,7 +3869,10 @@
         <f>1542-K36</f>
         <v>790</v>
       </c>
-      <c r="M36" s="21"/>
+      <c r="M36" s="21">
+        <f>2359-SUM(K36:L36)</f>
+        <v>817</v>
+      </c>
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
       <c r="P36" s="21">
@@ -3875,14 +3941,17 @@
         <v>1882</v>
       </c>
       <c r="K37" s="21">
-        <f t="shared" ref="K37:L37" si="20">K34+K35-K36</f>
+        <f t="shared" ref="K37:M37" si="20">K34+K35-K36</f>
         <v>1642</v>
       </c>
       <c r="L37" s="21">
         <f t="shared" si="20"/>
         <v>1930</v>
       </c>
-      <c r="M37" s="21"/>
+      <c r="M37" s="21">
+        <f t="shared" si="20"/>
+        <v>2371</v>
+      </c>
       <c r="N37" s="21"/>
       <c r="O37" s="21"/>
       <c r="P37" s="21">
@@ -3958,7 +4027,10 @@
         <f>-12-K38</f>
         <v>-17</v>
       </c>
-      <c r="M38" s="21"/>
+      <c r="M38" s="21">
+        <f>-49-SUM(K38:L38)</f>
+        <v>-37</v>
+      </c>
       <c r="N38" s="21"/>
       <c r="O38" s="21"/>
       <c r="P38" s="21">
@@ -4027,7 +4099,10 @@
         <f>42-K39</f>
         <v>17</v>
       </c>
-      <c r="M39" s="21"/>
+      <c r="M39" s="21">
+        <f>69-SUM(K39:L39)</f>
+        <v>27</v>
+      </c>
       <c r="N39" s="21"/>
       <c r="O39" s="21"/>
       <c r="P39" s="21">
@@ -4096,14 +4171,17 @@
         <v>1824</v>
       </c>
       <c r="K40" s="21">
-        <f t="shared" ref="K40:L40" si="23">K37+K38+K39</f>
+        <f t="shared" ref="K40:M40" si="23">K37+K38+K39</f>
         <v>1672</v>
       </c>
       <c r="L40" s="21">
         <f t="shared" si="23"/>
         <v>1930</v>
       </c>
-      <c r="M40" s="21"/>
+      <c r="M40" s="21">
+        <f t="shared" si="23"/>
+        <v>2361</v>
+      </c>
       <c r="N40" s="21"/>
       <c r="O40" s="21"/>
       <c r="P40" s="21">
@@ -4177,7 +4255,10 @@
         <f>810-K41</f>
         <v>444</v>
       </c>
-      <c r="M41" s="21"/>
+      <c r="M41" s="21">
+        <f>1341-SUM(K41:L41)</f>
+        <v>531</v>
+      </c>
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
       <c r="P41" s="21">
@@ -4246,14 +4327,17 @@
         <v>1418</v>
       </c>
       <c r="K42" s="21">
-        <f t="shared" ref="K42:L42" si="26">K40-K41</f>
+        <f t="shared" ref="K42:M42" si="26">K40-K41</f>
         <v>1306</v>
       </c>
       <c r="L42" s="21">
         <f t="shared" si="26"/>
         <v>1486</v>
       </c>
-      <c r="M42" s="21"/>
+      <c r="M42" s="21">
+        <f t="shared" si="26"/>
+        <v>1830</v>
+      </c>
       <c r="N42" s="21"/>
       <c r="O42" s="21"/>
       <c r="P42" s="21">
@@ -4326,7 +4410,9 @@
       <c r="L43" s="21">
         <v>0</v>
       </c>
-      <c r="M43" s="21"/>
+      <c r="M43" s="21">
+        <v>0</v>
+      </c>
       <c r="N43" s="21"/>
       <c r="O43" s="21"/>
       <c r="P43" s="21">
@@ -4395,14 +4481,17 @@
         <v>1418</v>
       </c>
       <c r="K44" s="21">
-        <f t="shared" ref="K44:L44" si="29">K42-K43</f>
+        <f t="shared" ref="K44:M44" si="29">K42-K43</f>
         <v>1306</v>
       </c>
       <c r="L44" s="21">
         <f t="shared" si="29"/>
         <v>1486</v>
       </c>
-      <c r="M44" s="21"/>
+      <c r="M44" s="21">
+        <f t="shared" si="29"/>
+        <v>1830</v>
+      </c>
       <c r="N44" s="21"/>
       <c r="O44" s="21"/>
       <c r="P44" s="21">
@@ -4514,24 +4603,28 @@
         <f t="shared" si="31"/>
         <v>0.47692228260726244</v>
       </c>
+      <c r="M46" s="3">
+        <f t="shared" ref="M46" si="32">M44/M47</f>
+        <v>0.58729164123314104</v>
+      </c>
       <c r="P46" s="3">
         <f>P44/P47</f>
         <v>1.1060789241132536</v>
       </c>
       <c r="Q46" s="3">
-        <f t="shared" ref="Q46:T46" si="32">Q44/Q47</f>
+        <f t="shared" ref="Q46:T46" si="33">Q44/Q47</f>
         <v>1.1687703803030633</v>
       </c>
       <c r="R46" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.35475144224142657</v>
       </c>
       <c r="S46" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.0412481436744843</v>
       </c>
       <c r="T46" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.3266053525994213</v>
       </c>
       <c r="U46" s="3">
@@ -4578,7 +4671,9 @@
       <c r="L47" s="5">
         <v>3115.8116409999998</v>
       </c>
-      <c r="M47" s="5"/>
+      <c r="M47" s="5">
+        <v>3115.9987160000001</v>
+      </c>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="5">
@@ -4608,27 +4703,27 @@
         <v>16</v>
       </c>
       <c r="Q49" s="29">
-        <f t="shared" ref="Q49:V54" si="33">Q22/P22-1</f>
+        <f t="shared" ref="Q49:V54" si="34">Q22/P22-1</f>
         <v>8.562232950446691E-2</v>
       </c>
       <c r="R49" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.27780617460641999</v>
       </c>
       <c r="S49" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.3862269091938566</v>
       </c>
       <c r="T49" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.21316246298376385</v>
       </c>
       <c r="U49" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.6334329363242377E-2</v>
       </c>
       <c r="V49" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>6.6333973128598789E-2</v>
       </c>
     </row>
@@ -4637,27 +4732,27 @@
         <v>17</v>
       </c>
       <c r="Q50" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5.8002148227712214E-2</v>
       </c>
       <c r="R50" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.2766497461928934</v>
       </c>
       <c r="S50" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.31649122807017549</v>
       </c>
       <c r="T50" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.14712153518123672</v>
       </c>
       <c r="U50" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.6189591078067016E-2</v>
       </c>
       <c r="V50" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4.6629927935565973E-2</v>
       </c>
     </row>
@@ -4666,27 +4761,27 @@
         <v>18</v>
       </c>
       <c r="Q51" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5.4384017758046577E-2</v>
       </c>
       <c r="R51" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.33105263157894738</v>
       </c>
       <c r="S51" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.30055074744295829</v>
       </c>
       <c r="T51" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-3.6297640653357499E-2</v>
       </c>
       <c r="U51" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.15442561205273075</v>
       </c>
       <c r="V51" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>6.579662860250135E-2</v>
       </c>
     </row>
@@ -4695,27 +4790,27 @@
         <v>19</v>
       </c>
       <c r="Q52" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>6.4285714285714279E-2</v>
       </c>
       <c r="R52" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.25671140939597314</v>
       </c>
       <c r="S52" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.22855530474040631</v>
       </c>
       <c r="T52" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.5084979329352226E-2</v>
       </c>
       <c r="U52" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.941275167785224E-2</v>
       </c>
       <c r="V52" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.11789393361312483</v>
       </c>
     </row>
@@ -4724,27 +4819,27 @@
         <v>20</v>
       </c>
       <c r="Q53" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.14080834419817467</v>
       </c>
       <c r="R53" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.2668571428571429</v>
       </c>
       <c r="S53" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.42166796570537812</v>
       </c>
       <c r="T53" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.12719298245614041</v>
       </c>
       <c r="U53" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.13521400778210113</v>
       </c>
       <c r="V53" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.1413881748071979</v>
       </c>
     </row>
@@ -4753,27 +4848,27 @@
         <v>21</v>
       </c>
       <c r="Q54" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>3.2478632478632585E-2</v>
       </c>
       <c r="R54" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.13576158940397354</v>
       </c>
       <c r="S54" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.14942528735632177</v>
       </c>
       <c r="T54" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>3.833333333333333E-2</v>
       </c>
       <c r="U54" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.1942215088282504</v>
       </c>
       <c r="V54" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.11693548387096775</v>
       </c>
     </row>
@@ -4786,55 +4881,58 @@
       <c r="E55" s="27"/>
       <c r="F55" s="27"/>
       <c r="G55" s="30">
-        <f>G29/C29-1</f>
+        <f t="shared" ref="G55:M55" si="35">G29/C29-1</f>
         <v>7.0818552095651022E-2</v>
       </c>
       <c r="H55" s="30">
-        <f>H29/D29-1</f>
+        <f t="shared" si="35"/>
         <v>7.3168091784825195E-2</v>
       </c>
       <c r="I55" s="30">
-        <f>I29/E29-1</f>
+        <f t="shared" si="35"/>
         <v>6.839461064169905E-2</v>
       </c>
       <c r="J55" s="30">
-        <f>J29/F29-1</f>
+        <f t="shared" si="35"/>
         <v>8.434900367575926E-2</v>
       </c>
       <c r="K55" s="30">
-        <f>K29/G29-1</f>
+        <f t="shared" si="35"/>
         <v>1.5214723926380458E-2</v>
       </c>
       <c r="L55" s="30">
-        <f>L29/H29-1</f>
+        <f t="shared" si="35"/>
         <v>1.6944024205748809E-2</v>
       </c>
-      <c r="M55" s="30"/>
+      <c r="M55" s="30">
+        <f t="shared" si="35"/>
+        <v>4.8840440312065914E-2</v>
+      </c>
       <c r="N55" s="30"/>
       <c r="O55" s="27"/>
       <c r="P55" s="27"/>
       <c r="Q55" s="30">
-        <f t="shared" ref="Q55:V55" si="34">Q29/P29-1</f>
+        <f t="shared" ref="Q55:V55" si="36">Q29/P29-1</f>
         <v>8.192771084337358E-2</v>
       </c>
       <c r="R55" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-0.27874995581008943</v>
       </c>
       <c r="S55" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.3584942652681109</v>
       </c>
       <c r="T55" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.17509741665463996</v>
       </c>
       <c r="U55" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.10371825969480186</v>
       </c>
       <c r="V55" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>7.4693298467187752E-2</v>
       </c>
     </row>
@@ -4843,73 +4941,76 @@
         <v>62</v>
       </c>
       <c r="C56" s="29">
-        <f t="shared" ref="C56:J56" si="35">C31/C29</f>
+        <f t="shared" ref="C56:J56" si="37">C31/C29</f>
         <v>0.60478255157009586</v>
       </c>
       <c r="D56" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.56250676480138539</v>
       </c>
       <c r="E56" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.61680749029458781</v>
       </c>
       <c r="F56" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.53762816792416324</v>
       </c>
       <c r="G56" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.60613496932515343</v>
       </c>
       <c r="H56" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.56490166414523446</v>
       </c>
       <c r="I56" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.61440632681414986</v>
       </c>
       <c r="J56" s="29">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.53996431757359498</v>
       </c>
       <c r="K56" s="29">
-        <f t="shared" ref="K56:L56" si="36">K31/K29</f>
+        <f t="shared" ref="K56:L56" si="38">K31/K29</f>
         <v>0.60575296108291032</v>
       </c>
       <c r="L56" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.56441535257363884</v>
       </c>
-      <c r="M56" s="29"/>
+      <c r="M56" s="29">
+        <f t="shared" ref="M56" si="39">M31/M29</f>
+        <v>0.62227430201752598</v>
+      </c>
       <c r="N56" s="29"/>
       <c r="P56" s="29">
-        <f t="shared" ref="P56:V56" si="37">P31/P29</f>
+        <f t="shared" ref="P56:V56" si="40">P31/P29</f>
         <v>0.56668579078217629</v>
       </c>
       <c r="Q56" s="29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.55884328490119139</v>
       </c>
       <c r="R56" s="29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.55822958533477107</v>
       </c>
       <c r="S56" s="29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.57057295425025256</v>
       </c>
       <c r="T56" s="29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.56980564340323625</v>
       </c>
       <c r="U56" s="29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.57754471861351431</v>
       </c>
       <c r="V56" s="29">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.57838061710499067</v>
       </c>
     </row>
@@ -4918,73 +5019,76 @@
         <v>63</v>
       </c>
       <c r="C57" s="29">
-        <f t="shared" ref="C57:J57" si="38">C34/C29</f>
+        <f t="shared" ref="C57:J57" si="41">C34/C29</f>
         <v>0.28839837077913544</v>
       </c>
       <c r="D57" s="29">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.26702024028574523</v>
       </c>
       <c r="E57" s="29">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.3158255309431377</v>
       </c>
       <c r="F57" s="29">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.23408783130199265</v>
       </c>
       <c r="G57" s="29">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.29079754601226993</v>
       </c>
       <c r="H57" s="29">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.2692889561270802</v>
       </c>
       <c r="I57" s="29">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.31270706422998823</v>
       </c>
       <c r="J57" s="29">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.24638715432649419</v>
       </c>
       <c r="K57" s="29">
-        <f t="shared" ref="K57:L57" si="39">K34/K29</f>
+        <f t="shared" ref="K57:L57" si="42">K34/K29</f>
         <v>0.28934010152284262</v>
       </c>
       <c r="L57" s="29">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.26976098383417635</v>
       </c>
-      <c r="M57" s="29"/>
+      <c r="M57" s="29">
+        <f t="shared" ref="M57" si="43">M34/M29</f>
+        <v>0.32484206235989405</v>
+      </c>
       <c r="N57" s="29"/>
       <c r="P57" s="29">
-        <f t="shared" ref="P57:V57" si="40">P34/P29</f>
+        <f t="shared" ref="P57:V57" si="44">P34/P29</f>
         <v>0.20872059667240389</v>
       </c>
       <c r="Q57" s="29">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0.26863930427404814</v>
       </c>
       <c r="R57" s="29">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0.22306636604254484</v>
       </c>
       <c r="S57" s="29">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0.25916438158464422</v>
       </c>
       <c r="T57" s="29">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0.26552857011268383</v>
       </c>
       <c r="U57" s="29">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0.27398670264556152</v>
       </c>
       <c r="V57" s="29">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0.27772313108303998</v>
       </c>
     </row>
@@ -4993,73 +5097,76 @@
         <v>64</v>
       </c>
       <c r="C58" s="29">
-        <f t="shared" ref="C58:J58" si="41">C37/C29</f>
+        <f t="shared" ref="C58:J58" si="45">C37/C29</f>
         <v>0.194849559847589</v>
       </c>
       <c r="D58" s="29">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0.18194609806256087</v>
       </c>
       <c r="E58" s="29">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0.23144553551039049</v>
       </c>
       <c r="F58" s="29">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0.1563165022248017</v>
       </c>
       <c r="G58" s="29">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0.2007361963190184</v>
       </c>
       <c r="H58" s="29">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0.19213313161875945</v>
       </c>
       <c r="I58" s="29">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0.22785080688254783</v>
       </c>
       <c r="J58" s="29">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0.16788581623550403</v>
       </c>
       <c r="K58" s="29">
-        <f t="shared" ref="K58:L58" si="42">K37/K29</f>
+        <f t="shared" ref="K58:L58" si="46">K37/K29</f>
         <v>0.1984529852550157</v>
       </c>
       <c r="L58" s="29">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0.19141128632351484</v>
       </c>
-      <c r="M58" s="29"/>
+      <c r="M58" s="29">
+        <f t="shared" ref="M58" si="47">M37/M29</f>
+        <v>0.24159364173629508</v>
+      </c>
       <c r="N58" s="29"/>
       <c r="P58" s="29">
-        <f t="shared" ref="P58:V58" si="43">P37/P29</f>
+        <f t="shared" ref="P58:V58" si="48">P37/P29</f>
         <v>0.16664754255115702</v>
       </c>
       <c r="Q58" s="29">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0.16873475448085692</v>
       </c>
       <c r="R58" s="29">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>7.3816292520341137E-2</v>
       </c>
       <c r="S58" s="29">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0.15449559821041997</v>
       </c>
       <c r="T58" s="29">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0.16942491326107648</v>
       </c>
       <c r="U58" s="29">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0.18938993518235181</v>
       </c>
       <c r="V58" s="29">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0.1955632636156554</v>
       </c>
     </row>
@@ -5068,73 +5175,76 @@
         <v>65</v>
       </c>
       <c r="C59" s="29">
-        <f t="shared" ref="C59:J59" si="44">C42/C29</f>
+        <f t="shared" ref="C59:J59" si="49">C42/C29</f>
         <v>0.15398764945473656</v>
       </c>
       <c r="D59" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0.14590323628098278</v>
       </c>
       <c r="E59" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0.18189084265814112</v>
       </c>
       <c r="F59" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0.12381505126716967</v>
       </c>
       <c r="G59" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0.15926380368098159</v>
       </c>
       <c r="H59" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0.14916792738275339</v>
       </c>
       <c r="I59" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0.17975846959495564</v>
       </c>
       <c r="J59" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0.12649420160570918</v>
       </c>
       <c r="K59" s="29">
-        <f t="shared" ref="K59:L59" si="45">K42/K29</f>
+        <f t="shared" ref="K59:L59" si="50">K42/K29</f>
         <v>0.15784384819917816</v>
       </c>
       <c r="L59" s="29">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0.14737677278587721</v>
       </c>
-      <c r="M59" s="29"/>
+      <c r="M59" s="29">
+        <f t="shared" ref="M59" si="51">M42/M29</f>
+        <v>0.18646831057672714</v>
+      </c>
       <c r="N59" s="29"/>
       <c r="P59" s="29">
-        <f t="shared" ref="P59:V59" si="46">P42/P29</f>
+        <f t="shared" ref="P59:V59" si="52">P42/P29</f>
         <v>0.13187990055459936</v>
       </c>
       <c r="Q59" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.12896383497719802</v>
       </c>
       <c r="R59" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>5.4063327124791685E-2</v>
       </c>
       <c r="S59" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.11722470775003609</v>
       </c>
       <c r="T59" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.12729896527372656</v>
       </c>
       <c r="U59" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.15005424652961305</v>
       </c>
       <c r="V59" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0.15212776972458067</v>
       </c>
     </row>
@@ -5159,27 +5269,27 @@
       <c r="N60" s="29"/>
       <c r="P60" s="29"/>
       <c r="Q60" s="29">
-        <f t="shared" ref="Q60:V60" si="47">(Q34-P34)/(Q29-P29)</f>
+        <f t="shared" ref="Q60:V60" si="53">(Q34-P34)/(Q29-P29)</f>
         <v>1</v>
       </c>
       <c r="R60" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.38655675332910588</v>
       </c>
       <c r="S60" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.35985780694558384</v>
       </c>
       <c r="T60" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.30187512878631773</v>
       </c>
       <c r="U60" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.35553582001184131</v>
       </c>
       <c r="V60" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.32774674115456237</v>
       </c>
     </row>
@@ -5188,67 +5298,76 @@
         <v>66</v>
       </c>
       <c r="C61" s="29">
-        <f t="shared" ref="C61:J61" si="48">C41/C40</f>
+        <f t="shared" ref="C61:M61" si="54">C41/C40</f>
         <v>0.22126245847176079</v>
       </c>
       <c r="D61" s="29">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.22839152833428736</v>
       </c>
       <c r="E61" s="29">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.19748110831234256</v>
       </c>
       <c r="F61" s="29">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.21520539546290618</v>
       </c>
       <c r="G61" s="29">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.2232196289646918</v>
       </c>
       <c r="H61" s="29">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.23248572911261028</v>
       </c>
       <c r="I61" s="29">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.21985157699443414</v>
       </c>
       <c r="J61" s="29">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.22258771929824561</v>
       </c>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="29"/>
+      <c r="K61" s="29">
+        <f t="shared" si="54"/>
+        <v>0.21889952153110048</v>
+      </c>
+      <c r="L61" s="29">
+        <f t="shared" si="54"/>
+        <v>0.23005181347150258</v>
+      </c>
+      <c r="M61" s="29">
+        <f t="shared" si="54"/>
+        <v>0.22490470139771285</v>
+      </c>
       <c r="N61" s="29"/>
       <c r="P61" s="29">
-        <f t="shared" ref="P61:V61" si="49">P41/P40</f>
+        <f t="shared" ref="P61:V61" si="55">P41/P40</f>
         <v>0.22131887985546522</v>
       </c>
       <c r="Q61" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>0.22084579239641178</v>
       </c>
       <c r="R61" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>0.21214285714285713</v>
       </c>
       <c r="S61" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>0.22606002858504048</v>
       </c>
       <c r="T61" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>0.22605936158297554</v>
       </c>
       <c r="U61" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>0.21473285776677828</v>
       </c>
       <c r="V61" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>0.22436320443447275</v>
       </c>
       <c r="W61" s="31">
@@ -5565,35 +5684,35 @@
         <v>44</v>
       </c>
       <c r="C68" s="21">
-        <f t="shared" ref="C68:J68" si="50">SUM(C63:C67)</f>
+        <f t="shared" ref="C68:J68" si="56">SUM(C63:C67)</f>
         <v>0</v>
       </c>
       <c r="D68" s="21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="E68" s="21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="F68" s="21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="G68" s="21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>16891</v>
       </c>
       <c r="H68" s="21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="I68" s="21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>17992</v>
       </c>
       <c r="J68" s="21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="K68" s="21"/>
@@ -5602,31 +5721,31 @@
       <c r="N68" s="21"/>
       <c r="O68" s="21"/>
       <c r="P68" s="21">
-        <f t="shared" ref="P68:V68" si="51">SUM(P63:P67)</f>
+        <f t="shared" ref="P68:V68" si="57">SUM(P63:P67)</f>
         <v>11064</v>
       </c>
       <c r="Q68" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>16978</v>
       </c>
       <c r="R68" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>15461</v>
       </c>
       <c r="S68" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>15343</v>
       </c>
       <c r="T68" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>15344</v>
       </c>
       <c r="U68" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>16719</v>
       </c>
       <c r="V68" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>18357</v>
       </c>
       <c r="W68" s="21"/>
@@ -5958,35 +6077,35 @@
         <v>50</v>
       </c>
       <c r="C74" s="21">
-        <f t="shared" ref="C74:J74" si="52">SUM(C69:C73)</f>
+        <f t="shared" ref="C74:J74" si="58">SUM(C69:C73)</f>
         <v>0</v>
       </c>
       <c r="D74" s="21">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="E74" s="21">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="F74" s="21">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="G74" s="21">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>17079</v>
       </c>
       <c r="H74" s="21">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="I74" s="21">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>18099</v>
       </c>
       <c r="J74" s="21">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="K74" s="21"/>
@@ -5995,23 +6114,23 @@
       <c r="N74" s="21"/>
       <c r="O74" s="21"/>
       <c r="P74" s="21">
-        <f t="shared" ref="P74:T74" si="53">SUM(P69:P73)</f>
+        <f t="shared" ref="P74:T74" si="59">SUM(P69:P73)</f>
         <v>10620</v>
       </c>
       <c r="Q74" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>11413</v>
       </c>
       <c r="R74" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>10957</v>
       </c>
       <c r="S74" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>13602</v>
       </c>
       <c r="T74" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>14640</v>
       </c>
       <c r="U74" s="21">
@@ -6046,35 +6165,35 @@
         <v>49</v>
       </c>
       <c r="C75" s="28">
-        <f t="shared" ref="C75:J75" si="54">C68+C74</f>
+        <f t="shared" ref="C75:J75" si="60">C68+C74</f>
         <v>0</v>
       </c>
       <c r="D75" s="28">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="E75" s="28">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="F75" s="28">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="G75" s="28">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>33970</v>
       </c>
       <c r="H75" s="28">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="I75" s="28">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>36091</v>
       </c>
       <c r="J75" s="28">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="K75" s="28"/>
@@ -6083,31 +6202,31 @@
       <c r="N75" s="28"/>
       <c r="O75" s="28"/>
       <c r="P75" s="28">
-        <f t="shared" ref="P75:V75" si="55">P68+P74</f>
+        <f t="shared" ref="P75:V75" si="61">P68+P74</f>
         <v>21684</v>
       </c>
       <c r="Q75" s="28">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>28391</v>
       </c>
       <c r="R75" s="28">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>26418</v>
       </c>
       <c r="S75" s="28">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>28945</v>
       </c>
       <c r="T75" s="28">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>29984</v>
       </c>
       <c r="U75" s="28">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>32735</v>
       </c>
       <c r="V75" s="28">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>34713</v>
       </c>
       <c r="W75" s="21"/>
@@ -6297,35 +6416,35 @@
         <v>53</v>
       </c>
       <c r="C79" s="28">
-        <f t="shared" ref="C79:J79" si="56">C77+C78</f>
+        <f t="shared" ref="C79:J79" si="62">C77+C78</f>
         <v>0</v>
       </c>
       <c r="D79" s="28">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="E79" s="28">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="F79" s="28">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="G79" s="28">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>17554</v>
       </c>
       <c r="H79" s="28">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="I79" s="28">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>18140</v>
       </c>
       <c r="J79" s="28">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="K79" s="28"/>
@@ -6334,23 +6453,23 @@
       <c r="N79" s="28"/>
       <c r="O79" s="28"/>
       <c r="P79" s="28">
-        <f t="shared" ref="P79:T79" si="57">P77+P78</f>
+        <f t="shared" ref="P79:T79" si="63">P77+P78</f>
         <v>14683</v>
       </c>
       <c r="Q79" s="28">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>14949</v>
       </c>
       <c r="R79" s="28">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>14550</v>
       </c>
       <c r="S79" s="28">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>15759</v>
       </c>
       <c r="T79" s="28">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>17033</v>
       </c>
       <c r="U79" s="28">
@@ -6629,35 +6748,35 @@
         <v>57</v>
       </c>
       <c r="C84" s="21">
-        <f t="shared" ref="C84:J84" si="58">SUM(C80:C83)</f>
+        <f t="shared" ref="C84:J84" si="64">SUM(C80:C83)</f>
         <v>0</v>
       </c>
       <c r="D84" s="21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="E84" s="21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="F84" s="21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="G84" s="21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>4804</v>
       </c>
       <c r="H84" s="21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="I84" s="21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>4999</v>
       </c>
       <c r="J84" s="21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="K84" s="21"/>
@@ -6666,23 +6785,23 @@
       <c r="N84" s="21"/>
       <c r="O84" s="21"/>
       <c r="P84" s="21">
-        <f t="shared" ref="P84:T84" si="59">SUM(P80:P83)</f>
+        <f t="shared" ref="P84:T84" si="65">SUM(P80:P83)</f>
         <v>1618</v>
       </c>
       <c r="Q84" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>6136</v>
       </c>
       <c r="R84" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>5530</v>
       </c>
       <c r="S84" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>5158</v>
       </c>
       <c r="T84" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>4813</v>
       </c>
       <c r="U84" s="21">
@@ -6961,35 +7080,35 @@
         <v>59</v>
       </c>
       <c r="C89" s="21">
-        <f t="shared" ref="C89:J89" si="60">SUM(C85:C88)</f>
+        <f t="shared" ref="C89:J89" si="66">SUM(C85:C88)</f>
         <v>0</v>
       </c>
       <c r="D89" s="21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="E89" s="21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="F89" s="21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="G89" s="21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>11612</v>
       </c>
       <c r="H89" s="21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="I89" s="21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>12952</v>
       </c>
       <c r="J89" s="21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="K89" s="21"/>
@@ -6998,23 +7117,23 @@
       <c r="N89" s="21"/>
       <c r="O89" s="21"/>
       <c r="P89" s="21">
-        <f t="shared" ref="P89:T89" si="61">SUM(P85:P88)</f>
+        <f t="shared" ref="P89:T89" si="67">SUM(P85:P88)</f>
         <v>5382</v>
       </c>
       <c r="Q89" s="21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>7306</v>
       </c>
       <c r="R89" s="21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>6337</v>
       </c>
       <c r="S89" s="21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>8030</v>
       </c>
       <c r="T89" s="21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>8137</v>
       </c>
       <c r="U89" s="21">
@@ -7049,35 +7168,35 @@
         <v>60</v>
       </c>
       <c r="C90" s="28">
-        <f t="shared" ref="C90:J90" si="62">C79+C84+C89</f>
+        <f t="shared" ref="C90:J90" si="68">C79+C84+C89</f>
         <v>0</v>
       </c>
       <c r="D90" s="28">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="E90" s="28">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="F90" s="28">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="G90" s="28">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>33970</v>
       </c>
       <c r="H90" s="28">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="I90" s="28">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>36091</v>
       </c>
       <c r="J90" s="28">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="K90" s="28"/>
@@ -7086,31 +7205,31 @@
       <c r="N90" s="28"/>
       <c r="O90" s="28"/>
       <c r="P90" s="28">
-        <f t="shared" ref="P90:V90" si="63">P79+P84+P89</f>
+        <f t="shared" ref="P90:V90" si="69">P79+P84+P89</f>
         <v>21683</v>
       </c>
       <c r="Q90" s="28">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>28391</v>
       </c>
       <c r="R90" s="28">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>26417</v>
       </c>
       <c r="S90" s="28">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>28947</v>
       </c>
       <c r="T90" s="28">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>29983</v>
       </c>
       <c r="U90" s="28">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>32736</v>
       </c>
       <c r="V90" s="28">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>34714</v>
       </c>
       <c r="W90" s="21"/>
@@ -7232,31 +7351,31 @@
       <c r="N93" s="21"/>
       <c r="O93" s="21"/>
       <c r="P93" s="21">
-        <f t="shared" ref="P93:V93" si="64">P40</f>
+        <f t="shared" ref="P93:V93" si="70">P40</f>
         <v>4428</v>
       </c>
       <c r="Q93" s="21">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>4682</v>
       </c>
       <c r="R93" s="21">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>1400</v>
       </c>
       <c r="S93" s="21">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>4198</v>
       </c>
       <c r="T93" s="21">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>5357</v>
       </c>
       <c r="U93" s="21">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>6869</v>
       </c>
       <c r="V93" s="21">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>7577</v>
       </c>
       <c r="W93" s="21"/>
@@ -7758,19 +7877,19 @@
       <c r="N102" s="21"/>
       <c r="O102" s="21"/>
       <c r="P102" s="21">
-        <f t="shared" ref="P102:S102" si="65">SUM(P99:P101)</f>
+        <f t="shared" ref="P102:S102" si="71">SUM(P99:P101)</f>
         <v>-349</v>
       </c>
       <c r="Q102" s="21">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>205</v>
       </c>
       <c r="R102" s="21">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>-847</v>
       </c>
       <c r="S102" s="21">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>223</v>
       </c>
       <c r="T102" s="21">
@@ -7824,23 +7943,23 @@
       <c r="N103" s="28"/>
       <c r="O103" s="28"/>
       <c r="P103" s="28">
-        <f t="shared" ref="P103:T103" si="66">P93+SUM(P94:P97)+P102</f>
+        <f t="shared" ref="P103:T103" si="72">P93+SUM(P94:P97)+P102</f>
         <v>4028</v>
       </c>
       <c r="Q103" s="28">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>6901</v>
       </c>
       <c r="R103" s="28">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>3016</v>
       </c>
       <c r="S103" s="28">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>6754</v>
       </c>
       <c r="T103" s="28">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>6673</v>
       </c>
       <c r="U103" s="28">
@@ -8189,23 +8308,23 @@
       <c r="N109" s="28"/>
       <c r="O109" s="28"/>
       <c r="P109" s="28">
-        <f t="shared" ref="P109:T109" si="67">SUM(P104:P108)</f>
+        <f t="shared" ref="P109:T109" si="73">SUM(P104:P108)</f>
         <v>-1875</v>
       </c>
       <c r="Q109" s="28">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>-2376</v>
       </c>
       <c r="R109" s="28">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>2514</v>
       </c>
       <c r="S109" s="28">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>-3253</v>
       </c>
       <c r="T109" s="28">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>-3503</v>
       </c>
       <c r="U109" s="28">
@@ -8550,23 +8669,23 @@
       <c r="N115" s="28"/>
       <c r="O115" s="28"/>
       <c r="P115" s="28">
-        <f t="shared" ref="P115:T115" si="68">SUM(P110:P114)</f>
+        <f t="shared" ref="P115:T115" si="74">SUM(P110:P114)</f>
         <v>-2260</v>
       </c>
       <c r="Q115" s="28">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>-4629</v>
       </c>
       <c r="R115" s="28">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>-2786</v>
       </c>
       <c r="S115" s="28">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>-3909</v>
       </c>
       <c r="T115" s="28">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>-4614</v>
       </c>
       <c r="U115" s="28">
@@ -8718,23 +8837,23 @@
       <c r="N118" s="28"/>
       <c r="O118" s="28"/>
       <c r="P118" s="28">
-        <f t="shared" ref="P118:T118" si="69">P103+P109+P115+P116</f>
+        <f t="shared" ref="P118:T118" si="75">P103+P109+P115+P116</f>
         <v>-66</v>
       </c>
       <c r="Q118" s="28">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>-84</v>
       </c>
       <c r="R118" s="28">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>2617</v>
       </c>
       <c r="S118" s="28">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>-377</v>
       </c>
       <c r="T118" s="28">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>-1461</v>
       </c>
       <c r="U118" s="28">
@@ -10118,7 +10237,7 @@
       </c>
       <c r="J29" s="3">
         <f>Main!J3</f>
-        <v>45.46</v>
+        <v>54.86</v>
       </c>
       <c r="M29" s="34"/>
     </row>
@@ -10185,7 +10304,7 @@
       </c>
       <c r="J31" s="21">
         <f>J29*J30</f>
-        <v>142946.83260718</v>
+        <v>172504.69064738002</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -10218,7 +10337,7 @@
       </c>
       <c r="J32" s="21">
         <f>Main!J7-Main!J6</f>
-        <v>-10012</v>
+        <v>-11268</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
@@ -10251,7 +10370,7 @@
       </c>
       <c r="J33" s="21">
         <f>J31+J32</f>
-        <v>132934.83260718</v>
+        <v>161236.69064738002</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
@@ -10289,7 +10408,7 @@
       </c>
       <c r="J35" s="34">
         <f>J31/Model!V44</f>
-        <v>24.368706547422434</v>
+        <v>29.407550400167068</v>
       </c>
       <c r="M35" s="34">
         <f>AVERAGE(G35:I35,D35:E35)</f>
@@ -10323,7 +10442,7 @@
       </c>
       <c r="J36" s="35">
         <f>J35/((Model!V44/Model!U44-1)*100)</f>
-        <v>2.6976057865253642</v>
+        <v>3.255403727425902</v>
       </c>
       <c r="M36" s="34">
         <f t="shared" ref="M36:M37" si="10">AVERAGE(G36:I36,D36:E36)</f>
@@ -10402,7 +10521,7 @@
       </c>
       <c r="J39" s="34">
         <f>J33/Model!V29</f>
-        <v>3.4410548925031064</v>
+        <v>4.1736563120568446</v>
       </c>
       <c r="M39" s="34">
         <f t="shared" ref="M39:M41" si="11">AVERAGE(G39:I39,D39:E39)</f>
@@ -10439,7 +10558,7 @@
       </c>
       <c r="J40" s="34">
         <f>J33/Model!V34</f>
-        <v>12.390235120438065</v>
+        <v>15.028119176752728</v>
       </c>
       <c r="M40" s="34">
         <f t="shared" si="11"/>
@@ -10476,7 +10595,7 @@
       </c>
       <c r="J41" s="34">
         <f>J33/Model!V37</f>
-        <v>17.595609875205824</v>
+        <v>21.34171947682065</v>
       </c>
       <c r="M41" s="34">
         <f t="shared" si="11"/>
@@ -10557,7 +10676,7 @@
       </c>
       <c r="J3" s="38">
         <f>Main!J3</f>
-        <v>45.46</v>
+        <v>54.86</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -10572,7 +10691,7 @@
       </c>
       <c r="J4" s="40">
         <f ca="1">V60</f>
-        <v>68.867729147386157</v>
+        <v>69.266675579291473</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -10587,7 +10706,7 @@
       </c>
       <c r="J5" s="41">
         <f ca="1">J4/J3-1</f>
-        <v>0.51490825225222525</v>
+        <v>0.26260801274683687</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -12276,7 +12395,7 @@
       <c r="Q56" s="3"/>
       <c r="V56" s="3">
         <f>Main!J6</f>
-        <v>10013</v>
+        <v>11269</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
@@ -12317,7 +12436,7 @@
       <c r="Q58" s="3"/>
       <c r="V58" s="3">
         <f ca="1">V55+V56-V57</f>
-        <v>214578.87216666079</v>
+        <v>215834.87216666079</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
@@ -12345,7 +12464,7 @@
       <c r="U59" s="68"/>
       <c r="V59" s="68">
         <f>Main!J4</f>
-        <v>3115.8116409999998</v>
+        <v>3115.9987160000001</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
@@ -12354,7 +12473,7 @@
       </c>
       <c r="V60" s="34">
         <f ca="1">V58/V59</f>
-        <v>68.867729147386157</v>
+        <v>69.266675579291473</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
@@ -12387,19 +12506,19 @@
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66" s="70"/>
-      <c r="C66" s="74" t="s">
+      <c r="C66" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="D66" s="74"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="74"/>
-      <c r="G66" s="74"/>
-      <c r="H66" s="74"/>
-      <c r="I66" s="74"/>
-      <c r="J66" s="75"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="75"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="75"/>
+      <c r="H66" s="75"/>
+      <c r="I66" s="75"/>
+      <c r="J66" s="76"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B67" s="76" t="s">
+      <c r="B67" s="77" t="s">
         <v>162</v>
       </c>
       <c r="C67" s="71"/>
@@ -12412,7 +12531,7 @@
       <c r="J67" s="72"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="76"/>
+      <c r="B68" s="77"/>
       <c r="C68" s="73"/>
       <c r="D68" s="35"/>
       <c r="E68" s="35"/>
@@ -12423,7 +12542,7 @@
       <c r="J68" s="35"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="76"/>
+      <c r="B69" s="77"/>
       <c r="C69" s="73"/>
       <c r="D69" s="35"/>
       <c r="E69" s="35"/>
@@ -12434,7 +12553,7 @@
       <c r="J69" s="35"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="76"/>
+      <c r="B70" s="77"/>
       <c r="C70" s="73"/>
       <c r="D70" s="35"/>
       <c r="E70" s="35"/>
@@ -12445,7 +12564,7 @@
       <c r="J70" s="35"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B71" s="76"/>
+      <c r="B71" s="77"/>
       <c r="C71" s="73"/>
       <c r="D71" s="35"/>
       <c r="E71" s="35"/>
@@ -12456,7 +12575,7 @@
       <c r="J71" s="35"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="76"/>
+      <c r="B72" s="77"/>
       <c r="C72" s="73"/>
       <c r="D72" s="35"/>
       <c r="E72" s="35"/>
@@ -12467,7 +12586,7 @@
       <c r="J72" s="35"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B73" s="76"/>
+      <c r="B73" s="77"/>
       <c r="C73" s="73"/>
       <c r="D73" s="35"/>
       <c r="E73" s="35"/>
@@ -12478,7 +12597,7 @@
       <c r="J73" s="35"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B74" s="77"/>
+      <c r="B74" s="78"/>
       <c r="C74" s="73"/>
       <c r="D74" s="35"/>
       <c r="E74" s="35"/>
